--- a/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
@@ -687,10 +687,10 @@
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 06:03:18</t>
-  </si>
-  <si>
-    <t>2016-01-11 07:46:00</t>
+    <t>2016-01-11 08:31:42</t>
+  </si>
+  <si>
+    <t>2016-01-11 08:33:53</t>
   </si>
   <si>
     <t>b2c94ac52ef618490102103406d0ed0e4366a42b.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
@@ -687,10 +687,10 @@
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 08:31:42</t>
-  </si>
-  <si>
-    <t>2016-01-11 08:33:53</t>
+    <t>2016-01-11 09:29:29</t>
+  </si>
+  <si>
+    <t>2016-01-11 09:43:30</t>
   </si>
   <si>
     <t>b2c94ac52ef618490102103406d0ed0e4366a42b.xlf</t>
@@ -852,15 +852,21 @@
     <t>2015-11-02 17:17:03</t>
   </si>
   <si>
+    <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:50:34</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:45:10</t>
+  </si>
+  <si>
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf</t>
   </si>
   <si>
     <t>2016-01-08 14:15:04</t>
   </si>
   <si>
-    <t>2016-01-08 14:45:10</t>
-  </si>
-  <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.ja-jp.xlf</t>
   </si>
   <si>
@@ -921,9 +927,6 @@
     <t>TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 13:50:34</t>
-  </si>
-  <si>
     <t>checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf</t>
   </si>
   <si>
@@ -960,9 +963,6 @@
     <t>work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf</t>
   </si>
   <si>
-    <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf</t>
-  </si>
-  <si>
     <t>EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf</t>
   </si>
   <si>
@@ -1005,6 +1005,9 @@
     <t>2016-01-11 05:30:24</t>
   </si>
   <si>
+    <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf</t>
+  </si>
+  <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf</t>
   </si>
   <si>
@@ -1087,9 +1090,6 @@
   </si>
   <si>
     <t>work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf</t>
   </si>
   <si>
     <t>EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf</t>
@@ -1323,10 +1323,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -9433,7 +9433,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -9445,7 +9445,7 @@
         <v>279</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>278</v>
@@ -9459,10 +9459,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>281</v>
@@ -9471,13 +9471,13 @@
         <v>282</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>281</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>122</v>
@@ -9485,25 +9485,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>122</v>
@@ -9511,25 +9511,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>283</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>122</v>
@@ -9537,77 +9537,77 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>287</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
+        <v>287</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>287</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>287</v>
+        <v>127</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>122</v>
@@ -9615,25 +9615,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>122</v>
@@ -9641,77 +9641,77 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>122</v>
@@ -9719,25 +9719,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>122</v>
@@ -9745,51 +9745,51 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>128</v>
@@ -9797,25 +9797,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>128</v>
@@ -9823,25 +9823,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>128</v>
@@ -9849,25 +9849,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>128</v>
@@ -9875,25 +9875,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>128</v>
@@ -9901,25 +9901,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>128</v>
@@ -9927,25 +9927,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>128</v>
@@ -9953,25 +9953,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>128</v>
@@ -9979,25 +9979,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>128</v>
@@ -10005,25 +10005,25 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>128</v>
@@ -10031,25 +10031,25 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>128</v>
@@ -10057,25 +10057,25 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>128</v>
@@ -10083,25 +10083,25 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>128</v>
@@ -10109,25 +10109,25 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>128</v>
@@ -10135,25 +10135,25 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>128</v>
@@ -10161,25 +10161,25 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>128</v>
@@ -10187,103 +10187,103 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>293</v>
+        <v>150</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>293</v>
+        <v>150</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>122</v>
@@ -10291,51 +10291,51 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>128</v>
@@ -10343,25 +10343,25 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>128</v>
@@ -10369,25 +10369,25 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>128</v>
@@ -10395,77 +10395,77 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>128</v>
@@ -10473,25 +10473,25 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>128</v>
@@ -10499,77 +10499,77 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>164</v>
+        <v>299</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>164</v>
+        <v>299</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>128</v>
@@ -10577,25 +10577,25 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>128</v>
@@ -10603,25 +10603,25 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>128</v>
@@ -10629,77 +10629,77 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>128</v>
@@ -10707,25 +10707,25 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>128</v>
@@ -10733,25 +10733,25 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>128</v>
@@ -10759,25 +10759,25 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>128</v>
@@ -10785,77 +10785,77 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>128</v>
@@ -10863,25 +10863,25 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>128</v>
@@ -10889,25 +10889,25 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>128</v>
@@ -10915,25 +10915,25 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>128</v>
@@ -10941,25 +10941,25 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>128</v>
@@ -10967,25 +10967,25 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>128</v>
@@ -10993,25 +10993,25 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>128</v>
@@ -11019,25 +11019,25 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>128</v>
@@ -11045,33 +11045,33 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>300</v>
+        <v>183</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>300</v>
+        <v>183</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>7</v>
@@ -11080,16 +11080,16 @@
         <v>302</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>302</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>122</v>
@@ -11097,7 +11097,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>7</v>
@@ -11106,16 +11106,16 @@
         <v>303</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>303</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>122</v>
@@ -11123,7 +11123,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>7</v>
@@ -11132,16 +11132,16 @@
         <v>304</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>304</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>122</v>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>7</v>
@@ -11158,16 +11158,16 @@
         <v>305</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>305</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>122</v>
@@ -11175,51 +11175,51 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>188</v>
+        <v>306</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>188</v>
+        <v>306</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>128</v>
@@ -11227,25 +11227,25 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>128</v>
@@ -11253,25 +11253,25 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>128</v>
@@ -11279,33 +11279,33 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>7</v>
@@ -11314,16 +11314,16 @@
         <v>307</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>307</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>122</v>
@@ -11331,7 +11331,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>7</v>
@@ -11340,16 +11340,16 @@
         <v>308</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>122</v>
@@ -11357,7 +11357,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>7</v>
@@ -11366,16 +11366,16 @@
         <v>309</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>309</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>122</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>7</v>
@@ -11392,16 +11392,16 @@
         <v>310</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>122</v>
@@ -11409,111 +11409,111 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>311</v>
+        <v>195</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>311</v>
+        <v>195</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>7</v>
@@ -11522,16 +11522,16 @@
         <v>313</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>313</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>122</v>
@@ -11539,7 +11539,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>7</v>
@@ -11548,16 +11548,16 @@
         <v>314</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>314</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>122</v>
@@ -11574,7 +11574,7 @@
         <v>315</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>83</v>
@@ -11583,7 +11583,7 @@
         <v>315</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>122</v>
@@ -11600,7 +11600,7 @@
         <v>316</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>84</v>
@@ -11609,7 +11609,7 @@
         <v>316</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>122</v>
@@ -11626,7 +11626,7 @@
         <v>202</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>85</v>
@@ -11635,7 +11635,7 @@
         <v>202</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>128</v>
@@ -11652,7 +11652,7 @@
         <v>203</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>86</v>
@@ -11661,7 +11661,7 @@
         <v>203</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>128</v>
@@ -11678,7 +11678,7 @@
         <v>204</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>87</v>
@@ -11687,7 +11687,7 @@
         <v>204</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>128</v>
@@ -11704,7 +11704,7 @@
         <v>205</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>88</v>
@@ -11713,7 +11713,7 @@
         <v>205</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>128</v>
@@ -11730,7 +11730,7 @@
         <v>206</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>89</v>
@@ -11739,7 +11739,7 @@
         <v>206</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>128</v>
@@ -11756,7 +11756,7 @@
         <v>317</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>90</v>
@@ -11765,7 +11765,7 @@
         <v>317</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>122</v>
@@ -11782,7 +11782,7 @@
         <v>208</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>91</v>
@@ -11791,7 +11791,7 @@
         <v>208</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>128</v>
@@ -11808,7 +11808,7 @@
         <v>318</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>92</v>
@@ -11817,7 +11817,7 @@
         <v>318</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>122</v>
@@ -11834,7 +11834,7 @@
         <v>319</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>93</v>
@@ -11843,7 +11843,7 @@
         <v>319</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>122</v>
@@ -11860,7 +11860,7 @@
         <v>211</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>94</v>
@@ -11869,7 +11869,7 @@
         <v>211</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>128</v>
@@ -11886,7 +11886,7 @@
         <v>212</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>95</v>
@@ -11895,7 +11895,7 @@
         <v>212</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>128</v>
@@ -11912,7 +11912,7 @@
         <v>213</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>96</v>
@@ -11921,7 +11921,7 @@
         <v>213</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>128</v>
@@ -11938,7 +11938,7 @@
         <v>214</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>97</v>
@@ -11947,7 +11947,7 @@
         <v>214</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>128</v>
@@ -11964,7 +11964,7 @@
         <v>215</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>98</v>
@@ -11973,7 +11973,7 @@
         <v>215</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>128</v>
@@ -11990,7 +11990,7 @@
         <v>320</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>99</v>
@@ -11999,7 +11999,7 @@
         <v>320</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>122</v>
@@ -12016,7 +12016,7 @@
         <v>321</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>100</v>
@@ -12025,7 +12025,7 @@
         <v>321</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>122</v>
@@ -12042,7 +12042,7 @@
         <v>322</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>101</v>
@@ -12051,7 +12051,7 @@
         <v>322</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>122</v>
@@ -12068,7 +12068,7 @@
         <v>323</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>102</v>
@@ -12077,7 +12077,7 @@
         <v>323</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>122</v>
@@ -12094,7 +12094,7 @@
         <v>324</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>103</v>
@@ -12103,7 +12103,7 @@
         <v>324</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>122</v>
@@ -12120,7 +12120,7 @@
         <v>325</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>5</v>
@@ -12129,7 +12129,7 @@
         <v>325</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>122</v>
@@ -12137,334 +12137,334 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="windows_welcome1.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="windows_welcome1.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="community_overview.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.ja-jp.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="community_overview.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.ja-jp.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="TOC.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.ja-jp.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="TOC.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.ja-jp.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="hyperv_on_windows_new.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.ja-jp.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="hyperv_on_windows_new.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.ja-jp.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="ProductionCheckpoints_new.png" r:id="rId18"/>
-    <hyperlink ref="C6" display="00f8d7cfb9fbdf0f9d67f239aff5575dcdaaaed0.png" r:id="rId19"/>
-    <hyperlink ref="E6" display="ProductionCheckpoints_new.png" r:id="rId20"/>
-    <hyperlink ref="F6" display="00f8d7cfb9fbdf0f9d67f239aff5575dcdaaaed0.png" r:id="rId21"/>
-    <hyperlink ref="A7" display="supported_guest_os.md" r:id="rId22"/>
-    <hyperlink ref="C7" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.ja-jp.xlf" r:id="rId23"/>
-    <hyperlink ref="E7" display="supported_guest_os.md" r:id="rId24"/>
-    <hyperlink ref="F7" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.ja-jp.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="whats_new.md" r:id="rId26"/>
-    <hyperlink ref="C8" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.ja-jp.xlf" r:id="rId27"/>
-    <hyperlink ref="E8" display="whats_new.md" r:id="rId28"/>
-    <hyperlink ref="F8" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.ja-jp.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="make_mgmt_servic.md" r:id="rId30"/>
-    <hyperlink ref="C9" display="make_mgmt_servic.25af83c569730c64c3b882e5575342123f74c879.ja-jp.xlf" r:id="rId31"/>
-    <hyperlink ref="E9" display="make_mgmt_servic.md" r:id="rId32"/>
-    <hyperlink ref="F9" display="make_mgmt_servic.25af83c569730c64c3b882e5575342123f74c879.ja-jp.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="1.png" r:id="rId34"/>
-    <hyperlink ref="C10" display="90b18083c5e836b383786e364b91c37fde16adff.png" r:id="rId35"/>
-    <hyperlink ref="E10" display="1.png" r:id="rId36"/>
-    <hyperlink ref="F10" display="90b18083c5e836b383786e364b91c37fde16adff.png" r:id="rId37"/>
-    <hyperlink ref="A11" display="powershell_snippets.md" r:id="rId38"/>
-    <hyperlink ref="C11" display="powershell_snippets.21e7d9aff80df6f1c56918c2c3e1149d3e880e9a.ja-jp.xlf" r:id="rId39"/>
-    <hyperlink ref="E11" display="powershell_snippets.md" r:id="rId40"/>
-    <hyperlink ref="F11" display="powershell_snippets.21e7d9aff80df6f1c56918c2c3e1149d3e880e9a.ja-jp.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="walkthrough.md" r:id="rId42"/>
-    <hyperlink ref="C12" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.ja-jp.xlf" r:id="rId43"/>
-    <hyperlink ref="E12" display="walkthrough.md" r:id="rId44"/>
-    <hyperlink ref="F12" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.ja-jp.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="walkthrough_checkpoints.md" r:id="rId46"/>
-    <hyperlink ref="C13" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.ja-jp.xlf" r:id="rId47"/>
-    <hyperlink ref="E13" display="walkthrough_checkpoints.md" r:id="rId48"/>
-    <hyperlink ref="F13" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.ja-jp.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="standard1.png" r:id="rId50"/>
-    <hyperlink ref="C14" display="d5fe61997fe63333a11454f5890626ad201cf2a5.png" r:id="rId51"/>
-    <hyperlink ref="E14" display="standard1.png" r:id="rId52"/>
-    <hyperlink ref="F14" display="d5fe61997fe63333a11454f5890626ad201cf2a5.png" r:id="rId53"/>
-    <hyperlink ref="A15" display="standard_notepad.png" r:id="rId54"/>
-    <hyperlink ref="C15" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId55"/>
-    <hyperlink ref="E15" display="standard_notepad.png" r:id="rId56"/>
-    <hyperlink ref="F15" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId57"/>
-    <hyperlink ref="A16" display="checkpoint_button.png" r:id="rId58"/>
-    <hyperlink ref="C16" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId59"/>
-    <hyperlink ref="E16" display="checkpoint_button.png" r:id="rId60"/>
-    <hyperlink ref="F16" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId61"/>
-    <hyperlink ref="A17" display="save_standard.png" r:id="rId62"/>
-    <hyperlink ref="C17" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId63"/>
-    <hyperlink ref="E17" display="save_standard.png" r:id="rId64"/>
-    <hyperlink ref="F17" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId65"/>
-    <hyperlink ref="A18" display="standard_complete.png" r:id="rId66"/>
-    <hyperlink ref="C18" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId67"/>
-    <hyperlink ref="E18" display="standard_complete.png" r:id="rId68"/>
-    <hyperlink ref="F18" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId69"/>
-    <hyperlink ref="A19" display="production.png" r:id="rId70"/>
-    <hyperlink ref="C19" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId71"/>
-    <hyperlink ref="E19" display="production.png" r:id="rId72"/>
-    <hyperlink ref="F19" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId73"/>
-    <hyperlink ref="A20" display="production_CheckpointName.png" r:id="rId74"/>
-    <hyperlink ref="C20" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId75"/>
-    <hyperlink ref="E20" display="production_CheckpointName.png" r:id="rId76"/>
-    <hyperlink ref="F20" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId77"/>
-    <hyperlink ref="A21" display="production_complete.png" r:id="rId78"/>
-    <hyperlink ref="C21" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId79"/>
-    <hyperlink ref="E21" display="production_complete.png" r:id="rId80"/>
-    <hyperlink ref="F21" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId81"/>
-    <hyperlink ref="A22" display="apply_standard.png" r:id="rId82"/>
-    <hyperlink ref="C22" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId83"/>
-    <hyperlink ref="E22" display="apply_standard.png" r:id="rId84"/>
-    <hyperlink ref="F22" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId85"/>
-    <hyperlink ref="A23" display="standard_applied.png" r:id="rId86"/>
-    <hyperlink ref="C23" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId87"/>
-    <hyperlink ref="E23" display="standard_applied.png" r:id="rId88"/>
-    <hyperlink ref="F23" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId89"/>
-    <hyperlink ref="A24" display="standard_applied_notepad.png" r:id="rId90"/>
-    <hyperlink ref="C24" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId91"/>
-    <hyperlink ref="E24" display="standard_applied_notepad.png" r:id="rId92"/>
-    <hyperlink ref="F24" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId93"/>
-    <hyperlink ref="A25" display="start.png" r:id="rId94"/>
-    <hyperlink ref="C25" display="600e67045b98582d4dc3d087dcd2ae2a6d4be54c.png" r:id="rId95"/>
-    <hyperlink ref="E25" display="start.png" r:id="rId96"/>
-    <hyperlink ref="F25" display="600e67045b98582d4dc3d087dcd2ae2a6d4be54c.png" r:id="rId97"/>
-    <hyperlink ref="A26" display="production_notepad.png" r:id="rId98"/>
-    <hyperlink ref="C26" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId99"/>
-    <hyperlink ref="E26" display="production_notepad.png" r:id="rId100"/>
-    <hyperlink ref="F26" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId101"/>
-    <hyperlink ref="A27" display="delete_me.png" r:id="rId102"/>
-    <hyperlink ref="C27" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId103"/>
-    <hyperlink ref="E27" display="delete_me.png" r:id="rId104"/>
-    <hyperlink ref="F27" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId105"/>
-    <hyperlink ref="A28" display="delete_checkpoint.png" r:id="rId106"/>
-    <hyperlink ref="C28" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId107"/>
-    <hyperlink ref="E28" display="delete_checkpoint.png" r:id="rId108"/>
-    <hyperlink ref="F28" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId109"/>
-    <hyperlink ref="A29" display="delete_warn.png" r:id="rId110"/>
-    <hyperlink ref="C29" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId111"/>
-    <hyperlink ref="E29" display="delete_warn.png" r:id="rId112"/>
-    <hyperlink ref="F29" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId113"/>
-    <hyperlink ref="A30" display="after_delete.png" r:id="rId114"/>
-    <hyperlink ref="C30" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId115"/>
-    <hyperlink ref="E30" display="after_delete.png" r:id="rId116"/>
-    <hyperlink ref="F30" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId117"/>
-    <hyperlink ref="A31" display="walkthrough_compatibility.md" r:id="rId118"/>
-    <hyperlink ref="C31" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.ja-jp.xlf" r:id="rId119"/>
-    <hyperlink ref="E31" display="walkthrough_compatibility.md" r:id="rId120"/>
-    <hyperlink ref="F31" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.ja-jp.xlf" r:id="rId121"/>
-    <hyperlink ref="A32" display="systeminfo.png" r:id="rId122"/>
-    <hyperlink ref="C32" display="0a5cf2ba600896aeab999b4e8d62df930ee0226d.png" r:id="rId123"/>
-    <hyperlink ref="E32" display="systeminfo.png" r:id="rId124"/>
-    <hyperlink ref="F32" display="0a5cf2ba600896aeab999b4e8d62df930ee0226d.png" r:id="rId125"/>
-    <hyperlink ref="A33" display="walkthrough_create_vm.md" r:id="rId126"/>
-    <hyperlink ref="C33" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf" r:id="rId127"/>
-    <hyperlink ref="E33" display="walkthrough_create_vm.md" r:id="rId128"/>
-    <hyperlink ref="F33" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf" r:id="rId129"/>
-    <hyperlink ref="A34" display="walkthrough_export_import.md" r:id="rId130"/>
-    <hyperlink ref="C34" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.ja-jp.xlf" r:id="rId131"/>
-    <hyperlink ref="E34" display="walkthrough_export_import.md" r:id="rId132"/>
-    <hyperlink ref="F34" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.ja-jp.xlf" r:id="rId133"/>
-    <hyperlink ref="A35" display="select_export1.png" r:id="rId134"/>
-    <hyperlink ref="C35" display="16cfc23957260ceb3b07ef55a8e4b79996d525ca.png" r:id="rId135"/>
-    <hyperlink ref="E35" display="select_export1.png" r:id="rId136"/>
-    <hyperlink ref="F35" display="16cfc23957260ceb3b07ef55a8e4b79996d525ca.png" r:id="rId137"/>
-    <hyperlink ref="A36" display="click_export.png" r:id="rId138"/>
-    <hyperlink ref="C36" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId139"/>
-    <hyperlink ref="E36" display="click_export.png" r:id="rId140"/>
-    <hyperlink ref="F36" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId141"/>
-    <hyperlink ref="A37" display="export_progress.png" r:id="rId142"/>
-    <hyperlink ref="C37" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId143"/>
-    <hyperlink ref="E37" display="export_progress.png" r:id="rId144"/>
-    <hyperlink ref="F37" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId145"/>
-    <hyperlink ref="A38" display="export_confirm.png" r:id="rId146"/>
-    <hyperlink ref="C38" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId147"/>
-    <hyperlink ref="E38" display="export_confirm.png" r:id="rId148"/>
-    <hyperlink ref="F38" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId149"/>
-    <hyperlink ref="A39" display="walkthrough_install.md" r:id="rId150"/>
-    <hyperlink ref="C39" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.ja-jp.xlf" r:id="rId151"/>
-    <hyperlink ref="E39" display="walkthrough_install.md" r:id="rId152"/>
-    <hyperlink ref="F39" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.ja-jp.xlf" r:id="rId153"/>
-    <hyperlink ref="A40" display="programs_and_features.png" r:id="rId154"/>
-    <hyperlink ref="C40" display="fdb6dbedc6e3005586a9f283aa1f46b014bf929e.png" r:id="rId155"/>
-    <hyperlink ref="E40" display="programs_and_features.png" r:id="rId156"/>
-    <hyperlink ref="F40" display="fdb6dbedc6e3005586a9f283aa1f46b014bf929e.png" r:id="rId157"/>
-    <hyperlink ref="A41" display="hyper-v_feature_selected.png" r:id="rId158"/>
-    <hyperlink ref="C41" display="152595e982ed925cc5a6f625f1786a5f397ecd08.png" r:id="rId159"/>
-    <hyperlink ref="E41" display="hyper-v_feature_selected.png" r:id="rId160"/>
-    <hyperlink ref="F41" display="152595e982ed925cc5a6f625f1786a5f397ecd08.png" r:id="rId161"/>
-    <hyperlink ref="A42" display="restart.png" r:id="rId162"/>
-    <hyperlink ref="C42" display="8b5e8f8277dd3bb9ae0df0f19c95fd9f1a2f47e3.png" r:id="rId163"/>
-    <hyperlink ref="E42" display="restart.png" r:id="rId164"/>
-    <hyperlink ref="F42" display="8b5e8f8277dd3bb9ae0df0f19c95fd9f1a2f47e3.png" r:id="rId165"/>
-    <hyperlink ref="A43" display="walkthrough_powershell.md" r:id="rId166"/>
-    <hyperlink ref="C43" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.ja-jp.xlf" r:id="rId167"/>
-    <hyperlink ref="E43" display="walkthrough_powershell.md" r:id="rId168"/>
-    <hyperlink ref="F43" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.ja-jp.xlf" r:id="rId169"/>
-    <hyperlink ref="A44" display="command_grid.png" r:id="rId170"/>
-    <hyperlink ref="C44" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId171"/>
-    <hyperlink ref="E44" display="command_grid.png" r:id="rId172"/>
-    <hyperlink ref="F44" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId173"/>
-    <hyperlink ref="A45" display="get_help.png" r:id="rId174"/>
-    <hyperlink ref="C45" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId175"/>
-    <hyperlink ref="E45" display="get_help.png" r:id="rId176"/>
-    <hyperlink ref="F45" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId177"/>
-    <hyperlink ref="A46" display="get_vm.png" r:id="rId178"/>
-    <hyperlink ref="C46" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId179"/>
-    <hyperlink ref="E46" display="get_vm.png" r:id="rId180"/>
-    <hyperlink ref="F46" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId181"/>
-    <hyperlink ref="A47" display="POSH_CP2.png" r:id="rId182"/>
-    <hyperlink ref="C47" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId183"/>
-    <hyperlink ref="E47" display="POSH_CP2.png" r:id="rId184"/>
-    <hyperlink ref="F47" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId185"/>
-    <hyperlink ref="A48" display="walkthrough_virtual_switch.md" r:id="rId186"/>
-    <hyperlink ref="C48" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.ja-jp.xlf" r:id="rId187"/>
-    <hyperlink ref="E48" display="walkthrough_virtual_switch.md" r:id="rId188"/>
-    <hyperlink ref="F48" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.ja-jp.xlf" r:id="rId189"/>
-    <hyperlink ref="A49" display="virtual_switch_manager1.png" r:id="rId190"/>
-    <hyperlink ref="C49" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId191"/>
-    <hyperlink ref="E49" display="virtual_switch_manager1.png" r:id="rId192"/>
-    <hyperlink ref="F49" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId193"/>
-    <hyperlink ref="A50" display="new_switch.png" r:id="rId194"/>
-    <hyperlink ref="C50" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId195"/>
-    <hyperlink ref="E50" display="new_switch.png" r:id="rId196"/>
-    <hyperlink ref="F50" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId197"/>
-    <hyperlink ref="A51" display="new_switch_createbutton.png" r:id="rId198"/>
-    <hyperlink ref="C51" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId199"/>
-    <hyperlink ref="E51" display="new_switch_createbutton.png" r:id="rId200"/>
-    <hyperlink ref="F51" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId201"/>
-    <hyperlink ref="A52" display="share_nic.png" r:id="rId202"/>
-    <hyperlink ref="C52" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId203"/>
-    <hyperlink ref="E52" display="share_nic.png" r:id="rId204"/>
-    <hyperlink ref="F52" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId205"/>
-    <hyperlink ref="A53" display="network_warning.png" r:id="rId206"/>
-    <hyperlink ref="C53" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId207"/>
-    <hyperlink ref="E53" display="network_warning.png" r:id="rId208"/>
-    <hyperlink ref="F53" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId209"/>
-    <hyperlink ref="A54" display="walkthrough_vmconnect.md" r:id="rId210"/>
-    <hyperlink ref="C54" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.ja-jp.xlf" r:id="rId211"/>
-    <hyperlink ref="E54" display="walkthrough_vmconnect.md" r:id="rId212"/>
-    <hyperlink ref="F54" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.ja-jp.xlf" r:id="rId213"/>
-    <hyperlink ref="A55" display="turnoff.png" r:id="rId214"/>
-    <hyperlink ref="C55" display="0ace2b0a0fb0268ec72373ff912836157cddbda5.png" r:id="rId215"/>
-    <hyperlink ref="E55" display="turnoff.png" r:id="rId216"/>
-    <hyperlink ref="F55" display="0ace2b0a0fb0268ec72373ff912836157cddbda5.png" r:id="rId217"/>
-    <hyperlink ref="A56" display="shutdown.png" r:id="rId218"/>
-    <hyperlink ref="C56" display="5ab1d8630e83b53afc73ae837c8d9409f0cfee96.png" r:id="rId219"/>
-    <hyperlink ref="E56" display="shutdown.png" r:id="rId220"/>
-    <hyperlink ref="F56" display="5ab1d8630e83b53afc73ae837c8d9409f0cfee96.png" r:id="rId221"/>
-    <hyperlink ref="A57" display="save.png" r:id="rId222"/>
-    <hyperlink ref="C57" display="80edad7cc988d2ca8346d2f785345ce6b5d36df4.png" r:id="rId223"/>
-    <hyperlink ref="E57" display="save.png" r:id="rId224"/>
-    <hyperlink ref="F57" display="80edad7cc988d2ca8346d2f785345ce6b5d36df4.png" r:id="rId225"/>
-    <hyperlink ref="A58" display="pause.png" r:id="rId226"/>
-    <hyperlink ref="C58" display="19e37da524322414c21e941fb1c902b3a361c2db.png" r:id="rId227"/>
-    <hyperlink ref="E58" display="pause.png" r:id="rId228"/>
-    <hyperlink ref="F58" display="19e37da524322414c21e941fb1c902b3a361c2db.png" r:id="rId229"/>
-    <hyperlink ref="A59" display="reset.png" r:id="rId230"/>
-    <hyperlink ref="C59" display="b9da284951ca5bea7773ac6e0b4029fcd25c514d.png" r:id="rId231"/>
-    <hyperlink ref="E59" display="reset.png" r:id="rId232"/>
-    <hyperlink ref="F59" display="b9da284951ca5bea7773ac6e0b4029fcd25c514d.png" r:id="rId233"/>
-    <hyperlink ref="A60" display="ctrlaltdel.png" r:id="rId234"/>
-    <hyperlink ref="C60" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId235"/>
-    <hyperlink ref="E60" display="ctrlaltdel.png" r:id="rId236"/>
-    <hyperlink ref="F60" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId237"/>
-    <hyperlink ref="A61" display="basic.png" r:id="rId238"/>
-    <hyperlink ref="C61" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId239"/>
-    <hyperlink ref="E61" display="basic.png" r:id="rId240"/>
-    <hyperlink ref="F61" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId241"/>
-    <hyperlink ref="A62" display="checkpoint.png" r:id="rId242"/>
-    <hyperlink ref="C62" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId243"/>
-    <hyperlink ref="E62" display="checkpoint.png" r:id="rId244"/>
-    <hyperlink ref="F62" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId245"/>
-    <hyperlink ref="A63" display="revert.png" r:id="rId246"/>
-    <hyperlink ref="C63" display="66caa4c366c1b65937a913bfb39e3af350c2d9f6.png" r:id="rId247"/>
-    <hyperlink ref="E63" display="revert.png" r:id="rId248"/>
-    <hyperlink ref="F63" display="66caa4c366c1b65937a913bfb39e3af350c2d9f6.png" r:id="rId249"/>
-    <hyperlink ref="A64" display="TOC.md" r:id="rId250"/>
-    <hyperlink ref="C64" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId251"/>
-    <hyperlink ref="E64" display="TOC.md" r:id="rId252"/>
-    <hyperlink ref="F64" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId253"/>
-    <hyperlink ref="A65" display="checkpoints.md" r:id="rId254"/>
-    <hyperlink ref="C65" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId255"/>
-    <hyperlink ref="E65" display="checkpoints.md" r:id="rId256"/>
-    <hyperlink ref="F65" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId257"/>
-    <hyperlink ref="A66" display="export_import.md" r:id="rId258"/>
-    <hyperlink ref="C66" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId259"/>
-    <hyperlink ref="E66" display="export_import.md" r:id="rId260"/>
-    <hyperlink ref="F66" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId261"/>
-    <hyperlink ref="A67" display="migrating_vms.md" r:id="rId262"/>
-    <hyperlink ref="C67" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId263"/>
-    <hyperlink ref="E67" display="migrating_vms.md" r:id="rId264"/>
-    <hyperlink ref="F67" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId265"/>
-    <hyperlink ref="A68" display="remote_host_management.md" r:id="rId266"/>
-    <hyperlink ref="C68" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId267"/>
-    <hyperlink ref="E68" display="remote_host_management.md" r:id="rId268"/>
-    <hyperlink ref="F68" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId269"/>
-    <hyperlink ref="A69" display="HyperVManager-ConnectToHost.png" r:id="rId270"/>
-    <hyperlink ref="C69" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId271"/>
-    <hyperlink ref="E69" display="HyperVManager-ConnectToHost.png" r:id="rId272"/>
-    <hyperlink ref="F69" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId273"/>
-    <hyperlink ref="A70" display="HyperVManager-ConnectToLocalHost.png" r:id="rId274"/>
-    <hyperlink ref="C70" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId275"/>
-    <hyperlink ref="E70" display="HyperVManager-ConnectToLocalHost.png" r:id="rId276"/>
-    <hyperlink ref="F70" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId277"/>
-    <hyperlink ref="A71" display="HyperVManager-ConnectToRemoteHost.png" r:id="rId278"/>
-    <hyperlink ref="C71" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId279"/>
-    <hyperlink ref="E71" display="HyperVManager-ConnectToRemoteHost.png" r:id="rId280"/>
-    <hyperlink ref="F71" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId281"/>
-    <hyperlink ref="A72" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId282"/>
-    <hyperlink ref="C72" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId283"/>
-    <hyperlink ref="E72" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId284"/>
-    <hyperlink ref="F72" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId285"/>
-    <hyperlink ref="A73" display="troubleshooting.md" r:id="rId286"/>
-    <hyperlink ref="C73" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId287"/>
-    <hyperlink ref="E73" display="troubleshooting.md" r:id="rId288"/>
-    <hyperlink ref="F73" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId289"/>
-    <hyperlink ref="A74" display="user_guide_nav.md" r:id="rId290"/>
-    <hyperlink ref="C74" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId291"/>
-    <hyperlink ref="E74" display="user_guide_nav.md" r:id="rId292"/>
-    <hyperlink ref="F74" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId293"/>
-    <hyperlink ref="A75" display="vmsession.md" r:id="rId294"/>
-    <hyperlink ref="C75" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId295"/>
-    <hyperlink ref="E75" display="vmsession.md" r:id="rId296"/>
-    <hyperlink ref="F75" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId297"/>
-    <hyperlink ref="A76" display="windows_welcome.md" r:id="rId298"/>
-    <hyperlink ref="C76" display="windows_welcome.5cc1a907523a3cc51d983b8dc14732d35513e54e.ja-jp.xlf" r:id="rId299"/>
-    <hyperlink ref="E76" display="windows_welcome.md" r:id="rId300"/>
-    <hyperlink ref="F76" display="windows_welcome.5cc1a907523a3cc51d983b8dc14732d35513e54e.ja-jp.xlf" r:id="rId301"/>
-    <hyperlink ref="A77" display="about_overview.md" r:id="rId302"/>
-    <hyperlink ref="C77" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId303"/>
-    <hyperlink ref="E77" display="about_overview.md" r:id="rId304"/>
-    <hyperlink ref="F77" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId305"/>
-    <hyperlink ref="A78" display="containerfund.png" r:id="rId306"/>
-    <hyperlink ref="C78" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId307"/>
-    <hyperlink ref="E78" display="containerfund.png" r:id="rId308"/>
-    <hyperlink ref="F78" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId309"/>
-    <hyperlink ref="A79" display="container_ecosystem.md" r:id="rId310"/>
-    <hyperlink ref="C79" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId311"/>
-    <hyperlink ref="E79" display="container_ecosystem.md" r:id="rId312"/>
-    <hyperlink ref="F79" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId313"/>
-    <hyperlink ref="A80" display="containerEcosystem.png" r:id="rId314"/>
-    <hyperlink ref="C80" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId315"/>
-    <hyperlink ref="E80" display="containerEcosystem.png" r:id="rId316"/>
-    <hyperlink ref="F80" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId317"/>
-    <hyperlink ref="A81" display="faq.md" r:id="rId318"/>
-    <hyperlink ref="C81" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId319"/>
-    <hyperlink ref="E81" display="faq.md" r:id="rId320"/>
-    <hyperlink ref="F81" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId321"/>
-    <hyperlink ref="A82" display="work_in_progress.md" r:id="rId322"/>
-    <hyperlink ref="C82" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId323"/>
-    <hyperlink ref="E82" display="work_in_progress.md" r:id="rId324"/>
-    <hyperlink ref="F82" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId325"/>
-    <hyperlink ref="A83" display="containers_welcome.md" r:id="rId326"/>
-    <hyperlink ref="C83" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId327"/>
-    <hyperlink ref="E83" display="containers_welcome.md" r:id="rId328"/>
-    <hyperlink ref="F83" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId329"/>
+    <hyperlink ref="A2" display="containers_welcome.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="containers_welcome.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.ja-jp.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="windows_welcome1.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="windows_welcome1.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.ja-jp.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="community_overview.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.ja-jp.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="community_overview.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.ja-jp.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="TOC.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.ja-jp.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="TOC.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.ja-jp.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="hyperv_on_windows_new.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.ja-jp.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="hyperv_on_windows_new.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.ja-jp.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="ProductionCheckpoints_new.png" r:id="rId22"/>
+    <hyperlink ref="C7" display="00f8d7cfb9fbdf0f9d67f239aff5575dcdaaaed0.png" r:id="rId23"/>
+    <hyperlink ref="E7" display="ProductionCheckpoints_new.png" r:id="rId24"/>
+    <hyperlink ref="F7" display="00f8d7cfb9fbdf0f9d67f239aff5575dcdaaaed0.png" r:id="rId25"/>
+    <hyperlink ref="A8" display="supported_guest_os.md" r:id="rId26"/>
+    <hyperlink ref="C8" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.ja-jp.xlf" r:id="rId27"/>
+    <hyperlink ref="E8" display="supported_guest_os.md" r:id="rId28"/>
+    <hyperlink ref="F8" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.ja-jp.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="whats_new.md" r:id="rId30"/>
+    <hyperlink ref="C9" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.ja-jp.xlf" r:id="rId31"/>
+    <hyperlink ref="E9" display="whats_new.md" r:id="rId32"/>
+    <hyperlink ref="F9" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.ja-jp.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="make_mgmt_servic.md" r:id="rId34"/>
+    <hyperlink ref="C10" display="make_mgmt_servic.25af83c569730c64c3b882e5575342123f74c879.ja-jp.xlf" r:id="rId35"/>
+    <hyperlink ref="E10" display="make_mgmt_servic.md" r:id="rId36"/>
+    <hyperlink ref="F10" display="make_mgmt_servic.25af83c569730c64c3b882e5575342123f74c879.ja-jp.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="1.png" r:id="rId38"/>
+    <hyperlink ref="C11" display="90b18083c5e836b383786e364b91c37fde16adff.png" r:id="rId39"/>
+    <hyperlink ref="E11" display="1.png" r:id="rId40"/>
+    <hyperlink ref="F11" display="90b18083c5e836b383786e364b91c37fde16adff.png" r:id="rId41"/>
+    <hyperlink ref="A12" display="powershell_snippets.md" r:id="rId42"/>
+    <hyperlink ref="C12" display="powershell_snippets.21e7d9aff80df6f1c56918c2c3e1149d3e880e9a.ja-jp.xlf" r:id="rId43"/>
+    <hyperlink ref="E12" display="powershell_snippets.md" r:id="rId44"/>
+    <hyperlink ref="F12" display="powershell_snippets.21e7d9aff80df6f1c56918c2c3e1149d3e880e9a.ja-jp.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="walkthrough.md" r:id="rId46"/>
+    <hyperlink ref="C13" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.ja-jp.xlf" r:id="rId47"/>
+    <hyperlink ref="E13" display="walkthrough.md" r:id="rId48"/>
+    <hyperlink ref="F13" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.ja-jp.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="walkthrough_checkpoints.md" r:id="rId50"/>
+    <hyperlink ref="C14" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.ja-jp.xlf" r:id="rId51"/>
+    <hyperlink ref="E14" display="walkthrough_checkpoints.md" r:id="rId52"/>
+    <hyperlink ref="F14" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.ja-jp.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="standard1.png" r:id="rId54"/>
+    <hyperlink ref="C15" display="d5fe61997fe63333a11454f5890626ad201cf2a5.png" r:id="rId55"/>
+    <hyperlink ref="E15" display="standard1.png" r:id="rId56"/>
+    <hyperlink ref="F15" display="d5fe61997fe63333a11454f5890626ad201cf2a5.png" r:id="rId57"/>
+    <hyperlink ref="A16" display="standard_notepad.png" r:id="rId58"/>
+    <hyperlink ref="C16" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId59"/>
+    <hyperlink ref="E16" display="standard_notepad.png" r:id="rId60"/>
+    <hyperlink ref="F16" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId61"/>
+    <hyperlink ref="A17" display="checkpoint_button.png" r:id="rId62"/>
+    <hyperlink ref="C17" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId63"/>
+    <hyperlink ref="E17" display="checkpoint_button.png" r:id="rId64"/>
+    <hyperlink ref="F17" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId65"/>
+    <hyperlink ref="A18" display="save_standard.png" r:id="rId66"/>
+    <hyperlink ref="C18" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId67"/>
+    <hyperlink ref="E18" display="save_standard.png" r:id="rId68"/>
+    <hyperlink ref="F18" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId69"/>
+    <hyperlink ref="A19" display="standard_complete.png" r:id="rId70"/>
+    <hyperlink ref="C19" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId71"/>
+    <hyperlink ref="E19" display="standard_complete.png" r:id="rId72"/>
+    <hyperlink ref="F19" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId73"/>
+    <hyperlink ref="A20" display="production.png" r:id="rId74"/>
+    <hyperlink ref="C20" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId75"/>
+    <hyperlink ref="E20" display="production.png" r:id="rId76"/>
+    <hyperlink ref="F20" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId77"/>
+    <hyperlink ref="A21" display="production_CheckpointName.png" r:id="rId78"/>
+    <hyperlink ref="C21" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId79"/>
+    <hyperlink ref="E21" display="production_CheckpointName.png" r:id="rId80"/>
+    <hyperlink ref="F21" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId81"/>
+    <hyperlink ref="A22" display="production_complete.png" r:id="rId82"/>
+    <hyperlink ref="C22" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId83"/>
+    <hyperlink ref="E22" display="production_complete.png" r:id="rId84"/>
+    <hyperlink ref="F22" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId85"/>
+    <hyperlink ref="A23" display="apply_standard.png" r:id="rId86"/>
+    <hyperlink ref="C23" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId87"/>
+    <hyperlink ref="E23" display="apply_standard.png" r:id="rId88"/>
+    <hyperlink ref="F23" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId89"/>
+    <hyperlink ref="A24" display="standard_applied.png" r:id="rId90"/>
+    <hyperlink ref="C24" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId91"/>
+    <hyperlink ref="E24" display="standard_applied.png" r:id="rId92"/>
+    <hyperlink ref="F24" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId93"/>
+    <hyperlink ref="A25" display="standard_applied_notepad.png" r:id="rId94"/>
+    <hyperlink ref="C25" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId95"/>
+    <hyperlink ref="E25" display="standard_applied_notepad.png" r:id="rId96"/>
+    <hyperlink ref="F25" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId97"/>
+    <hyperlink ref="A26" display="start.png" r:id="rId98"/>
+    <hyperlink ref="C26" display="600e67045b98582d4dc3d087dcd2ae2a6d4be54c.png" r:id="rId99"/>
+    <hyperlink ref="E26" display="start.png" r:id="rId100"/>
+    <hyperlink ref="F26" display="600e67045b98582d4dc3d087dcd2ae2a6d4be54c.png" r:id="rId101"/>
+    <hyperlink ref="A27" display="production_notepad.png" r:id="rId102"/>
+    <hyperlink ref="C27" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId103"/>
+    <hyperlink ref="E27" display="production_notepad.png" r:id="rId104"/>
+    <hyperlink ref="F27" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId105"/>
+    <hyperlink ref="A28" display="delete_me.png" r:id="rId106"/>
+    <hyperlink ref="C28" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId107"/>
+    <hyperlink ref="E28" display="delete_me.png" r:id="rId108"/>
+    <hyperlink ref="F28" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId109"/>
+    <hyperlink ref="A29" display="delete_checkpoint.png" r:id="rId110"/>
+    <hyperlink ref="C29" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId111"/>
+    <hyperlink ref="E29" display="delete_checkpoint.png" r:id="rId112"/>
+    <hyperlink ref="F29" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId113"/>
+    <hyperlink ref="A30" display="delete_warn.png" r:id="rId114"/>
+    <hyperlink ref="C30" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId115"/>
+    <hyperlink ref="E30" display="delete_warn.png" r:id="rId116"/>
+    <hyperlink ref="F30" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId117"/>
+    <hyperlink ref="A31" display="after_delete.png" r:id="rId118"/>
+    <hyperlink ref="C31" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId119"/>
+    <hyperlink ref="E31" display="after_delete.png" r:id="rId120"/>
+    <hyperlink ref="F31" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId121"/>
+    <hyperlink ref="A32" display="walkthrough_compatibility.md" r:id="rId122"/>
+    <hyperlink ref="C32" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.ja-jp.xlf" r:id="rId123"/>
+    <hyperlink ref="E32" display="walkthrough_compatibility.md" r:id="rId124"/>
+    <hyperlink ref="F32" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.ja-jp.xlf" r:id="rId125"/>
+    <hyperlink ref="A33" display="systeminfo.png" r:id="rId126"/>
+    <hyperlink ref="C33" display="0a5cf2ba600896aeab999b4e8d62df930ee0226d.png" r:id="rId127"/>
+    <hyperlink ref="E33" display="systeminfo.png" r:id="rId128"/>
+    <hyperlink ref="F33" display="0a5cf2ba600896aeab999b4e8d62df930ee0226d.png" r:id="rId129"/>
+    <hyperlink ref="A34" display="walkthrough_create_vm.md" r:id="rId130"/>
+    <hyperlink ref="C34" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf" r:id="rId131"/>
+    <hyperlink ref="E34" display="walkthrough_create_vm.md" r:id="rId132"/>
+    <hyperlink ref="F34" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf" r:id="rId133"/>
+    <hyperlink ref="A35" display="walkthrough_export_import.md" r:id="rId134"/>
+    <hyperlink ref="C35" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.ja-jp.xlf" r:id="rId135"/>
+    <hyperlink ref="E35" display="walkthrough_export_import.md" r:id="rId136"/>
+    <hyperlink ref="F35" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.ja-jp.xlf" r:id="rId137"/>
+    <hyperlink ref="A36" display="select_export1.png" r:id="rId138"/>
+    <hyperlink ref="C36" display="16cfc23957260ceb3b07ef55a8e4b79996d525ca.png" r:id="rId139"/>
+    <hyperlink ref="E36" display="select_export1.png" r:id="rId140"/>
+    <hyperlink ref="F36" display="16cfc23957260ceb3b07ef55a8e4b79996d525ca.png" r:id="rId141"/>
+    <hyperlink ref="A37" display="click_export.png" r:id="rId142"/>
+    <hyperlink ref="C37" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId143"/>
+    <hyperlink ref="E37" display="click_export.png" r:id="rId144"/>
+    <hyperlink ref="F37" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId145"/>
+    <hyperlink ref="A38" display="export_progress.png" r:id="rId146"/>
+    <hyperlink ref="C38" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId147"/>
+    <hyperlink ref="E38" display="export_progress.png" r:id="rId148"/>
+    <hyperlink ref="F38" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId149"/>
+    <hyperlink ref="A39" display="export_confirm.png" r:id="rId150"/>
+    <hyperlink ref="C39" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId151"/>
+    <hyperlink ref="E39" display="export_confirm.png" r:id="rId152"/>
+    <hyperlink ref="F39" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId153"/>
+    <hyperlink ref="A40" display="walkthrough_install.md" r:id="rId154"/>
+    <hyperlink ref="C40" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.ja-jp.xlf" r:id="rId155"/>
+    <hyperlink ref="E40" display="walkthrough_install.md" r:id="rId156"/>
+    <hyperlink ref="F40" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.ja-jp.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="programs_and_features.png" r:id="rId158"/>
+    <hyperlink ref="C41" display="fdb6dbedc6e3005586a9f283aa1f46b014bf929e.png" r:id="rId159"/>
+    <hyperlink ref="E41" display="programs_and_features.png" r:id="rId160"/>
+    <hyperlink ref="F41" display="fdb6dbedc6e3005586a9f283aa1f46b014bf929e.png" r:id="rId161"/>
+    <hyperlink ref="A42" display="hyper-v_feature_selected.png" r:id="rId162"/>
+    <hyperlink ref="C42" display="152595e982ed925cc5a6f625f1786a5f397ecd08.png" r:id="rId163"/>
+    <hyperlink ref="E42" display="hyper-v_feature_selected.png" r:id="rId164"/>
+    <hyperlink ref="F42" display="152595e982ed925cc5a6f625f1786a5f397ecd08.png" r:id="rId165"/>
+    <hyperlink ref="A43" display="restart.png" r:id="rId166"/>
+    <hyperlink ref="C43" display="8b5e8f8277dd3bb9ae0df0f19c95fd9f1a2f47e3.png" r:id="rId167"/>
+    <hyperlink ref="E43" display="restart.png" r:id="rId168"/>
+    <hyperlink ref="F43" display="8b5e8f8277dd3bb9ae0df0f19c95fd9f1a2f47e3.png" r:id="rId169"/>
+    <hyperlink ref="A44" display="walkthrough_powershell.md" r:id="rId170"/>
+    <hyperlink ref="C44" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.ja-jp.xlf" r:id="rId171"/>
+    <hyperlink ref="E44" display="walkthrough_powershell.md" r:id="rId172"/>
+    <hyperlink ref="F44" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.ja-jp.xlf" r:id="rId173"/>
+    <hyperlink ref="A45" display="command_grid.png" r:id="rId174"/>
+    <hyperlink ref="C45" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId175"/>
+    <hyperlink ref="E45" display="command_grid.png" r:id="rId176"/>
+    <hyperlink ref="F45" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId177"/>
+    <hyperlink ref="A46" display="get_help.png" r:id="rId178"/>
+    <hyperlink ref="C46" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId179"/>
+    <hyperlink ref="E46" display="get_help.png" r:id="rId180"/>
+    <hyperlink ref="F46" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId181"/>
+    <hyperlink ref="A47" display="get_vm.png" r:id="rId182"/>
+    <hyperlink ref="C47" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId183"/>
+    <hyperlink ref="E47" display="get_vm.png" r:id="rId184"/>
+    <hyperlink ref="F47" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId185"/>
+    <hyperlink ref="A48" display="POSH_CP2.png" r:id="rId186"/>
+    <hyperlink ref="C48" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId187"/>
+    <hyperlink ref="E48" display="POSH_CP2.png" r:id="rId188"/>
+    <hyperlink ref="F48" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId189"/>
+    <hyperlink ref="A49" display="walkthrough_virtual_switch.md" r:id="rId190"/>
+    <hyperlink ref="C49" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.ja-jp.xlf" r:id="rId191"/>
+    <hyperlink ref="E49" display="walkthrough_virtual_switch.md" r:id="rId192"/>
+    <hyperlink ref="F49" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.ja-jp.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="virtual_switch_manager1.png" r:id="rId194"/>
+    <hyperlink ref="C50" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId195"/>
+    <hyperlink ref="E50" display="virtual_switch_manager1.png" r:id="rId196"/>
+    <hyperlink ref="F50" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId197"/>
+    <hyperlink ref="A51" display="new_switch.png" r:id="rId198"/>
+    <hyperlink ref="C51" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId199"/>
+    <hyperlink ref="E51" display="new_switch.png" r:id="rId200"/>
+    <hyperlink ref="F51" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId201"/>
+    <hyperlink ref="A52" display="new_switch_createbutton.png" r:id="rId202"/>
+    <hyperlink ref="C52" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId203"/>
+    <hyperlink ref="E52" display="new_switch_createbutton.png" r:id="rId204"/>
+    <hyperlink ref="F52" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId205"/>
+    <hyperlink ref="A53" display="share_nic.png" r:id="rId206"/>
+    <hyperlink ref="C53" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId207"/>
+    <hyperlink ref="E53" display="share_nic.png" r:id="rId208"/>
+    <hyperlink ref="F53" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId209"/>
+    <hyperlink ref="A54" display="network_warning.png" r:id="rId210"/>
+    <hyperlink ref="C54" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId211"/>
+    <hyperlink ref="E54" display="network_warning.png" r:id="rId212"/>
+    <hyperlink ref="F54" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId213"/>
+    <hyperlink ref="A55" display="walkthrough_vmconnect.md" r:id="rId214"/>
+    <hyperlink ref="C55" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.ja-jp.xlf" r:id="rId215"/>
+    <hyperlink ref="E55" display="walkthrough_vmconnect.md" r:id="rId216"/>
+    <hyperlink ref="F55" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.ja-jp.xlf" r:id="rId217"/>
+    <hyperlink ref="A56" display="turnoff.png" r:id="rId218"/>
+    <hyperlink ref="C56" display="0ace2b0a0fb0268ec72373ff912836157cddbda5.png" r:id="rId219"/>
+    <hyperlink ref="E56" display="turnoff.png" r:id="rId220"/>
+    <hyperlink ref="F56" display="0ace2b0a0fb0268ec72373ff912836157cddbda5.png" r:id="rId221"/>
+    <hyperlink ref="A57" display="shutdown.png" r:id="rId222"/>
+    <hyperlink ref="C57" display="5ab1d8630e83b53afc73ae837c8d9409f0cfee96.png" r:id="rId223"/>
+    <hyperlink ref="E57" display="shutdown.png" r:id="rId224"/>
+    <hyperlink ref="F57" display="5ab1d8630e83b53afc73ae837c8d9409f0cfee96.png" r:id="rId225"/>
+    <hyperlink ref="A58" display="save.png" r:id="rId226"/>
+    <hyperlink ref="C58" display="80edad7cc988d2ca8346d2f785345ce6b5d36df4.png" r:id="rId227"/>
+    <hyperlink ref="E58" display="save.png" r:id="rId228"/>
+    <hyperlink ref="F58" display="80edad7cc988d2ca8346d2f785345ce6b5d36df4.png" r:id="rId229"/>
+    <hyperlink ref="A59" display="pause.png" r:id="rId230"/>
+    <hyperlink ref="C59" display="19e37da524322414c21e941fb1c902b3a361c2db.png" r:id="rId231"/>
+    <hyperlink ref="E59" display="pause.png" r:id="rId232"/>
+    <hyperlink ref="F59" display="19e37da524322414c21e941fb1c902b3a361c2db.png" r:id="rId233"/>
+    <hyperlink ref="A60" display="reset.png" r:id="rId234"/>
+    <hyperlink ref="C60" display="b9da284951ca5bea7773ac6e0b4029fcd25c514d.png" r:id="rId235"/>
+    <hyperlink ref="E60" display="reset.png" r:id="rId236"/>
+    <hyperlink ref="F60" display="b9da284951ca5bea7773ac6e0b4029fcd25c514d.png" r:id="rId237"/>
+    <hyperlink ref="A61" display="ctrlaltdel.png" r:id="rId238"/>
+    <hyperlink ref="C61" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId239"/>
+    <hyperlink ref="E61" display="ctrlaltdel.png" r:id="rId240"/>
+    <hyperlink ref="F61" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId241"/>
+    <hyperlink ref="A62" display="basic.png" r:id="rId242"/>
+    <hyperlink ref="C62" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId243"/>
+    <hyperlink ref="E62" display="basic.png" r:id="rId244"/>
+    <hyperlink ref="F62" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId245"/>
+    <hyperlink ref="A63" display="checkpoint.png" r:id="rId246"/>
+    <hyperlink ref="C63" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId247"/>
+    <hyperlink ref="E63" display="checkpoint.png" r:id="rId248"/>
+    <hyperlink ref="F63" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId249"/>
+    <hyperlink ref="A64" display="revert.png" r:id="rId250"/>
+    <hyperlink ref="C64" display="66caa4c366c1b65937a913bfb39e3af350c2d9f6.png" r:id="rId251"/>
+    <hyperlink ref="E64" display="revert.png" r:id="rId252"/>
+    <hyperlink ref="F64" display="66caa4c366c1b65937a913bfb39e3af350c2d9f6.png" r:id="rId253"/>
+    <hyperlink ref="A65" display="TOC.md" r:id="rId254"/>
+    <hyperlink ref="C65" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId255"/>
+    <hyperlink ref="E65" display="TOC.md" r:id="rId256"/>
+    <hyperlink ref="F65" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.ja-jp.xlf" r:id="rId257"/>
+    <hyperlink ref="A66" display="checkpoints.md" r:id="rId258"/>
+    <hyperlink ref="C66" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId259"/>
+    <hyperlink ref="E66" display="checkpoints.md" r:id="rId260"/>
+    <hyperlink ref="F66" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.ja-jp.xlf" r:id="rId261"/>
+    <hyperlink ref="A67" display="export_import.md" r:id="rId262"/>
+    <hyperlink ref="C67" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId263"/>
+    <hyperlink ref="E67" display="export_import.md" r:id="rId264"/>
+    <hyperlink ref="F67" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.ja-jp.xlf" r:id="rId265"/>
+    <hyperlink ref="A68" display="migrating_vms.md" r:id="rId266"/>
+    <hyperlink ref="C68" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId267"/>
+    <hyperlink ref="E68" display="migrating_vms.md" r:id="rId268"/>
+    <hyperlink ref="F68" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.ja-jp.xlf" r:id="rId269"/>
+    <hyperlink ref="A69" display="remote_host_management.md" r:id="rId270"/>
+    <hyperlink ref="C69" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId271"/>
+    <hyperlink ref="E69" display="remote_host_management.md" r:id="rId272"/>
+    <hyperlink ref="F69" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.ja-jp.xlf" r:id="rId273"/>
+    <hyperlink ref="A70" display="HyperVManager-ConnectToHost.png" r:id="rId274"/>
+    <hyperlink ref="C70" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId275"/>
+    <hyperlink ref="E70" display="HyperVManager-ConnectToHost.png" r:id="rId276"/>
+    <hyperlink ref="F70" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId277"/>
+    <hyperlink ref="A71" display="HyperVManager-ConnectToLocalHost.png" r:id="rId278"/>
+    <hyperlink ref="C71" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId279"/>
+    <hyperlink ref="E71" display="HyperVManager-ConnectToLocalHost.png" r:id="rId280"/>
+    <hyperlink ref="F71" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId281"/>
+    <hyperlink ref="A72" display="HyperVManager-ConnectToRemoteHost.png" r:id="rId282"/>
+    <hyperlink ref="C72" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId283"/>
+    <hyperlink ref="E72" display="HyperVManager-ConnectToRemoteHost.png" r:id="rId284"/>
+    <hyperlink ref="F72" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId285"/>
+    <hyperlink ref="A73" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId286"/>
+    <hyperlink ref="C73" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId287"/>
+    <hyperlink ref="E73" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId288"/>
+    <hyperlink ref="F73" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId289"/>
+    <hyperlink ref="A74" display="troubleshooting.md" r:id="rId290"/>
+    <hyperlink ref="C74" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId291"/>
+    <hyperlink ref="E74" display="troubleshooting.md" r:id="rId292"/>
+    <hyperlink ref="F74" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.ja-jp.xlf" r:id="rId293"/>
+    <hyperlink ref="A75" display="user_guide_nav.md" r:id="rId294"/>
+    <hyperlink ref="C75" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId295"/>
+    <hyperlink ref="E75" display="user_guide_nav.md" r:id="rId296"/>
+    <hyperlink ref="F75" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.ja-jp.xlf" r:id="rId297"/>
+    <hyperlink ref="A76" display="vmsession.md" r:id="rId298"/>
+    <hyperlink ref="C76" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId299"/>
+    <hyperlink ref="E76" display="vmsession.md" r:id="rId300"/>
+    <hyperlink ref="F76" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.ja-jp.xlf" r:id="rId301"/>
+    <hyperlink ref="A77" display="windows_welcome.md" r:id="rId302"/>
+    <hyperlink ref="C77" display="windows_welcome.5cc1a907523a3cc51d983b8dc14732d35513e54e.ja-jp.xlf" r:id="rId303"/>
+    <hyperlink ref="E77" display="windows_welcome.md" r:id="rId304"/>
+    <hyperlink ref="F77" display="windows_welcome.5cc1a907523a3cc51d983b8dc14732d35513e54e.ja-jp.xlf" r:id="rId305"/>
+    <hyperlink ref="A78" display="about_overview.md" r:id="rId306"/>
+    <hyperlink ref="C78" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId307"/>
+    <hyperlink ref="E78" display="about_overview.md" r:id="rId308"/>
+    <hyperlink ref="F78" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.ja-jp.xlf" r:id="rId309"/>
+    <hyperlink ref="A79" display="containerfund.png" r:id="rId310"/>
+    <hyperlink ref="C79" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId311"/>
+    <hyperlink ref="E79" display="containerfund.png" r:id="rId312"/>
+    <hyperlink ref="F79" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId313"/>
+    <hyperlink ref="A80" display="container_ecosystem.md" r:id="rId314"/>
+    <hyperlink ref="C80" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId315"/>
+    <hyperlink ref="E80" display="container_ecosystem.md" r:id="rId316"/>
+    <hyperlink ref="F80" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.ja-jp.xlf" r:id="rId317"/>
+    <hyperlink ref="A81" display="containerEcosystem.png" r:id="rId318"/>
+    <hyperlink ref="C81" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId319"/>
+    <hyperlink ref="E81" display="containerEcosystem.png" r:id="rId320"/>
+    <hyperlink ref="F81" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId321"/>
+    <hyperlink ref="A82" display="faq.md" r:id="rId322"/>
+    <hyperlink ref="C82" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId323"/>
+    <hyperlink ref="E82" display="faq.md" r:id="rId324"/>
+    <hyperlink ref="F82" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.ja-jp.xlf" r:id="rId325"/>
+    <hyperlink ref="A83" display="work_in_progress.md" r:id="rId326"/>
+    <hyperlink ref="C83" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId327"/>
+    <hyperlink ref="E83" display="work_in_progress.md" r:id="rId328"/>
+    <hyperlink ref="F83" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.ja-jp.xlf" r:id="rId329"/>
     <hyperlink ref="A84" display="EULA.md" r:id="rId330"/>
     <hyperlink ref="C84" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.ja-jp.xlf" r:id="rId331"/>
     <hyperlink ref="E84" display="EULA.md" r:id="rId332"/>
@@ -12637,10 +12637,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>329</v>
@@ -12649,7 +12649,7 @@
         <v>327</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>329</v>
@@ -12663,7 +12663,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -12675,7 +12675,7 @@
         <v>327</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>330</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
@@ -12701,7 +12701,7 @@
         <v>327</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>331</v>
@@ -12715,59 +12715,59 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>332</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
+        <v>332</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>332</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>332</v>
+        <v>127</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>7</v>
@@ -12779,7 +12779,7 @@
         <v>327</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>333</v>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>7</v>
@@ -12805,7 +12805,7 @@
         <v>327</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>334</v>
@@ -12819,59 +12819,59 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>335</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>335</v>
+        <v>130</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>7</v>
@@ -12883,7 +12883,7 @@
         <v>327</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>336</v>
@@ -12897,7 +12897,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
@@ -12909,7 +12909,7 @@
         <v>327</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>337</v>
@@ -12923,48 +12923,48 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>134</v>
+        <v>338</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>134</v>
+        <v>338</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>328</v>
@@ -12975,22 +12975,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>328</v>
@@ -13001,22 +13001,22 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>328</v>
@@ -13027,22 +13027,22 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>328</v>
@@ -13053,22 +13053,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>328</v>
@@ -13079,22 +13079,22 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>328</v>
@@ -13105,22 +13105,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>328</v>
@@ -13131,22 +13131,22 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>328</v>
@@ -13157,22 +13157,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>328</v>
@@ -13183,22 +13183,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>328</v>
@@ -13209,22 +13209,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>328</v>
@@ -13235,22 +13235,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>328</v>
@@ -13261,22 +13261,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>328</v>
@@ -13287,22 +13287,22 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>328</v>
@@ -13313,22 +13313,22 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>328</v>
@@ -13339,22 +13339,22 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>328</v>
@@ -13365,85 +13365,85 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>338</v>
+        <v>150</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>338</v>
+        <v>150</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>339</v>
+        <v>152</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>339</v>
+        <v>152</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>7</v>
@@ -13455,7 +13455,7 @@
         <v>327</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>340</v>
@@ -13469,48 +13469,48 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>155</v>
+        <v>341</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>155</v>
+        <v>341</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>328</v>
@@ -13521,22 +13521,22 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>328</v>
@@ -13547,22 +13547,22 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>328</v>
@@ -13573,74 +13573,74 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>341</v>
+        <v>158</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>341</v>
+        <v>158</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>160</v>
+        <v>342</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>160</v>
+        <v>342</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>328</v>
@@ -13651,22 +13651,22 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>328</v>
@@ -13677,74 +13677,74 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>164</v>
+        <v>343</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>164</v>
+        <v>343</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>328</v>
@@ -13755,22 +13755,22 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>328</v>
@@ -13781,22 +13781,22 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>328</v>
@@ -13807,74 +13807,74 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>328</v>
@@ -13885,22 +13885,22 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>328</v>
@@ -13911,22 +13911,22 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>328</v>
@@ -13937,22 +13937,22 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>328</v>
@@ -13963,74 +13963,74 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>344</v>
+        <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>344</v>
+        <v>173</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>328</v>
@@ -14041,22 +14041,22 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>328</v>
@@ -14067,22 +14067,22 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>328</v>
@@ -14093,22 +14093,22 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>328</v>
@@ -14119,22 +14119,22 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>328</v>
@@ -14145,22 +14145,22 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>328</v>
@@ -14171,22 +14171,22 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>328</v>
@@ -14197,22 +14197,22 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>328</v>
@@ -14223,33 +14223,33 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>345</v>
+        <v>183</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>345</v>
+        <v>183</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>7</v>
@@ -14261,7 +14261,7 @@
         <v>327</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>346</v>
@@ -14275,7 +14275,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>7</v>
@@ -14287,7 +14287,7 @@
         <v>327</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>347</v>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>7</v>
@@ -14313,7 +14313,7 @@
         <v>327</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>348</v>
@@ -14327,7 +14327,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>7</v>
@@ -14339,7 +14339,7 @@
         <v>327</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>349</v>
@@ -14353,48 +14353,48 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>328</v>
@@ -14405,22 +14405,22 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>328</v>
@@ -14431,22 +14431,22 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>328</v>
@@ -14457,33 +14457,33 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>350</v>
+        <v>191</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>350</v>
+        <v>191</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>7</v>
@@ -14495,7 +14495,7 @@
         <v>327</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>351</v>
@@ -14509,7 +14509,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>7</v>
@@ -14521,7 +14521,7 @@
         <v>327</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>352</v>
@@ -14535,7 +14535,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>7</v>
@@ -14547,7 +14547,7 @@
         <v>327</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>353</v>
@@ -14561,111 +14561,111 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>195</v>
+        <v>354</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>195</v>
+        <v>354</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>354</v>
+        <v>195</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>354</v>
+        <v>195</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>197</v>
+        <v>355</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>197</v>
+        <v>355</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>355</v>
+        <v>197</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>355</v>
+        <v>197</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>328</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>7</v>
@@ -14677,7 +14677,7 @@
         <v>327</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>356</v>
@@ -14691,7 +14691,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>7</v>
@@ -14703,7 +14703,7 @@
         <v>327</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>357</v>
@@ -15293,326 +15293,326 @@
     <hyperlink ref="C2" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="windows_welcome1.md" r:id="rId4"/>
     <hyperlink ref="F2" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="community_overview.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="community_overview.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="TOC.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.zh-tw.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="TOC.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.zh-tw.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="hyperv_on_windows_new.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.zh-tw.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="hyperv_on_windows_new.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.zh-tw.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="ProductionCheckpoints_new.png" r:id="rId18"/>
-    <hyperlink ref="C6" display="00f8d7cfb9fbdf0f9d67f239aff5575dcdaaaed0.png" r:id="rId19"/>
-    <hyperlink ref="E6" display="ProductionCheckpoints_new.png" r:id="rId20"/>
-    <hyperlink ref="F6" display="00f8d7cfb9fbdf0f9d67f239aff5575dcdaaaed0.png" r:id="rId21"/>
-    <hyperlink ref="A7" display="supported_guest_os.md" r:id="rId22"/>
-    <hyperlink ref="C7" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.zh-tw.xlf" r:id="rId23"/>
-    <hyperlink ref="E7" display="supported_guest_os.md" r:id="rId24"/>
-    <hyperlink ref="F7" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.zh-tw.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="whats_new.md" r:id="rId26"/>
-    <hyperlink ref="C8" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.zh-tw.xlf" r:id="rId27"/>
-    <hyperlink ref="E8" display="whats_new.md" r:id="rId28"/>
-    <hyperlink ref="F8" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.zh-tw.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="make_mgmt_servic.md" r:id="rId30"/>
-    <hyperlink ref="C9" display="make_mgmt_servic.25af83c569730c64c3b882e5575342123f74c879.zh-tw.xlf" r:id="rId31"/>
-    <hyperlink ref="E9" display="make_mgmt_servic.md" r:id="rId32"/>
-    <hyperlink ref="F9" display="make_mgmt_servic.25af83c569730c64c3b882e5575342123f74c879.zh-tw.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="1.png" r:id="rId34"/>
-    <hyperlink ref="C10" display="90b18083c5e836b383786e364b91c37fde16adff.png" r:id="rId35"/>
-    <hyperlink ref="E10" display="1.png" r:id="rId36"/>
-    <hyperlink ref="F10" display="90b18083c5e836b383786e364b91c37fde16adff.png" r:id="rId37"/>
-    <hyperlink ref="A11" display="powershell_snippets.md" r:id="rId38"/>
-    <hyperlink ref="C11" display="powershell_snippets.21e7d9aff80df6f1c56918c2c3e1149d3e880e9a.zh-tw.xlf" r:id="rId39"/>
-    <hyperlink ref="E11" display="powershell_snippets.md" r:id="rId40"/>
-    <hyperlink ref="F11" display="powershell_snippets.21e7d9aff80df6f1c56918c2c3e1149d3e880e9a.zh-tw.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="walkthrough.md" r:id="rId42"/>
-    <hyperlink ref="C12" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.zh-tw.xlf" r:id="rId43"/>
-    <hyperlink ref="E12" display="walkthrough.md" r:id="rId44"/>
-    <hyperlink ref="F12" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.zh-tw.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="walkthrough_checkpoints.md" r:id="rId46"/>
-    <hyperlink ref="C13" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-tw.xlf" r:id="rId47"/>
-    <hyperlink ref="E13" display="walkthrough_checkpoints.md" r:id="rId48"/>
-    <hyperlink ref="F13" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-tw.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="standard1.png" r:id="rId50"/>
-    <hyperlink ref="C14" display="d5fe61997fe63333a11454f5890626ad201cf2a5.png" r:id="rId51"/>
-    <hyperlink ref="E14" display="standard1.png" r:id="rId52"/>
-    <hyperlink ref="F14" display="d5fe61997fe63333a11454f5890626ad201cf2a5.png" r:id="rId53"/>
-    <hyperlink ref="A15" display="standard_notepad.png" r:id="rId54"/>
-    <hyperlink ref="C15" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId55"/>
-    <hyperlink ref="E15" display="standard_notepad.png" r:id="rId56"/>
-    <hyperlink ref="F15" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId57"/>
-    <hyperlink ref="A16" display="checkpoint_button.png" r:id="rId58"/>
-    <hyperlink ref="C16" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId59"/>
-    <hyperlink ref="E16" display="checkpoint_button.png" r:id="rId60"/>
-    <hyperlink ref="F16" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId61"/>
-    <hyperlink ref="A17" display="save_standard.png" r:id="rId62"/>
-    <hyperlink ref="C17" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId63"/>
-    <hyperlink ref="E17" display="save_standard.png" r:id="rId64"/>
-    <hyperlink ref="F17" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId65"/>
-    <hyperlink ref="A18" display="standard_complete.png" r:id="rId66"/>
-    <hyperlink ref="C18" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId67"/>
-    <hyperlink ref="E18" display="standard_complete.png" r:id="rId68"/>
-    <hyperlink ref="F18" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId69"/>
-    <hyperlink ref="A19" display="production.png" r:id="rId70"/>
-    <hyperlink ref="C19" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId71"/>
-    <hyperlink ref="E19" display="production.png" r:id="rId72"/>
-    <hyperlink ref="F19" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId73"/>
-    <hyperlink ref="A20" display="production_CheckpointName.png" r:id="rId74"/>
-    <hyperlink ref="C20" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId75"/>
-    <hyperlink ref="E20" display="production_CheckpointName.png" r:id="rId76"/>
-    <hyperlink ref="F20" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId77"/>
-    <hyperlink ref="A21" display="production_complete.png" r:id="rId78"/>
-    <hyperlink ref="C21" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId79"/>
-    <hyperlink ref="E21" display="production_complete.png" r:id="rId80"/>
-    <hyperlink ref="F21" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId81"/>
-    <hyperlink ref="A22" display="apply_standard.png" r:id="rId82"/>
-    <hyperlink ref="C22" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId83"/>
-    <hyperlink ref="E22" display="apply_standard.png" r:id="rId84"/>
-    <hyperlink ref="F22" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId85"/>
-    <hyperlink ref="A23" display="standard_applied.png" r:id="rId86"/>
-    <hyperlink ref="C23" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId87"/>
-    <hyperlink ref="E23" display="standard_applied.png" r:id="rId88"/>
-    <hyperlink ref="F23" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId89"/>
-    <hyperlink ref="A24" display="standard_applied_notepad.png" r:id="rId90"/>
-    <hyperlink ref="C24" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId91"/>
-    <hyperlink ref="E24" display="standard_applied_notepad.png" r:id="rId92"/>
-    <hyperlink ref="F24" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId93"/>
-    <hyperlink ref="A25" display="start.png" r:id="rId94"/>
-    <hyperlink ref="C25" display="600e67045b98582d4dc3d087dcd2ae2a6d4be54c.png" r:id="rId95"/>
-    <hyperlink ref="E25" display="start.png" r:id="rId96"/>
-    <hyperlink ref="F25" display="600e67045b98582d4dc3d087dcd2ae2a6d4be54c.png" r:id="rId97"/>
-    <hyperlink ref="A26" display="production_notepad.png" r:id="rId98"/>
-    <hyperlink ref="C26" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId99"/>
-    <hyperlink ref="E26" display="production_notepad.png" r:id="rId100"/>
-    <hyperlink ref="F26" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId101"/>
-    <hyperlink ref="A27" display="delete_me.png" r:id="rId102"/>
-    <hyperlink ref="C27" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId103"/>
-    <hyperlink ref="E27" display="delete_me.png" r:id="rId104"/>
-    <hyperlink ref="F27" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId105"/>
-    <hyperlink ref="A28" display="delete_checkpoint.png" r:id="rId106"/>
-    <hyperlink ref="C28" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId107"/>
-    <hyperlink ref="E28" display="delete_checkpoint.png" r:id="rId108"/>
-    <hyperlink ref="F28" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId109"/>
-    <hyperlink ref="A29" display="delete_warn.png" r:id="rId110"/>
-    <hyperlink ref="C29" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId111"/>
-    <hyperlink ref="E29" display="delete_warn.png" r:id="rId112"/>
-    <hyperlink ref="F29" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId113"/>
-    <hyperlink ref="A30" display="after_delete.png" r:id="rId114"/>
-    <hyperlink ref="C30" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId115"/>
-    <hyperlink ref="E30" display="after_delete.png" r:id="rId116"/>
-    <hyperlink ref="F30" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId117"/>
-    <hyperlink ref="A31" display="walkthrough_compatibility.md" r:id="rId118"/>
-    <hyperlink ref="C31" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId119"/>
-    <hyperlink ref="E31" display="walkthrough_compatibility.md" r:id="rId120"/>
-    <hyperlink ref="F31" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId121"/>
-    <hyperlink ref="A32" display="systeminfo.png" r:id="rId122"/>
-    <hyperlink ref="C32" display="0a5cf2ba600896aeab999b4e8d62df930ee0226d.png" r:id="rId123"/>
-    <hyperlink ref="E32" display="systeminfo.png" r:id="rId124"/>
-    <hyperlink ref="F32" display="0a5cf2ba600896aeab999b4e8d62df930ee0226d.png" r:id="rId125"/>
-    <hyperlink ref="A33" display="walkthrough_create_vm.md" r:id="rId126"/>
-    <hyperlink ref="C33" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf" r:id="rId127"/>
-    <hyperlink ref="E33" display="walkthrough_create_vm.md" r:id="rId128"/>
-    <hyperlink ref="F33" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf" r:id="rId129"/>
-    <hyperlink ref="A34" display="walkthrough_export_import.md" r:id="rId130"/>
-    <hyperlink ref="C34" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-tw.xlf" r:id="rId131"/>
-    <hyperlink ref="E34" display="walkthrough_export_import.md" r:id="rId132"/>
-    <hyperlink ref="F34" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-tw.xlf" r:id="rId133"/>
-    <hyperlink ref="A35" display="select_export1.png" r:id="rId134"/>
-    <hyperlink ref="C35" display="16cfc23957260ceb3b07ef55a8e4b79996d525ca.png" r:id="rId135"/>
-    <hyperlink ref="E35" display="select_export1.png" r:id="rId136"/>
-    <hyperlink ref="F35" display="16cfc23957260ceb3b07ef55a8e4b79996d525ca.png" r:id="rId137"/>
-    <hyperlink ref="A36" display="click_export.png" r:id="rId138"/>
-    <hyperlink ref="C36" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId139"/>
-    <hyperlink ref="E36" display="click_export.png" r:id="rId140"/>
-    <hyperlink ref="F36" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId141"/>
-    <hyperlink ref="A37" display="export_progress.png" r:id="rId142"/>
-    <hyperlink ref="C37" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId143"/>
-    <hyperlink ref="E37" display="export_progress.png" r:id="rId144"/>
-    <hyperlink ref="F37" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId145"/>
-    <hyperlink ref="A38" display="export_confirm.png" r:id="rId146"/>
-    <hyperlink ref="C38" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId147"/>
-    <hyperlink ref="E38" display="export_confirm.png" r:id="rId148"/>
-    <hyperlink ref="F38" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId149"/>
-    <hyperlink ref="A39" display="walkthrough_install.md" r:id="rId150"/>
-    <hyperlink ref="C39" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-tw.xlf" r:id="rId151"/>
-    <hyperlink ref="E39" display="walkthrough_install.md" r:id="rId152"/>
-    <hyperlink ref="F39" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-tw.xlf" r:id="rId153"/>
-    <hyperlink ref="A40" display="programs_and_features.png" r:id="rId154"/>
-    <hyperlink ref="C40" display="fdb6dbedc6e3005586a9f283aa1f46b014bf929e.png" r:id="rId155"/>
-    <hyperlink ref="E40" display="programs_and_features.png" r:id="rId156"/>
-    <hyperlink ref="F40" display="fdb6dbedc6e3005586a9f283aa1f46b014bf929e.png" r:id="rId157"/>
-    <hyperlink ref="A41" display="hyper-v_feature_selected.png" r:id="rId158"/>
-    <hyperlink ref="C41" display="152595e982ed925cc5a6f625f1786a5f397ecd08.png" r:id="rId159"/>
-    <hyperlink ref="E41" display="hyper-v_feature_selected.png" r:id="rId160"/>
-    <hyperlink ref="F41" display="152595e982ed925cc5a6f625f1786a5f397ecd08.png" r:id="rId161"/>
-    <hyperlink ref="A42" display="restart.png" r:id="rId162"/>
-    <hyperlink ref="C42" display="8b5e8f8277dd3bb9ae0df0f19c95fd9f1a2f47e3.png" r:id="rId163"/>
-    <hyperlink ref="E42" display="restart.png" r:id="rId164"/>
-    <hyperlink ref="F42" display="8b5e8f8277dd3bb9ae0df0f19c95fd9f1a2f47e3.png" r:id="rId165"/>
-    <hyperlink ref="A43" display="walkthrough_powershell.md" r:id="rId166"/>
-    <hyperlink ref="C43" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-tw.xlf" r:id="rId167"/>
-    <hyperlink ref="E43" display="walkthrough_powershell.md" r:id="rId168"/>
-    <hyperlink ref="F43" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-tw.xlf" r:id="rId169"/>
-    <hyperlink ref="A44" display="command_grid.png" r:id="rId170"/>
-    <hyperlink ref="C44" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId171"/>
-    <hyperlink ref="E44" display="command_grid.png" r:id="rId172"/>
-    <hyperlink ref="F44" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId173"/>
-    <hyperlink ref="A45" display="get_help.png" r:id="rId174"/>
-    <hyperlink ref="C45" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId175"/>
-    <hyperlink ref="E45" display="get_help.png" r:id="rId176"/>
-    <hyperlink ref="F45" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId177"/>
-    <hyperlink ref="A46" display="get_vm.png" r:id="rId178"/>
-    <hyperlink ref="C46" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId179"/>
-    <hyperlink ref="E46" display="get_vm.png" r:id="rId180"/>
-    <hyperlink ref="F46" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId181"/>
-    <hyperlink ref="A47" display="POSH_CP2.png" r:id="rId182"/>
-    <hyperlink ref="C47" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId183"/>
-    <hyperlink ref="E47" display="POSH_CP2.png" r:id="rId184"/>
-    <hyperlink ref="F47" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId185"/>
-    <hyperlink ref="A48" display="walkthrough_virtual_switch.md" r:id="rId186"/>
-    <hyperlink ref="C48" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-tw.xlf" r:id="rId187"/>
-    <hyperlink ref="E48" display="walkthrough_virtual_switch.md" r:id="rId188"/>
-    <hyperlink ref="F48" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-tw.xlf" r:id="rId189"/>
-    <hyperlink ref="A49" display="virtual_switch_manager1.png" r:id="rId190"/>
-    <hyperlink ref="C49" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId191"/>
-    <hyperlink ref="E49" display="virtual_switch_manager1.png" r:id="rId192"/>
-    <hyperlink ref="F49" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId193"/>
-    <hyperlink ref="A50" display="new_switch.png" r:id="rId194"/>
-    <hyperlink ref="C50" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId195"/>
-    <hyperlink ref="E50" display="new_switch.png" r:id="rId196"/>
-    <hyperlink ref="F50" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId197"/>
-    <hyperlink ref="A51" display="new_switch_createbutton.png" r:id="rId198"/>
-    <hyperlink ref="C51" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId199"/>
-    <hyperlink ref="E51" display="new_switch_createbutton.png" r:id="rId200"/>
-    <hyperlink ref="F51" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId201"/>
-    <hyperlink ref="A52" display="share_nic.png" r:id="rId202"/>
-    <hyperlink ref="C52" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId203"/>
-    <hyperlink ref="E52" display="share_nic.png" r:id="rId204"/>
-    <hyperlink ref="F52" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId205"/>
-    <hyperlink ref="A53" display="network_warning.png" r:id="rId206"/>
-    <hyperlink ref="C53" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId207"/>
-    <hyperlink ref="E53" display="network_warning.png" r:id="rId208"/>
-    <hyperlink ref="F53" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId209"/>
-    <hyperlink ref="A54" display="walkthrough_vmconnect.md" r:id="rId210"/>
-    <hyperlink ref="C54" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-tw.xlf" r:id="rId211"/>
-    <hyperlink ref="E54" display="walkthrough_vmconnect.md" r:id="rId212"/>
-    <hyperlink ref="F54" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-tw.xlf" r:id="rId213"/>
-    <hyperlink ref="A55" display="turnoff.png" r:id="rId214"/>
-    <hyperlink ref="C55" display="0ace2b0a0fb0268ec72373ff912836157cddbda5.png" r:id="rId215"/>
-    <hyperlink ref="E55" display="turnoff.png" r:id="rId216"/>
-    <hyperlink ref="F55" display="0ace2b0a0fb0268ec72373ff912836157cddbda5.png" r:id="rId217"/>
-    <hyperlink ref="A56" display="shutdown.png" r:id="rId218"/>
-    <hyperlink ref="C56" display="5ab1d8630e83b53afc73ae837c8d9409f0cfee96.png" r:id="rId219"/>
-    <hyperlink ref="E56" display="shutdown.png" r:id="rId220"/>
-    <hyperlink ref="F56" display="5ab1d8630e83b53afc73ae837c8d9409f0cfee96.png" r:id="rId221"/>
-    <hyperlink ref="A57" display="save.png" r:id="rId222"/>
-    <hyperlink ref="C57" display="80edad7cc988d2ca8346d2f785345ce6b5d36df4.png" r:id="rId223"/>
-    <hyperlink ref="E57" display="save.png" r:id="rId224"/>
-    <hyperlink ref="F57" display="80edad7cc988d2ca8346d2f785345ce6b5d36df4.png" r:id="rId225"/>
-    <hyperlink ref="A58" display="pause.png" r:id="rId226"/>
-    <hyperlink ref="C58" display="19e37da524322414c21e941fb1c902b3a361c2db.png" r:id="rId227"/>
-    <hyperlink ref="E58" display="pause.png" r:id="rId228"/>
-    <hyperlink ref="F58" display="19e37da524322414c21e941fb1c902b3a361c2db.png" r:id="rId229"/>
-    <hyperlink ref="A59" display="reset.png" r:id="rId230"/>
-    <hyperlink ref="C59" display="b9da284951ca5bea7773ac6e0b4029fcd25c514d.png" r:id="rId231"/>
-    <hyperlink ref="E59" display="reset.png" r:id="rId232"/>
-    <hyperlink ref="F59" display="b9da284951ca5bea7773ac6e0b4029fcd25c514d.png" r:id="rId233"/>
-    <hyperlink ref="A60" display="ctrlaltdel.png" r:id="rId234"/>
-    <hyperlink ref="C60" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId235"/>
-    <hyperlink ref="E60" display="ctrlaltdel.png" r:id="rId236"/>
-    <hyperlink ref="F60" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId237"/>
-    <hyperlink ref="A61" display="basic.png" r:id="rId238"/>
-    <hyperlink ref="C61" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId239"/>
-    <hyperlink ref="E61" display="basic.png" r:id="rId240"/>
-    <hyperlink ref="F61" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId241"/>
-    <hyperlink ref="A62" display="checkpoint.png" r:id="rId242"/>
-    <hyperlink ref="C62" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId243"/>
-    <hyperlink ref="E62" display="checkpoint.png" r:id="rId244"/>
-    <hyperlink ref="F62" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId245"/>
-    <hyperlink ref="A63" display="revert.png" r:id="rId246"/>
-    <hyperlink ref="C63" display="66caa4c366c1b65937a913bfb39e3af350c2d9f6.png" r:id="rId247"/>
-    <hyperlink ref="E63" display="revert.png" r:id="rId248"/>
-    <hyperlink ref="F63" display="66caa4c366c1b65937a913bfb39e3af350c2d9f6.png" r:id="rId249"/>
-    <hyperlink ref="A64" display="TOC.md" r:id="rId250"/>
-    <hyperlink ref="C64" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId251"/>
-    <hyperlink ref="E64" display="TOC.md" r:id="rId252"/>
-    <hyperlink ref="F64" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId253"/>
-    <hyperlink ref="A65" display="checkpoints.md" r:id="rId254"/>
-    <hyperlink ref="C65" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-tw.xlf" r:id="rId255"/>
-    <hyperlink ref="E65" display="checkpoints.md" r:id="rId256"/>
-    <hyperlink ref="F65" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-tw.xlf" r:id="rId257"/>
-    <hyperlink ref="A66" display="export_import.md" r:id="rId258"/>
-    <hyperlink ref="C66" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-tw.xlf" r:id="rId259"/>
-    <hyperlink ref="E66" display="export_import.md" r:id="rId260"/>
-    <hyperlink ref="F66" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-tw.xlf" r:id="rId261"/>
-    <hyperlink ref="A67" display="migrating_vms.md" r:id="rId262"/>
-    <hyperlink ref="C67" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-tw.xlf" r:id="rId263"/>
-    <hyperlink ref="E67" display="migrating_vms.md" r:id="rId264"/>
-    <hyperlink ref="F67" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-tw.xlf" r:id="rId265"/>
-    <hyperlink ref="A68" display="remote_host_management.md" r:id="rId266"/>
-    <hyperlink ref="C68" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-tw.xlf" r:id="rId267"/>
-    <hyperlink ref="E68" display="remote_host_management.md" r:id="rId268"/>
-    <hyperlink ref="F68" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-tw.xlf" r:id="rId269"/>
-    <hyperlink ref="A69" display="HyperVManager-ConnectToHost.png" r:id="rId270"/>
-    <hyperlink ref="C69" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId271"/>
-    <hyperlink ref="E69" display="HyperVManager-ConnectToHost.png" r:id="rId272"/>
-    <hyperlink ref="F69" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId273"/>
-    <hyperlink ref="A70" display="HyperVManager-ConnectToLocalHost.png" r:id="rId274"/>
-    <hyperlink ref="C70" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId275"/>
-    <hyperlink ref="E70" display="HyperVManager-ConnectToLocalHost.png" r:id="rId276"/>
-    <hyperlink ref="F70" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId277"/>
-    <hyperlink ref="A71" display="HyperVManager-ConnectToRemoteHost.png" r:id="rId278"/>
-    <hyperlink ref="C71" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId279"/>
-    <hyperlink ref="E71" display="HyperVManager-ConnectToRemoteHost.png" r:id="rId280"/>
-    <hyperlink ref="F71" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId281"/>
-    <hyperlink ref="A72" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId282"/>
-    <hyperlink ref="C72" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId283"/>
-    <hyperlink ref="E72" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId284"/>
-    <hyperlink ref="F72" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId285"/>
-    <hyperlink ref="A73" display="troubleshooting.md" r:id="rId286"/>
-    <hyperlink ref="C73" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-tw.xlf" r:id="rId287"/>
-    <hyperlink ref="E73" display="troubleshooting.md" r:id="rId288"/>
-    <hyperlink ref="F73" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-tw.xlf" r:id="rId289"/>
-    <hyperlink ref="A74" display="user_guide_nav.md" r:id="rId290"/>
-    <hyperlink ref="C74" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-tw.xlf" r:id="rId291"/>
-    <hyperlink ref="E74" display="user_guide_nav.md" r:id="rId292"/>
-    <hyperlink ref="F74" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-tw.xlf" r:id="rId293"/>
-    <hyperlink ref="A75" display="vmsession.md" r:id="rId294"/>
-    <hyperlink ref="C75" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-tw.xlf" r:id="rId295"/>
-    <hyperlink ref="E75" display="vmsession.md" r:id="rId296"/>
-    <hyperlink ref="F75" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-tw.xlf" r:id="rId297"/>
-    <hyperlink ref="A76" display="about_overview.md" r:id="rId298"/>
-    <hyperlink ref="C76" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-tw.xlf" r:id="rId299"/>
-    <hyperlink ref="E76" display="about_overview.md" r:id="rId300"/>
-    <hyperlink ref="F76" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-tw.xlf" r:id="rId301"/>
-    <hyperlink ref="A77" display="containerfund.png" r:id="rId302"/>
-    <hyperlink ref="C77" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId303"/>
-    <hyperlink ref="E77" display="containerfund.png" r:id="rId304"/>
-    <hyperlink ref="F77" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId305"/>
-    <hyperlink ref="A78" display="container_ecosystem.md" r:id="rId306"/>
-    <hyperlink ref="C78" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-tw.xlf" r:id="rId307"/>
-    <hyperlink ref="E78" display="container_ecosystem.md" r:id="rId308"/>
-    <hyperlink ref="F78" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-tw.xlf" r:id="rId309"/>
-    <hyperlink ref="A79" display="containerEcosystem.png" r:id="rId310"/>
-    <hyperlink ref="C79" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId311"/>
-    <hyperlink ref="E79" display="containerEcosystem.png" r:id="rId312"/>
-    <hyperlink ref="F79" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId313"/>
-    <hyperlink ref="A80" display="faq.md" r:id="rId314"/>
-    <hyperlink ref="C80" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-tw.xlf" r:id="rId315"/>
-    <hyperlink ref="E80" display="faq.md" r:id="rId316"/>
-    <hyperlink ref="F80" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-tw.xlf" r:id="rId317"/>
-    <hyperlink ref="A81" display="work_in_progress.md" r:id="rId318"/>
-    <hyperlink ref="C81" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf" r:id="rId319"/>
-    <hyperlink ref="E81" display="work_in_progress.md" r:id="rId320"/>
-    <hyperlink ref="F81" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf" r:id="rId321"/>
-    <hyperlink ref="A82" display="containers_welcome.md" r:id="rId322"/>
-    <hyperlink ref="C82" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId323"/>
-    <hyperlink ref="E82" display="containers_welcome.md" r:id="rId324"/>
-    <hyperlink ref="F82" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId325"/>
+    <hyperlink ref="A3" display="containers_welcome.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="containers_welcome.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="community_overview.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="community_overview.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="TOC.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.zh-tw.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="TOC.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.zh-tw.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="hyperv_on_windows_new.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.zh-tw.xlf" r:id="rId19"/>
+    <hyperlink ref="E6" display="hyperv_on_windows_new.md" r:id="rId20"/>
+    <hyperlink ref="F6" display="hyperv_on_windows_new.843266a46ea6fc806eee76f3d077a552855f8891.zh-tw.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="ProductionCheckpoints_new.png" r:id="rId22"/>
+    <hyperlink ref="C7" display="00f8d7cfb9fbdf0f9d67f239aff5575dcdaaaed0.png" r:id="rId23"/>
+    <hyperlink ref="E7" display="ProductionCheckpoints_new.png" r:id="rId24"/>
+    <hyperlink ref="F7" display="00f8d7cfb9fbdf0f9d67f239aff5575dcdaaaed0.png" r:id="rId25"/>
+    <hyperlink ref="A8" display="supported_guest_os.md" r:id="rId26"/>
+    <hyperlink ref="C8" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.zh-tw.xlf" r:id="rId27"/>
+    <hyperlink ref="E8" display="supported_guest_os.md" r:id="rId28"/>
+    <hyperlink ref="F8" display="supported_guest_os.d1ae8a9dd710f94e6f72759af7a880d39bf8c9bf.zh-tw.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="whats_new.md" r:id="rId30"/>
+    <hyperlink ref="C9" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.zh-tw.xlf" r:id="rId31"/>
+    <hyperlink ref="E9" display="whats_new.md" r:id="rId32"/>
+    <hyperlink ref="F9" display="whats_new.dae7a7074466e85ccbefc13ff0f5e799912523e9.zh-tw.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="make_mgmt_servic.md" r:id="rId34"/>
+    <hyperlink ref="C10" display="make_mgmt_servic.25af83c569730c64c3b882e5575342123f74c879.zh-tw.xlf" r:id="rId35"/>
+    <hyperlink ref="E10" display="make_mgmt_servic.md" r:id="rId36"/>
+    <hyperlink ref="F10" display="make_mgmt_servic.25af83c569730c64c3b882e5575342123f74c879.zh-tw.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="1.png" r:id="rId38"/>
+    <hyperlink ref="C11" display="90b18083c5e836b383786e364b91c37fde16adff.png" r:id="rId39"/>
+    <hyperlink ref="E11" display="1.png" r:id="rId40"/>
+    <hyperlink ref="F11" display="90b18083c5e836b383786e364b91c37fde16adff.png" r:id="rId41"/>
+    <hyperlink ref="A12" display="powershell_snippets.md" r:id="rId42"/>
+    <hyperlink ref="C12" display="powershell_snippets.21e7d9aff80df6f1c56918c2c3e1149d3e880e9a.zh-tw.xlf" r:id="rId43"/>
+    <hyperlink ref="E12" display="powershell_snippets.md" r:id="rId44"/>
+    <hyperlink ref="F12" display="powershell_snippets.21e7d9aff80df6f1c56918c2c3e1149d3e880e9a.zh-tw.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="walkthrough.md" r:id="rId46"/>
+    <hyperlink ref="C13" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.zh-tw.xlf" r:id="rId47"/>
+    <hyperlink ref="E13" display="walkthrough.md" r:id="rId48"/>
+    <hyperlink ref="F13" display="walkthrough.479a697a5c0e6d13e1bbfafdcd36fe03e025a38d.zh-tw.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="walkthrough_checkpoints.md" r:id="rId50"/>
+    <hyperlink ref="C14" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-tw.xlf" r:id="rId51"/>
+    <hyperlink ref="E14" display="walkthrough_checkpoints.md" r:id="rId52"/>
+    <hyperlink ref="F14" display="walkthrough_checkpoints.06ccef918ac38bd6b778e8f9277879f20d6e1fd9.zh-tw.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="standard1.png" r:id="rId54"/>
+    <hyperlink ref="C15" display="d5fe61997fe63333a11454f5890626ad201cf2a5.png" r:id="rId55"/>
+    <hyperlink ref="E15" display="standard1.png" r:id="rId56"/>
+    <hyperlink ref="F15" display="d5fe61997fe63333a11454f5890626ad201cf2a5.png" r:id="rId57"/>
+    <hyperlink ref="A16" display="standard_notepad.png" r:id="rId58"/>
+    <hyperlink ref="C16" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId59"/>
+    <hyperlink ref="E16" display="standard_notepad.png" r:id="rId60"/>
+    <hyperlink ref="F16" display="53d9bc961c04974afdcd12bb720ad64bfcf34075.png" r:id="rId61"/>
+    <hyperlink ref="A17" display="checkpoint_button.png" r:id="rId62"/>
+    <hyperlink ref="C17" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId63"/>
+    <hyperlink ref="E17" display="checkpoint_button.png" r:id="rId64"/>
+    <hyperlink ref="F17" display="0d2809240461a6599a34c795b237533f55698452.png" r:id="rId65"/>
+    <hyperlink ref="A18" display="save_standard.png" r:id="rId66"/>
+    <hyperlink ref="C18" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId67"/>
+    <hyperlink ref="E18" display="save_standard.png" r:id="rId68"/>
+    <hyperlink ref="F18" display="c1c71b98feb102a4e67772bfc2de875ec2af22dd.png" r:id="rId69"/>
+    <hyperlink ref="A19" display="standard_complete.png" r:id="rId70"/>
+    <hyperlink ref="C19" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId71"/>
+    <hyperlink ref="E19" display="standard_complete.png" r:id="rId72"/>
+    <hyperlink ref="F19" display="4e785972c3be387b6ebd64e8b9fb223cc3dd75fc.png" r:id="rId73"/>
+    <hyperlink ref="A20" display="production.png" r:id="rId74"/>
+    <hyperlink ref="C20" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId75"/>
+    <hyperlink ref="E20" display="production.png" r:id="rId76"/>
+    <hyperlink ref="F20" display="fed34babab3f4e671a89cac091b2e17ef42d2a8a.png" r:id="rId77"/>
+    <hyperlink ref="A21" display="production_CheckpointName.png" r:id="rId78"/>
+    <hyperlink ref="C21" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId79"/>
+    <hyperlink ref="E21" display="production_CheckpointName.png" r:id="rId80"/>
+    <hyperlink ref="F21" display="d36276f92ae59c03ec9ee6ebf036be2e21221851.png" r:id="rId81"/>
+    <hyperlink ref="A22" display="production_complete.png" r:id="rId82"/>
+    <hyperlink ref="C22" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId83"/>
+    <hyperlink ref="E22" display="production_complete.png" r:id="rId84"/>
+    <hyperlink ref="F22" display="380c6e5e0bfe92b92d31d48427f07a973d8fe984.png" r:id="rId85"/>
+    <hyperlink ref="A23" display="apply_standard.png" r:id="rId86"/>
+    <hyperlink ref="C23" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId87"/>
+    <hyperlink ref="E23" display="apply_standard.png" r:id="rId88"/>
+    <hyperlink ref="F23" display="41fe6f9104dcc2946ef60efe9e0a66fd70ebbecc.png" r:id="rId89"/>
+    <hyperlink ref="A24" display="standard_applied.png" r:id="rId90"/>
+    <hyperlink ref="C24" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId91"/>
+    <hyperlink ref="E24" display="standard_applied.png" r:id="rId92"/>
+    <hyperlink ref="F24" display="467fb70b2d1c32195b1ba908c08b294bb569eecd.png" r:id="rId93"/>
+    <hyperlink ref="A25" display="standard_applied_notepad.png" r:id="rId94"/>
+    <hyperlink ref="C25" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId95"/>
+    <hyperlink ref="E25" display="standard_applied_notepad.png" r:id="rId96"/>
+    <hyperlink ref="F25" display="6146e217d26ec6fa5338c9df3ebed41ee94192a6.png" r:id="rId97"/>
+    <hyperlink ref="A26" display="start.png" r:id="rId98"/>
+    <hyperlink ref="C26" display="600e67045b98582d4dc3d087dcd2ae2a6d4be54c.png" r:id="rId99"/>
+    <hyperlink ref="E26" display="start.png" r:id="rId100"/>
+    <hyperlink ref="F26" display="600e67045b98582d4dc3d087dcd2ae2a6d4be54c.png" r:id="rId101"/>
+    <hyperlink ref="A27" display="production_notepad.png" r:id="rId102"/>
+    <hyperlink ref="C27" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId103"/>
+    <hyperlink ref="E27" display="production_notepad.png" r:id="rId104"/>
+    <hyperlink ref="F27" display="1d9a3786134bfd9ab4454491be318023849ebf3e.png" r:id="rId105"/>
+    <hyperlink ref="A28" display="delete_me.png" r:id="rId106"/>
+    <hyperlink ref="C28" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId107"/>
+    <hyperlink ref="E28" display="delete_me.png" r:id="rId108"/>
+    <hyperlink ref="F28" display="3a3b909ddbe5faa7ae9c894932c783ae0b3a861e.png" r:id="rId109"/>
+    <hyperlink ref="A29" display="delete_checkpoint.png" r:id="rId110"/>
+    <hyperlink ref="C29" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId111"/>
+    <hyperlink ref="E29" display="delete_checkpoint.png" r:id="rId112"/>
+    <hyperlink ref="F29" display="cf30ca46d006229820dd2e400d50243e43cbe669.png" r:id="rId113"/>
+    <hyperlink ref="A30" display="delete_warn.png" r:id="rId114"/>
+    <hyperlink ref="C30" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId115"/>
+    <hyperlink ref="E30" display="delete_warn.png" r:id="rId116"/>
+    <hyperlink ref="F30" display="197db0f85ff76bdbac3321d595f3b3a93429ac30.png" r:id="rId117"/>
+    <hyperlink ref="A31" display="after_delete.png" r:id="rId118"/>
+    <hyperlink ref="C31" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId119"/>
+    <hyperlink ref="E31" display="after_delete.png" r:id="rId120"/>
+    <hyperlink ref="F31" display="61d3a219c4976b61137f6b8c6739135a4d917265.png" r:id="rId121"/>
+    <hyperlink ref="A32" display="walkthrough_compatibility.md" r:id="rId122"/>
+    <hyperlink ref="C32" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId123"/>
+    <hyperlink ref="E32" display="walkthrough_compatibility.md" r:id="rId124"/>
+    <hyperlink ref="F32" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId125"/>
+    <hyperlink ref="A33" display="systeminfo.png" r:id="rId126"/>
+    <hyperlink ref="C33" display="0a5cf2ba600896aeab999b4e8d62df930ee0226d.png" r:id="rId127"/>
+    <hyperlink ref="E33" display="systeminfo.png" r:id="rId128"/>
+    <hyperlink ref="F33" display="0a5cf2ba600896aeab999b4e8d62df930ee0226d.png" r:id="rId129"/>
+    <hyperlink ref="A34" display="walkthrough_create_vm.md" r:id="rId130"/>
+    <hyperlink ref="C34" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf" r:id="rId131"/>
+    <hyperlink ref="E34" display="walkthrough_create_vm.md" r:id="rId132"/>
+    <hyperlink ref="F34" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf" r:id="rId133"/>
+    <hyperlink ref="A35" display="walkthrough_export_import.md" r:id="rId134"/>
+    <hyperlink ref="C35" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-tw.xlf" r:id="rId135"/>
+    <hyperlink ref="E35" display="walkthrough_export_import.md" r:id="rId136"/>
+    <hyperlink ref="F35" display="walkthrough_export_import.357da837e16b81b7e63ec02325c79b3b0eb2e511.zh-tw.xlf" r:id="rId137"/>
+    <hyperlink ref="A36" display="select_export1.png" r:id="rId138"/>
+    <hyperlink ref="C36" display="16cfc23957260ceb3b07ef55a8e4b79996d525ca.png" r:id="rId139"/>
+    <hyperlink ref="E36" display="select_export1.png" r:id="rId140"/>
+    <hyperlink ref="F36" display="16cfc23957260ceb3b07ef55a8e4b79996d525ca.png" r:id="rId141"/>
+    <hyperlink ref="A37" display="click_export.png" r:id="rId142"/>
+    <hyperlink ref="C37" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId143"/>
+    <hyperlink ref="E37" display="click_export.png" r:id="rId144"/>
+    <hyperlink ref="F37" display="033b857ffede72ffede2bb885c0b3305bfe49e5d.png" r:id="rId145"/>
+    <hyperlink ref="A38" display="export_progress.png" r:id="rId146"/>
+    <hyperlink ref="C38" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId147"/>
+    <hyperlink ref="E38" display="export_progress.png" r:id="rId148"/>
+    <hyperlink ref="F38" display="0561b03a80a6c5694a3597cb12de616cb772f3df.png" r:id="rId149"/>
+    <hyperlink ref="A39" display="export_confirm.png" r:id="rId150"/>
+    <hyperlink ref="C39" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId151"/>
+    <hyperlink ref="E39" display="export_confirm.png" r:id="rId152"/>
+    <hyperlink ref="F39" display="ac1b9c7df82cc6513a357b20b4dfb1f662560ba8.png" r:id="rId153"/>
+    <hyperlink ref="A40" display="walkthrough_install.md" r:id="rId154"/>
+    <hyperlink ref="C40" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-tw.xlf" r:id="rId155"/>
+    <hyperlink ref="E40" display="walkthrough_install.md" r:id="rId156"/>
+    <hyperlink ref="F40" display="walkthrough_install.775f3dd3ffd893bcec04436e9648ed46ba3e501e.zh-tw.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="programs_and_features.png" r:id="rId158"/>
+    <hyperlink ref="C41" display="fdb6dbedc6e3005586a9f283aa1f46b014bf929e.png" r:id="rId159"/>
+    <hyperlink ref="E41" display="programs_and_features.png" r:id="rId160"/>
+    <hyperlink ref="F41" display="fdb6dbedc6e3005586a9f283aa1f46b014bf929e.png" r:id="rId161"/>
+    <hyperlink ref="A42" display="hyper-v_feature_selected.png" r:id="rId162"/>
+    <hyperlink ref="C42" display="152595e982ed925cc5a6f625f1786a5f397ecd08.png" r:id="rId163"/>
+    <hyperlink ref="E42" display="hyper-v_feature_selected.png" r:id="rId164"/>
+    <hyperlink ref="F42" display="152595e982ed925cc5a6f625f1786a5f397ecd08.png" r:id="rId165"/>
+    <hyperlink ref="A43" display="restart.png" r:id="rId166"/>
+    <hyperlink ref="C43" display="8b5e8f8277dd3bb9ae0df0f19c95fd9f1a2f47e3.png" r:id="rId167"/>
+    <hyperlink ref="E43" display="restart.png" r:id="rId168"/>
+    <hyperlink ref="F43" display="8b5e8f8277dd3bb9ae0df0f19c95fd9f1a2f47e3.png" r:id="rId169"/>
+    <hyperlink ref="A44" display="walkthrough_powershell.md" r:id="rId170"/>
+    <hyperlink ref="C44" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-tw.xlf" r:id="rId171"/>
+    <hyperlink ref="E44" display="walkthrough_powershell.md" r:id="rId172"/>
+    <hyperlink ref="F44" display="walkthrough_powershell.f20d7c387d05f1e6da38e694c8255c1b0044b10b.zh-tw.xlf" r:id="rId173"/>
+    <hyperlink ref="A45" display="command_grid.png" r:id="rId174"/>
+    <hyperlink ref="C45" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId175"/>
+    <hyperlink ref="E45" display="command_grid.png" r:id="rId176"/>
+    <hyperlink ref="F45" display="44a0686f5ce5d1544b8a61bcad0a06eb1e1ce9d4.png" r:id="rId177"/>
+    <hyperlink ref="A46" display="get_help.png" r:id="rId178"/>
+    <hyperlink ref="C46" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId179"/>
+    <hyperlink ref="E46" display="get_help.png" r:id="rId180"/>
+    <hyperlink ref="F46" display="9d753332489389765c1ea1cfa1737126a201644c.png" r:id="rId181"/>
+    <hyperlink ref="A47" display="get_vm.png" r:id="rId182"/>
+    <hyperlink ref="C47" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId183"/>
+    <hyperlink ref="E47" display="get_vm.png" r:id="rId184"/>
+    <hyperlink ref="F47" display="579a5b151617e20cfb4e116a6f365a96dbaa9c4a.png" r:id="rId185"/>
+    <hyperlink ref="A48" display="POSH_CP2.png" r:id="rId186"/>
+    <hyperlink ref="C48" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId187"/>
+    <hyperlink ref="E48" display="POSH_CP2.png" r:id="rId188"/>
+    <hyperlink ref="F48" display="50819aee09462e65ad3e58e1498aeb2100326434.png" r:id="rId189"/>
+    <hyperlink ref="A49" display="walkthrough_virtual_switch.md" r:id="rId190"/>
+    <hyperlink ref="C49" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-tw.xlf" r:id="rId191"/>
+    <hyperlink ref="E49" display="walkthrough_virtual_switch.md" r:id="rId192"/>
+    <hyperlink ref="F49" display="walkthrough_virtual_switch.27dde78ebf41bbbdb946f00af1eb221b79cbb05a.zh-tw.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="virtual_switch_manager1.png" r:id="rId194"/>
+    <hyperlink ref="C50" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId195"/>
+    <hyperlink ref="E50" display="virtual_switch_manager1.png" r:id="rId196"/>
+    <hyperlink ref="F50" display="2d6238ee2a2ab32abb8c554ed523d991dd2872a5.png" r:id="rId197"/>
+    <hyperlink ref="A51" display="new_switch.png" r:id="rId198"/>
+    <hyperlink ref="C51" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId199"/>
+    <hyperlink ref="E51" display="new_switch.png" r:id="rId200"/>
+    <hyperlink ref="F51" display="c99ae72d3f7fed23ecb0c4f298e5a7a35afc88d4.png" r:id="rId201"/>
+    <hyperlink ref="A52" display="new_switch_createbutton.png" r:id="rId202"/>
+    <hyperlink ref="C52" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId203"/>
+    <hyperlink ref="E52" display="new_switch_createbutton.png" r:id="rId204"/>
+    <hyperlink ref="F52" display="16014b7a0feb0558437d99113972981e6560ef83.png" r:id="rId205"/>
+    <hyperlink ref="A53" display="share_nic.png" r:id="rId206"/>
+    <hyperlink ref="C53" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId207"/>
+    <hyperlink ref="E53" display="share_nic.png" r:id="rId208"/>
+    <hyperlink ref="F53" display="010b14ab9606fc78ab56eee192fa75bd3c9ce944.png" r:id="rId209"/>
+    <hyperlink ref="A54" display="network_warning.png" r:id="rId210"/>
+    <hyperlink ref="C54" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId211"/>
+    <hyperlink ref="E54" display="network_warning.png" r:id="rId212"/>
+    <hyperlink ref="F54" display="7914414173209fcf0105acf95f81399419f997e8.png" r:id="rId213"/>
+    <hyperlink ref="A55" display="walkthrough_vmconnect.md" r:id="rId214"/>
+    <hyperlink ref="C55" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-tw.xlf" r:id="rId215"/>
+    <hyperlink ref="E55" display="walkthrough_vmconnect.md" r:id="rId216"/>
+    <hyperlink ref="F55" display="walkthrough_vmconnect.4c24d05a20fdddbc9d4d3c09f3b483c6fb9fc9e9.zh-tw.xlf" r:id="rId217"/>
+    <hyperlink ref="A56" display="turnoff.png" r:id="rId218"/>
+    <hyperlink ref="C56" display="0ace2b0a0fb0268ec72373ff912836157cddbda5.png" r:id="rId219"/>
+    <hyperlink ref="E56" display="turnoff.png" r:id="rId220"/>
+    <hyperlink ref="F56" display="0ace2b0a0fb0268ec72373ff912836157cddbda5.png" r:id="rId221"/>
+    <hyperlink ref="A57" display="shutdown.png" r:id="rId222"/>
+    <hyperlink ref="C57" display="5ab1d8630e83b53afc73ae837c8d9409f0cfee96.png" r:id="rId223"/>
+    <hyperlink ref="E57" display="shutdown.png" r:id="rId224"/>
+    <hyperlink ref="F57" display="5ab1d8630e83b53afc73ae837c8d9409f0cfee96.png" r:id="rId225"/>
+    <hyperlink ref="A58" display="save.png" r:id="rId226"/>
+    <hyperlink ref="C58" display="80edad7cc988d2ca8346d2f785345ce6b5d36df4.png" r:id="rId227"/>
+    <hyperlink ref="E58" display="save.png" r:id="rId228"/>
+    <hyperlink ref="F58" display="80edad7cc988d2ca8346d2f785345ce6b5d36df4.png" r:id="rId229"/>
+    <hyperlink ref="A59" display="pause.png" r:id="rId230"/>
+    <hyperlink ref="C59" display="19e37da524322414c21e941fb1c902b3a361c2db.png" r:id="rId231"/>
+    <hyperlink ref="E59" display="pause.png" r:id="rId232"/>
+    <hyperlink ref="F59" display="19e37da524322414c21e941fb1c902b3a361c2db.png" r:id="rId233"/>
+    <hyperlink ref="A60" display="reset.png" r:id="rId234"/>
+    <hyperlink ref="C60" display="b9da284951ca5bea7773ac6e0b4029fcd25c514d.png" r:id="rId235"/>
+    <hyperlink ref="E60" display="reset.png" r:id="rId236"/>
+    <hyperlink ref="F60" display="b9da284951ca5bea7773ac6e0b4029fcd25c514d.png" r:id="rId237"/>
+    <hyperlink ref="A61" display="ctrlaltdel.png" r:id="rId238"/>
+    <hyperlink ref="C61" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId239"/>
+    <hyperlink ref="E61" display="ctrlaltdel.png" r:id="rId240"/>
+    <hyperlink ref="F61" display="e4d15fec95c845919ba7f9fe8df128d7dbec116d.png" r:id="rId241"/>
+    <hyperlink ref="A62" display="basic.png" r:id="rId242"/>
+    <hyperlink ref="C62" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId243"/>
+    <hyperlink ref="E62" display="basic.png" r:id="rId244"/>
+    <hyperlink ref="F62" display="23eca458ec44c46dea8eca88aa041c9f9e1a8005.png" r:id="rId245"/>
+    <hyperlink ref="A63" display="checkpoint.png" r:id="rId246"/>
+    <hyperlink ref="C63" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId247"/>
+    <hyperlink ref="E63" display="checkpoint.png" r:id="rId248"/>
+    <hyperlink ref="F63" display="dcc854e9982c81a2ad99872fd40bbd940733ccdb.png" r:id="rId249"/>
+    <hyperlink ref="A64" display="revert.png" r:id="rId250"/>
+    <hyperlink ref="C64" display="66caa4c366c1b65937a913bfb39e3af350c2d9f6.png" r:id="rId251"/>
+    <hyperlink ref="E64" display="revert.png" r:id="rId252"/>
+    <hyperlink ref="F64" display="66caa4c366c1b65937a913bfb39e3af350c2d9f6.png" r:id="rId253"/>
+    <hyperlink ref="A65" display="TOC.md" r:id="rId254"/>
+    <hyperlink ref="C65" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId255"/>
+    <hyperlink ref="E65" display="TOC.md" r:id="rId256"/>
+    <hyperlink ref="F65" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId257"/>
+    <hyperlink ref="A66" display="checkpoints.md" r:id="rId258"/>
+    <hyperlink ref="C66" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-tw.xlf" r:id="rId259"/>
+    <hyperlink ref="E66" display="checkpoints.md" r:id="rId260"/>
+    <hyperlink ref="F66" display="checkpoints.fb864e32f956b43d9a6ce0ccc72ba67b60ea8362.zh-tw.xlf" r:id="rId261"/>
+    <hyperlink ref="A67" display="export_import.md" r:id="rId262"/>
+    <hyperlink ref="C67" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-tw.xlf" r:id="rId263"/>
+    <hyperlink ref="E67" display="export_import.md" r:id="rId264"/>
+    <hyperlink ref="F67" display="export_import.c0c14674ac282e57d9bff1c585b3081c9fcc2b14.zh-tw.xlf" r:id="rId265"/>
+    <hyperlink ref="A68" display="migrating_vms.md" r:id="rId266"/>
+    <hyperlink ref="C68" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-tw.xlf" r:id="rId267"/>
+    <hyperlink ref="E68" display="migrating_vms.md" r:id="rId268"/>
+    <hyperlink ref="F68" display="migrating_vms.c3ab6f486125abf75758937dd83afe9f4e332b1b.zh-tw.xlf" r:id="rId269"/>
+    <hyperlink ref="A69" display="remote_host_management.md" r:id="rId270"/>
+    <hyperlink ref="C69" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-tw.xlf" r:id="rId271"/>
+    <hyperlink ref="E69" display="remote_host_management.md" r:id="rId272"/>
+    <hyperlink ref="F69" display="remote_host_management.40d5636e508c5b95bb2917be75ca6b5aa426a915.zh-tw.xlf" r:id="rId273"/>
+    <hyperlink ref="A70" display="HyperVManager-ConnectToHost.png" r:id="rId274"/>
+    <hyperlink ref="C70" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId275"/>
+    <hyperlink ref="E70" display="HyperVManager-ConnectToHost.png" r:id="rId276"/>
+    <hyperlink ref="F70" display="5f21c845594a8663b7458e86c121563d3b199e4d.png" r:id="rId277"/>
+    <hyperlink ref="A71" display="HyperVManager-ConnectToLocalHost.png" r:id="rId278"/>
+    <hyperlink ref="C71" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId279"/>
+    <hyperlink ref="E71" display="HyperVManager-ConnectToLocalHost.png" r:id="rId280"/>
+    <hyperlink ref="F71" display="480f125229e908bd46da36baea6c1628b3b10fb3.png" r:id="rId281"/>
+    <hyperlink ref="A72" display="HyperVManager-ConnectToRemoteHost.png" r:id="rId282"/>
+    <hyperlink ref="C72" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId283"/>
+    <hyperlink ref="E72" display="HyperVManager-ConnectToRemoteHost.png" r:id="rId284"/>
+    <hyperlink ref="F72" display="09140851fb0b7b0d268a1beda2d6423fe3c24e1a.png" r:id="rId285"/>
+    <hyperlink ref="A73" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId286"/>
+    <hyperlink ref="C73" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId287"/>
+    <hyperlink ref="E73" display="HyperVManager-ConnectToRemoteHostAltCreds.png" r:id="rId288"/>
+    <hyperlink ref="F73" display="b1547cd8ba6a8ff669e679d64b79773d3878beea.png" r:id="rId289"/>
+    <hyperlink ref="A74" display="troubleshooting.md" r:id="rId290"/>
+    <hyperlink ref="C74" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-tw.xlf" r:id="rId291"/>
+    <hyperlink ref="E74" display="troubleshooting.md" r:id="rId292"/>
+    <hyperlink ref="F74" display="troubleshooting.551250f086d151b3edaaeda1dd07411092c8b348.zh-tw.xlf" r:id="rId293"/>
+    <hyperlink ref="A75" display="user_guide_nav.md" r:id="rId294"/>
+    <hyperlink ref="C75" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-tw.xlf" r:id="rId295"/>
+    <hyperlink ref="E75" display="user_guide_nav.md" r:id="rId296"/>
+    <hyperlink ref="F75" display="user_guide_nav.1b8c67c408c9adfec100af4c7ae69ce1dd917f2e.zh-tw.xlf" r:id="rId297"/>
+    <hyperlink ref="A76" display="vmsession.md" r:id="rId298"/>
+    <hyperlink ref="C76" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-tw.xlf" r:id="rId299"/>
+    <hyperlink ref="E76" display="vmsession.md" r:id="rId300"/>
+    <hyperlink ref="F76" display="vmsession.5b8e9c3583d826412e0ae8e2f58f1deca9901582.zh-tw.xlf" r:id="rId301"/>
+    <hyperlink ref="A77" display="about_overview.md" r:id="rId302"/>
+    <hyperlink ref="C77" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-tw.xlf" r:id="rId303"/>
+    <hyperlink ref="E77" display="about_overview.md" r:id="rId304"/>
+    <hyperlink ref="F77" display="about_overview.128dd77ccb6c6a944b03f43ade40980cc30f0f48.zh-tw.xlf" r:id="rId305"/>
+    <hyperlink ref="A78" display="containerfund.png" r:id="rId306"/>
+    <hyperlink ref="C78" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId307"/>
+    <hyperlink ref="E78" display="containerfund.png" r:id="rId308"/>
+    <hyperlink ref="F78" display="b62d8af1f08bc8085945c8aa154d46d2215879cb.png" r:id="rId309"/>
+    <hyperlink ref="A79" display="container_ecosystem.md" r:id="rId310"/>
+    <hyperlink ref="C79" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-tw.xlf" r:id="rId311"/>
+    <hyperlink ref="E79" display="container_ecosystem.md" r:id="rId312"/>
+    <hyperlink ref="F79" display="container_ecosystem.20bda9dd63d8896f8bdb5b77d8a94217b9f975d1.zh-tw.xlf" r:id="rId313"/>
+    <hyperlink ref="A80" display="containerEcosystem.png" r:id="rId314"/>
+    <hyperlink ref="C80" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId315"/>
+    <hyperlink ref="E80" display="containerEcosystem.png" r:id="rId316"/>
+    <hyperlink ref="F80" display="93ee375f9efb3462c5d1e4ba45248fe9dde58566.png" r:id="rId317"/>
+    <hyperlink ref="A81" display="faq.md" r:id="rId318"/>
+    <hyperlink ref="C81" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-tw.xlf" r:id="rId319"/>
+    <hyperlink ref="E81" display="faq.md" r:id="rId320"/>
+    <hyperlink ref="F81" display="faq.9230ef72e03dd569ad85af3ef02d21277aad0e46.zh-tw.xlf" r:id="rId321"/>
+    <hyperlink ref="A82" display="work_in_progress.md" r:id="rId322"/>
+    <hyperlink ref="C82" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf" r:id="rId323"/>
+    <hyperlink ref="E82" display="work_in_progress.md" r:id="rId324"/>
+    <hyperlink ref="F82" display="work_in_progress.4d0e298514e64fd94d18eb197e270fbbf7e07fd8.zh-tw.xlf" r:id="rId325"/>
     <hyperlink ref="A83" display="EULA.md" r:id="rId326"/>
     <hyperlink ref="C83" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId327"/>
     <hyperlink ref="E83" display="EULA.md" r:id="rId328"/>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
@@ -687,10 +687,10 @@
     <t>windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 09:29:29</t>
-  </si>
-  <si>
-    <t>2016-01-11 09:43:30</t>
+    <t>2016-01-11 14:53:51</t>
+  </si>
+  <si>
+    <t>2016-01-11 15:01:44</t>
   </si>
   <si>
     <t>b2c94ac52ef618490102103406d0ed0e4366a42b.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
@@ -384,7 +384,7 @@
     <t>2016-01-27 06:45:58</t>
   </si>
   <si>
-    <t>2016-02-22 08:48:32</t>
+    <t>2016-02-22 08:49:28</t>
   </si>
   <si>
     <t>Include</t>
@@ -702,7 +702,7 @@
     <t>2015-10-12 09:40:58</t>
   </si>
   <si>
-    <t>2016-02-22 08:48:45</t>
+    <t>2016-02-22 08:49:38</t>
   </si>
   <si>
     <t>0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf</t>
@@ -861,7 +861,7 @@
     <t>2016-01-08 13:12:03</t>
   </si>
   <si>
-    <t>2016-02-22 08:48:57</t>
+    <t>2016-02-22 08:49:48</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf</t>
@@ -1005,7 +1005,7 @@
     <t>2016-01-11 05:17:41</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:07</t>
+    <t>2016-02-22 08:49:58</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
@@ -384,7 +384,7 @@
     <t>2016-01-27 06:45:58</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:28</t>
+    <t>2016-02-22 08:50:29</t>
   </si>
   <si>
     <t>Include</t>
@@ -702,7 +702,7 @@
     <t>2015-10-12 09:40:58</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:38</t>
+    <t>2016-02-22 08:50:40</t>
   </si>
   <si>
     <t>0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf</t>
@@ -861,7 +861,7 @@
     <t>2016-01-08 13:12:03</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:48</t>
+    <t>2016-02-22 08:50:50</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf</t>
@@ -1005,7 +1005,7 @@
     <t>2016-01-11 05:17:41</t>
   </si>
   <si>
-    <t>2016-02-22 08:49:58</t>
+    <t>2016-02-22 08:51:01</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
@@ -384,7 +384,7 @@
     <t>2016-01-27 06:45:58</t>
   </si>
   <si>
-    <t>2016-02-22 08:50:29</t>
+    <t>2016-02-22 08:58:35</t>
   </si>
   <si>
     <t>Include</t>
@@ -702,7 +702,7 @@
     <t>2015-10-12 09:40:58</t>
   </si>
   <si>
-    <t>2016-02-22 08:50:40</t>
+    <t>2016-02-22 08:58:45</t>
   </si>
   <si>
     <t>0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf</t>
@@ -861,7 +861,7 @@
     <t>2016-01-08 13:12:03</t>
   </si>
   <si>
-    <t>2016-02-22 08:50:50</t>
+    <t>2016-02-22 08:58:57</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.ja-jp.xlf</t>
@@ -1005,7 +1005,7 @@
     <t>2016-01-11 05:17:41</t>
   </si>
   <si>
-    <t>2016-02-22 08:51:01</t>
+    <t>2016-02-22 08:59:06</t>
   </si>
   <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t>File Name</t>
   </si>
@@ -32,15 +32,18 @@
     <t>ja-jp</t>
   </si>
   <si>
+    <t>community_overview.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>supported_guest_os.md</t>
   </si>
   <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>whats_new.md</t>
   </si>
   <si>
@@ -68,9 +71,6 @@
     <t>quickstart.md</t>
   </si>
   <si>
-    <t>community_overview.md</t>
-  </si>
-  <si>
     <t>hyperv_on_windows_new.md</t>
   </si>
   <si>
@@ -365,6 +365,18 @@
     <t>.md</t>
   </si>
   <si>
+    <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2015-11-02 17:03:50</t>
+  </si>
+  <si>
+    <t>2015-11-02 17:17:03</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
     <t>b2c94ac52ef618490102103406d0ed0e4366a42b.xlf</t>
   </si>
   <si>
@@ -374,9 +386,6 @@
     <t>2016-02-22 08:58:45</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf</t>
   </si>
   <si>
@@ -408,15 +417,6 @@
   </si>
   <si>
     <t>8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf</t>
-  </si>
-  <si>
-    <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2015-11-02 17:03:50</t>
-  </si>
-  <si>
-    <t>2015-11-02 17:17:03</t>
   </si>
   <si>
     <t>d95757903564f8beea62ad4d2977764d431eeeb8.xlf</t>
@@ -726,15 +726,18 @@
     <t>c9a613b41195c01471a39d59e0fccdb2e226b08a.xlf</t>
   </si>
   <si>
+    <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-11 05:17:41</t>
+  </si>
+  <si>
+    <t>2016-02-22 08:59:06</t>
+  </si>
+  <si>
     <t>walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 05:17:41</t>
-  </si>
-  <si>
-    <t>2016-02-22 08:59:06</t>
-  </si>
-  <si>
     <t>walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf</t>
   </si>
   <si>
@@ -781,9 +784,6 @@
   </si>
   <si>
     <t>active-directory-conditional-access-automatic-device-registration.48bc182f8032cfe981849fdeaf5f14f6c4d75ad5.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.zh-tw.xlf</t>
@@ -923,6 +923,12 @@
   </si>
   <si>
     <t>community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-31 17:49:52</t>
+  </si>
+  <si>
+    <t>2016-03-31 17:54:13</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.ja-jp.xlf</t>
@@ -1251,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
@@ -1279,10 +1285,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1321,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1335,10 +1341,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1388,18 +1394,18 @@
         <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -2505,7 +2511,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>6</v>
@@ -2603,17 +2609,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="supported_guest_os.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="whats_new.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="walkthrough_compatibility.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="walkthrough_create_vm.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="TOC.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="about_overview.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="containers_welcome.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="EULA.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="manage_powershell.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="quickstart.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="community_overview.md" r:id="rId12"/>
+    <hyperlink ref="A2" display="community_overview.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="supported_guest_os.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="whats_new.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="walkthrough_compatibility.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="walkthrough_create_vm.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="TOC.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="about_overview.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="containers_welcome.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="EULA.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="manage_powershell.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="quickstart.md" r:id="rId12"/>
     <hyperlink ref="A13" display="TOC.md" r:id="rId13"/>
     <hyperlink ref="A14" display="hyperv_on_windows_new.md" r:id="rId14"/>
     <hyperlink ref="A15" display="ProductionCheckpoints_new.png" r:id="rId15"/>
@@ -2811,7 +2817,7 @@
         <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -2820,7 +2826,7 @@
         <v>119</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>118</v>
@@ -2837,19 +2843,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>118</v>
@@ -2866,19 +2872,19 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>118</v>
@@ -2895,19 +2901,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>118</v>
@@ -2924,19 +2930,19 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>118</v>
@@ -2953,19 +2959,19 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>118</v>
@@ -2985,7 +2991,7 @@
         <v>127</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -2994,7 +3000,7 @@
         <v>127</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>118</v>
@@ -3011,19 +3017,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>118</v>
@@ -3040,19 +3046,19 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>118</v>
@@ -3066,22 +3072,22 @@
         <v>114</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>118</v>
@@ -3089,7 +3095,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>114</v>
@@ -3101,16 +3107,16 @@
         <v>133</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>133</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>118</v>
@@ -3159,7 +3165,7 @@
         <v>138</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>18</v>
@@ -3168,7 +3174,7 @@
         <v>138</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>139</v>
@@ -3191,7 +3197,7 @@
         <v>141</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
@@ -3200,7 +3206,7 @@
         <v>141</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>118</v>
@@ -3220,7 +3226,7 @@
         <v>142</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
@@ -3229,7 +3235,7 @@
         <v>142</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>118</v>
@@ -3249,7 +3255,7 @@
         <v>143</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>21</v>
@@ -3258,7 +3264,7 @@
         <v>143</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>139</v>
@@ -3281,7 +3287,7 @@
         <v>145</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>22</v>
@@ -3290,7 +3296,7 @@
         <v>145</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>139</v>
@@ -3313,7 +3319,7 @@
         <v>147</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>23</v>
@@ -3322,7 +3328,7 @@
         <v>147</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>139</v>
@@ -3345,7 +3351,7 @@
         <v>148</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>24</v>
@@ -3354,7 +3360,7 @@
         <v>148</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>139</v>
@@ -3377,7 +3383,7 @@
         <v>150</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>25</v>
@@ -3386,7 +3392,7 @@
         <v>150</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>139</v>
@@ -3409,7 +3415,7 @@
         <v>151</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>26</v>
@@ -3418,7 +3424,7 @@
         <v>151</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>139</v>
@@ -3441,7 +3447,7 @@
         <v>152</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>27</v>
@@ -3450,7 +3456,7 @@
         <v>152</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>139</v>
@@ -3473,7 +3479,7 @@
         <v>154</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>28</v>
@@ -3482,7 +3488,7 @@
         <v>154</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>139</v>
@@ -3505,7 +3511,7 @@
         <v>156</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>29</v>
@@ -3514,7 +3520,7 @@
         <v>156</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>139</v>
@@ -3537,7 +3543,7 @@
         <v>157</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>30</v>
@@ -3546,7 +3552,7 @@
         <v>157</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>139</v>
@@ -3569,7 +3575,7 @@
         <v>158</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>31</v>
@@ -3578,7 +3584,7 @@
         <v>158</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>139</v>
@@ -3601,7 +3607,7 @@
         <v>159</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>32</v>
@@ -3610,7 +3616,7 @@
         <v>159</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>139</v>
@@ -3633,7 +3639,7 @@
         <v>160</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>33</v>
@@ -3642,7 +3648,7 @@
         <v>160</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>139</v>
@@ -3665,7 +3671,7 @@
         <v>161</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>34</v>
@@ -3674,7 +3680,7 @@
         <v>161</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>139</v>
@@ -3697,7 +3703,7 @@
         <v>162</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>35</v>
@@ -3706,7 +3712,7 @@
         <v>162</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>139</v>
@@ -3729,7 +3735,7 @@
         <v>163</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>36</v>
@@ -3738,7 +3744,7 @@
         <v>163</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>139</v>
@@ -3761,7 +3767,7 @@
         <v>164</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>37</v>
@@ -3770,7 +3776,7 @@
         <v>164</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>139</v>
@@ -3793,7 +3799,7 @@
         <v>166</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>38</v>
@@ -3802,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>139</v>
@@ -3825,7 +3831,7 @@
         <v>168</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>39</v>
@@ -3834,7 +3840,7 @@
         <v>168</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>139</v>
@@ -3857,7 +3863,7 @@
         <v>169</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>40</v>
@@ -3866,7 +3872,7 @@
         <v>169</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>139</v>
@@ -3889,7 +3895,7 @@
         <v>170</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>41</v>
@@ -3898,7 +3904,7 @@
         <v>170</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>139</v>
@@ -3921,7 +3927,7 @@
         <v>171</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>42</v>
@@ -3930,7 +3936,7 @@
         <v>171</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>139</v>
@@ -3953,7 +3959,7 @@
         <v>172</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>43</v>
@@ -3962,7 +3968,7 @@
         <v>172</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>139</v>
@@ -3985,7 +3991,7 @@
         <v>173</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>44</v>
@@ -3994,7 +4000,7 @@
         <v>173</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>139</v>
@@ -4017,7 +4023,7 @@
         <v>174</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>45</v>
@@ -4026,7 +4032,7 @@
         <v>174</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>139</v>
@@ -4049,7 +4055,7 @@
         <v>175</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>46</v>
@@ -4058,7 +4064,7 @@
         <v>175</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>139</v>
@@ -4081,7 +4087,7 @@
         <v>176</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>47</v>
@@ -4090,7 +4096,7 @@
         <v>176</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>139</v>
@@ -4113,7 +4119,7 @@
         <v>177</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>48</v>
@@ -4122,7 +4128,7 @@
         <v>177</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>139</v>
@@ -4145,7 +4151,7 @@
         <v>178</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>49</v>
@@ -4154,7 +4160,7 @@
         <v>178</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>139</v>
@@ -4177,7 +4183,7 @@
         <v>179</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>50</v>
@@ -4186,7 +4192,7 @@
         <v>179</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>139</v>
@@ -4209,7 +4215,7 @@
         <v>180</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>51</v>
@@ -4218,7 +4224,7 @@
         <v>180</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>139</v>
@@ -4241,7 +4247,7 @@
         <v>181</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>52</v>
@@ -4250,7 +4256,7 @@
         <v>181</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>139</v>
@@ -4273,7 +4279,7 @@
         <v>182</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>53</v>
@@ -4282,7 +4288,7 @@
         <v>182</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>139</v>
@@ -4305,7 +4311,7 @@
         <v>183</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>54</v>
@@ -4314,7 +4320,7 @@
         <v>183</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>139</v>
@@ -4337,7 +4343,7 @@
         <v>185</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>55</v>
@@ -4346,7 +4352,7 @@
         <v>185</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>139</v>
@@ -4369,7 +4375,7 @@
         <v>186</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>56</v>
@@ -4378,7 +4384,7 @@
         <v>186</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>118</v>
@@ -4398,7 +4404,7 @@
         <v>187</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>57</v>
@@ -4407,7 +4413,7 @@
         <v>187</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>118</v>
@@ -4427,7 +4433,7 @@
         <v>187</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>58</v>
@@ -4436,7 +4442,7 @@
         <v>187</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>118</v>
@@ -4456,7 +4462,7 @@
         <v>188</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>59</v>
@@ -4465,7 +4471,7 @@
         <v>188</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>118</v>
@@ -4485,7 +4491,7 @@
         <v>189</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>60</v>
@@ -4494,7 +4500,7 @@
         <v>189</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>118</v>
@@ -4514,7 +4520,7 @@
         <v>190</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>61</v>
@@ -4523,7 +4529,7 @@
         <v>190</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>118</v>
@@ -4543,7 +4549,7 @@
         <v>191</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>62</v>
@@ -4552,7 +4558,7 @@
         <v>191</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>118</v>
@@ -4572,7 +4578,7 @@
         <v>192</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>63</v>
@@ -4581,7 +4587,7 @@
         <v>192</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>118</v>
@@ -4601,7 +4607,7 @@
         <v>193</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>64</v>
@@ -4610,7 +4616,7 @@
         <v>193</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>118</v>
@@ -4630,7 +4636,7 @@
         <v>194</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>65</v>
@@ -4639,7 +4645,7 @@
         <v>194</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>118</v>
@@ -4659,7 +4665,7 @@
         <v>195</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>66</v>
@@ -4668,7 +4674,7 @@
         <v>195</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>139</v>
@@ -4691,7 +4697,7 @@
         <v>197</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>67</v>
@@ -4700,7 +4706,7 @@
         <v>197</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>118</v>
@@ -4720,7 +4726,7 @@
         <v>198</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>68</v>
@@ -4729,7 +4735,7 @@
         <v>198</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>118</v>
@@ -4749,7 +4755,7 @@
         <v>199</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>69</v>
@@ -4758,7 +4764,7 @@
         <v>199</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>118</v>
@@ -4778,7 +4784,7 @@
         <v>200</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>70</v>
@@ -4787,7 +4793,7 @@
         <v>200</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>118</v>
@@ -4807,7 +4813,7 @@
         <v>201</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>71</v>
@@ -4816,7 +4822,7 @@
         <v>201</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>118</v>
@@ -4836,7 +4842,7 @@
         <v>202</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>72</v>
@@ -4845,7 +4851,7 @@
         <v>202</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>118</v>
@@ -4865,7 +4871,7 @@
         <v>203</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>73</v>
@@ -4874,7 +4880,7 @@
         <v>203</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J70" s="0" t="s">
         <v>118</v>
@@ -4894,7 +4900,7 @@
         <v>204</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>74</v>
@@ -4903,7 +4909,7 @@
         <v>204</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J71" s="0" t="s">
         <v>139</v>
@@ -4926,7 +4932,7 @@
         <v>206</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>75</v>
@@ -4935,7 +4941,7 @@
         <v>206</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J72" s="0" t="s">
         <v>139</v>
@@ -4958,7 +4964,7 @@
         <v>208</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>76</v>
@@ -4967,7 +4973,7 @@
         <v>208</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J73" s="0" t="s">
         <v>118</v>
@@ -5016,7 +5022,7 @@
         <v>212</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>78</v>
@@ -5025,7 +5031,7 @@
         <v>212</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>118</v>
@@ -5045,7 +5051,7 @@
         <v>213</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>79</v>
@@ -5054,7 +5060,7 @@
         <v>213</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>118</v>
@@ -5074,7 +5080,7 @@
         <v>214</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>80</v>
@@ -5083,7 +5089,7 @@
         <v>214</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>118</v>
@@ -5103,7 +5109,7 @@
         <v>215</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>81</v>
@@ -5112,7 +5118,7 @@
         <v>215</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>139</v>
@@ -5135,7 +5141,7 @@
         <v>217</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>82</v>
@@ -5144,7 +5150,7 @@
         <v>217</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>139</v>
@@ -5167,7 +5173,7 @@
         <v>219</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>83</v>
@@ -5176,7 +5182,7 @@
         <v>219</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>139</v>
@@ -5199,7 +5205,7 @@
         <v>221</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>84</v>
@@ -5208,7 +5214,7 @@
         <v>221</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>139</v>
@@ -5231,7 +5237,7 @@
         <v>222</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>85</v>
@@ -5240,7 +5246,7 @@
         <v>222</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J82" s="0" t="s">
         <v>139</v>
@@ -5263,7 +5269,7 @@
         <v>224</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>86</v>
@@ -5272,7 +5278,7 @@
         <v>224</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>139</v>
@@ -5295,7 +5301,7 @@
         <v>225</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>87</v>
@@ -5304,7 +5310,7 @@
         <v>225</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J84" s="0" t="s">
         <v>139</v>
@@ -5327,7 +5333,7 @@
         <v>226</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>88</v>
@@ -5336,7 +5342,7 @@
         <v>226</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J85" s="0" t="s">
         <v>139</v>
@@ -5359,7 +5365,7 @@
         <v>227</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>89</v>
@@ -5368,7 +5374,7 @@
         <v>227</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J86" s="0" t="s">
         <v>139</v>
@@ -5391,7 +5397,7 @@
         <v>228</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>90</v>
@@ -5400,7 +5406,7 @@
         <v>228</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J87" s="0" t="s">
         <v>139</v>
@@ -5423,7 +5429,7 @@
         <v>229</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>91</v>
@@ -5432,7 +5438,7 @@
         <v>229</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J88" s="0" t="s">
         <v>139</v>
@@ -5455,7 +5461,7 @@
         <v>230</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>92</v>
@@ -5464,7 +5470,7 @@
         <v>230</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J89" s="0" t="s">
         <v>118</v>
@@ -5484,7 +5490,7 @@
         <v>231</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>93</v>
@@ -5493,7 +5499,7 @@
         <v>231</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>118</v>
@@ -5513,7 +5519,7 @@
         <v>232</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>94</v>
@@ -5522,7 +5528,7 @@
         <v>232</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J91" s="0" t="s">
         <v>118</v>
@@ -5530,7 +5536,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>114</v>
@@ -5542,16 +5548,16 @@
         <v>233</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>233</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>118</v>
@@ -5559,50 +5565,50 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="supported_guest_os.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="b2c94ac52ef618490102103406d0ed0e4366a42b.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="supported_guest_os.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="b2c94ac52ef618490102103406d0ed0e4366a42b.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="whats_new.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf" r:id="rId7"/>
-    <hyperlink ref="F3" display="whats_new.md" r:id="rId8"/>
-    <hyperlink ref="G3" display="0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="walkthrough_compatibility.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="0291267af91e0eb2f2bcc068176fe822a7727df3.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="walkthrough_compatibility.md" r:id="rId12"/>
-    <hyperlink ref="G4" display="0291267af91e0eb2f2bcc068176fe822a7727df3.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="walkthrough_create_vm.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="0daa8871ae38daded4cd33ae5a526414dfe99a71.xlf" r:id="rId15"/>
-    <hyperlink ref="F5" display="walkthrough_create_vm.md" r:id="rId16"/>
-    <hyperlink ref="G5" display="0daa8871ae38daded4cd33ae5a526414dfe99a71.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="TOC.md" r:id="rId18"/>
-    <hyperlink ref="D6" display="9c6055c808ae6fdcf4578005b6f17fb5f15e436d.xlf" r:id="rId19"/>
-    <hyperlink ref="F6" display="TOC.md" r:id="rId20"/>
-    <hyperlink ref="G6" display="9c6055c808ae6fdcf4578005b6f17fb5f15e436d.xlf" r:id="rId21"/>
-    <hyperlink ref="A7" display="about_overview.md" r:id="rId22"/>
-    <hyperlink ref="D7" display="1cd230752f52bb9786821493df48c8a5a2a2f903.xlf" r:id="rId23"/>
-    <hyperlink ref="F7" display="about_overview.md" r:id="rId24"/>
-    <hyperlink ref="G7" display="1cd230752f52bb9786821493df48c8a5a2a2f903.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="containers_welcome.md" r:id="rId26"/>
-    <hyperlink ref="D8" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="F8" display="containers_welcome.md" r:id="rId28"/>
-    <hyperlink ref="G8" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="EULA.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId31"/>
-    <hyperlink ref="F9" display="EULA.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="manage_powershell.md" r:id="rId34"/>
-    <hyperlink ref="D10" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId35"/>
-    <hyperlink ref="F10" display="manage_powershell.md" r:id="rId36"/>
-    <hyperlink ref="G10" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="quickstart.md" r:id="rId38"/>
-    <hyperlink ref="D11" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId39"/>
-    <hyperlink ref="F11" display="quickstart.md" r:id="rId40"/>
-    <hyperlink ref="G11" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="community_overview.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf" r:id="rId43"/>
-    <hyperlink ref="F12" display="community_overview.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf" r:id="rId45"/>
+    <hyperlink ref="A2" display="community_overview.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="community_overview.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="supported_guest_os.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="b2c94ac52ef618490102103406d0ed0e4366a42b.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="supported_guest_os.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="b2c94ac52ef618490102103406d0ed0e4366a42b.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="whats_new.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="whats_new.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="0f9464f2f6084b3aa09bab39562c5a6644f2b26e.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="walkthrough_compatibility.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="0291267af91e0eb2f2bcc068176fe822a7727df3.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="walkthrough_compatibility.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="0291267af91e0eb2f2bcc068176fe822a7727df3.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="walkthrough_create_vm.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="0daa8871ae38daded4cd33ae5a526414dfe99a71.xlf" r:id="rId19"/>
+    <hyperlink ref="F6" display="walkthrough_create_vm.md" r:id="rId20"/>
+    <hyperlink ref="G6" display="0daa8871ae38daded4cd33ae5a526414dfe99a71.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="TOC.md" r:id="rId22"/>
+    <hyperlink ref="D7" display="9c6055c808ae6fdcf4578005b6f17fb5f15e436d.xlf" r:id="rId23"/>
+    <hyperlink ref="F7" display="TOC.md" r:id="rId24"/>
+    <hyperlink ref="G7" display="9c6055c808ae6fdcf4578005b6f17fb5f15e436d.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="about_overview.md" r:id="rId26"/>
+    <hyperlink ref="D8" display="1cd230752f52bb9786821493df48c8a5a2a2f903.xlf" r:id="rId27"/>
+    <hyperlink ref="F8" display="about_overview.md" r:id="rId28"/>
+    <hyperlink ref="G8" display="1cd230752f52bb9786821493df48c8a5a2a2f903.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="containers_welcome.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="containers_welcome.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.de-de.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="EULA.md" r:id="rId34"/>
+    <hyperlink ref="D10" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="EULA.md" r:id="rId36"/>
+    <hyperlink ref="G10" display="7640a837f02d2e4f4bcc6bc9ca66b5a5c37eef32.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="manage_powershell.md" r:id="rId38"/>
+    <hyperlink ref="D11" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="manage_powershell.md" r:id="rId40"/>
+    <hyperlink ref="G11" display="2f9c7f95a4e72adc022197ab57bc701ad4ba9e4a.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="quickstart.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="quickstart.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="8c1510a894cbdfdb23c23ecdeeeedb2197e43c63.xlf" r:id="rId45"/>
     <hyperlink ref="A13" display="TOC.md" r:id="rId46"/>
     <hyperlink ref="D13" display="d95757903564f8beea62ad4d2977764d431eeeb8.xlf" r:id="rId47"/>
     <hyperlink ref="F13" display="TOC.md" r:id="rId48"/>
@@ -6061,7 +6067,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>114</v>
@@ -6076,7 +6082,7 @@
         <v>235</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>234</v>
@@ -6148,7 +6154,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>114</v>
@@ -6163,7 +6169,7 @@
         <v>235</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>239</v>
@@ -6177,7 +6183,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>114</v>
@@ -6192,7 +6198,7 @@
         <v>235</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>240</v>
@@ -6293,28 +6299,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>114</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>244</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>118</v>
@@ -6322,7 +6328,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>114</v>
@@ -6331,19 +6337,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>118</v>
@@ -6351,7 +6357,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>114</v>
@@ -6360,19 +6366,19 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>118</v>
@@ -6380,7 +6386,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>114</v>
@@ -6389,19 +6395,19 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>118</v>
@@ -6409,7 +6415,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>114</v>
@@ -6421,16 +6427,16 @@
         <v>252</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>252</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>118</v>
@@ -6438,7 +6444,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>114</v>
@@ -6450,16 +6456,16 @@
         <v>253</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>253</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>118</v>
@@ -6467,7 +6473,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>114</v>
@@ -6482,7 +6488,7 @@
         <v>235</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>254</v>
@@ -6557,7 +6563,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>114</v>
@@ -6572,7 +6578,7 @@
         <v>235</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>256</v>
@@ -6586,7 +6592,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>114</v>
@@ -6601,7 +6607,7 @@
         <v>235</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>257</v>
@@ -8260,7 +8266,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>114</v>
@@ -8275,7 +8281,7 @@
         <v>235</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>275</v>
@@ -8995,7 +9001,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>114</v>
@@ -9010,7 +9016,7 @@
         <v>235</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>286</v>
@@ -9024,62 +9030,62 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="walkthrough_compatibility.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="walkthrough_compatibility.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="walkthrough_create_vm.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf" r:id="rId7"/>
-    <hyperlink ref="F3" display="walkthrough_create_vm.md" r:id="rId8"/>
-    <hyperlink ref="G3" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="TOC.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="TOC.md" r:id="rId12"/>
-    <hyperlink ref="G4" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="windows_welcome1.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf" r:id="rId15"/>
-    <hyperlink ref="F5" display="windows_welcome1.md" r:id="rId16"/>
-    <hyperlink ref="G5" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="containers_welcome.md" r:id="rId18"/>
-    <hyperlink ref="D6" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId19"/>
-    <hyperlink ref="F6" display="containers_welcome.md" r:id="rId20"/>
-    <hyperlink ref="G6" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId21"/>
-    <hyperlink ref="A7" display="EULA.md" r:id="rId22"/>
-    <hyperlink ref="D7" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId23"/>
-    <hyperlink ref="F7" display="EULA.md" r:id="rId24"/>
-    <hyperlink ref="G7" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="manage_powershell.md" r:id="rId26"/>
-    <hyperlink ref="D8" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId27"/>
-    <hyperlink ref="F8" display="manage_powershell.md" r:id="rId28"/>
-    <hyperlink ref="G8" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="quickstart.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId31"/>
-    <hyperlink ref="F9" display="quickstart.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="active-directory-aadconnect.md" r:id="rId34"/>
-    <hyperlink ref="D10" display="active-directory-aadconnect.8446e70ee9abffa2ced64b3bd510a9d01a62f20c.zh-tw.xlf" r:id="rId35"/>
-    <hyperlink ref="F10" display="active-directory-aadconnect.md" r:id="rId36"/>
-    <hyperlink ref="G10" display="active-directory-aadconnect.8446e70ee9abffa2ced64b3bd510a9d01a62f20c.zh-tw.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="active-directory-aadconnectsync-best-practices-changing-default-configuration.md" r:id="rId38"/>
-    <hyperlink ref="D11" display="active-directory-aadconnectsync-best-practices-changing-default-c.76e5a18fbd5ec4708c7889a0dbdb07a78444b772.zh-tw.xlf" r:id="rId39"/>
-    <hyperlink ref="F11" display="active-directory-aadconnectsync-best-practices-changing-default-configuration.md" r:id="rId40"/>
-    <hyperlink ref="G11" display="active-directory-aadconnectsync-best-practices-changing-default-c.76e5a18fbd5ec4708c7889a0dbdb07a78444b772.zh-tw.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="active-directory-conditional-access-automatic-device-registration-windows7.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="active-directory-conditional-access-automatic-device-registration.3a2702a21a289648c1a66c1b5a9bba3ec492386a.zh-tw.xlf" r:id="rId43"/>
-    <hyperlink ref="F12" display="active-directory-conditional-access-automatic-device-registration-windows7.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="active-directory-conditional-access-automatic-device-registration.3a2702a21a289648c1a66c1b5a9bba3ec492386a.zh-tw.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="active-directory-conditional-access-automatic-device-registration-windows8_1.md" r:id="rId46"/>
-    <hyperlink ref="D13" display="active-directory-conditional-access-automatic-device-registration.ee780f8ec6e7d7c63854729d90abd4407231b15a.zh-tw.xlf" r:id="rId47"/>
-    <hyperlink ref="F13" display="active-directory-conditional-access-automatic-device-registration-windows8_1.md" r:id="rId48"/>
-    <hyperlink ref="G13" display="active-directory-conditional-access-automatic-device-registration.ee780f8ec6e7d7c63854729d90abd4407231b15a.zh-tw.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="active-directory-conditional-access-automatic-device-registration.md" r:id="rId50"/>
-    <hyperlink ref="D14" display="active-directory-conditional-access-automatic-device-registration.48bc182f8032cfe981849fdeaf5f14f6c4d75ad5.zh-tw.xlf" r:id="rId51"/>
-    <hyperlink ref="F14" display="active-directory-conditional-access-automatic-device-registration.md" r:id="rId52"/>
-    <hyperlink ref="G14" display="active-directory-conditional-access-automatic-device-registration.48bc182f8032cfe981849fdeaf5f14f6c4d75ad5.zh-tw.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="community_overview.md" r:id="rId54"/>
-    <hyperlink ref="D15" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf" r:id="rId55"/>
-    <hyperlink ref="F15" display="community_overview.md" r:id="rId56"/>
-    <hyperlink ref="G15" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf" r:id="rId57"/>
+    <hyperlink ref="A2" display="community_overview.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="community_overview.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="community_overview.4d3cb46b3cb0b5d520b8240070543e6c2549b923.zh-tw.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="walkthrough_compatibility.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="walkthrough_compatibility.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="walkthrough_compatibility.b81630a3813897e1115f050cb3fb67a3db007cf8.zh-tw.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="walkthrough_create_vm.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="walkthrough_create_vm.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="walkthrough_create_vm.698a46fb78fa92b3f275f4115d4b77072fff0ed6.zh-tw.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="TOC.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="TOC.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="TOC.dc6d280c11d16ece7fbc1f22991c5fc34412dd1a.zh-tw.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="windows_welcome1.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf" r:id="rId19"/>
+    <hyperlink ref="F6" display="windows_welcome1.md" r:id="rId20"/>
+    <hyperlink ref="G6" display="windows_welcome1.1eec8547e8270740cdb6073b648778b04421e23a.zh-tw.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="containers_welcome.md" r:id="rId22"/>
+    <hyperlink ref="D7" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId23"/>
+    <hyperlink ref="F7" display="containers_welcome.md" r:id="rId24"/>
+    <hyperlink ref="G7" display="containers_welcome.2c85b1345b8dfcc523a3848ed7661e25d5ffbb17.zh-tw.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="EULA.md" r:id="rId26"/>
+    <hyperlink ref="D8" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId27"/>
+    <hyperlink ref="F8" display="EULA.md" r:id="rId28"/>
+    <hyperlink ref="G8" display="EULA.0ba9560e121100b89b5825e4c97105b9c4695644.zh-tw.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="manage_powershell.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="manage_powershell.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="manage_powershell.fccfd13be3f4bd16afbe4f31a5ca5ed4e93806b7.zh-tw.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="quickstart.md" r:id="rId34"/>
+    <hyperlink ref="D10" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="quickstart.md" r:id="rId36"/>
+    <hyperlink ref="G10" display="quickstart.162635dd9e091e7f54e55d5a354f09231e2393d5.zh-tw.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="active-directory-aadconnect.md" r:id="rId38"/>
+    <hyperlink ref="D11" display="active-directory-aadconnect.8446e70ee9abffa2ced64b3bd510a9d01a62f20c.zh-tw.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="active-directory-aadconnect.md" r:id="rId40"/>
+    <hyperlink ref="G11" display="active-directory-aadconnect.8446e70ee9abffa2ced64b3bd510a9d01a62f20c.zh-tw.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="active-directory-aadconnectsync-best-practices-changing-default-configuration.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="active-directory-aadconnectsync-best-practices-changing-default-c.76e5a18fbd5ec4708c7889a0dbdb07a78444b772.zh-tw.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="active-directory-aadconnectsync-best-practices-changing-default-configuration.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="active-directory-aadconnectsync-best-practices-changing-default-c.76e5a18fbd5ec4708c7889a0dbdb07a78444b772.zh-tw.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="active-directory-conditional-access-automatic-device-registration-windows7.md" r:id="rId46"/>
+    <hyperlink ref="D13" display="active-directory-conditional-access-automatic-device-registration.3a2702a21a289648c1a66c1b5a9bba3ec492386a.zh-tw.xlf" r:id="rId47"/>
+    <hyperlink ref="F13" display="active-directory-conditional-access-automatic-device-registration-windows7.md" r:id="rId48"/>
+    <hyperlink ref="G13" display="active-directory-conditional-access-automatic-device-registration.3a2702a21a289648c1a66c1b5a9bba3ec492386a.zh-tw.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="active-directory-conditional-access-automatic-device-registration-windows8_1.md" r:id="rId50"/>
+    <hyperlink ref="D14" display="active-directory-conditional-access-automatic-device-registration.ee780f8ec6e7d7c63854729d90abd4407231b15a.zh-tw.xlf" r:id="rId51"/>
+    <hyperlink ref="F14" display="active-directory-conditional-access-automatic-device-registration-windows8_1.md" r:id="rId52"/>
+    <hyperlink ref="G14" display="active-directory-conditional-access-automatic-device-registration.ee780f8ec6e7d7c63854729d90abd4407231b15a.zh-tw.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="active-directory-conditional-access-automatic-device-registration.md" r:id="rId54"/>
+    <hyperlink ref="D15" display="active-directory-conditional-access-automatic-device-registration.48bc182f8032cfe981849fdeaf5f14f6c4d75ad5.zh-tw.xlf" r:id="rId55"/>
+    <hyperlink ref="F15" display="active-directory-conditional-access-automatic-device-registration.md" r:id="rId56"/>
+    <hyperlink ref="G15" display="active-directory-conditional-access-automatic-device-registration.48bc182f8032cfe981849fdeaf5f14f6c4d75ad5.zh-tw.xlf" r:id="rId57"/>
     <hyperlink ref="A16" display="TOC.md" r:id="rId58"/>
     <hyperlink ref="D16" display="TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.zh-tw.xlf" r:id="rId59"/>
     <hyperlink ref="F16" display="TOC.md" r:id="rId60"/>
@@ -9482,7 +9488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>114</v>
@@ -9497,7 +9503,7 @@
         <v>288</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>287</v>
@@ -9511,7 +9517,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>114</v>
@@ -9526,7 +9532,7 @@
         <v>288</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>290</v>
@@ -9540,7 +9546,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>114</v>
@@ -9555,7 +9561,7 @@
         <v>292</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>291</v>
@@ -9598,7 +9604,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>114</v>
@@ -9613,7 +9619,7 @@
         <v>292</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>295</v>
@@ -9627,7 +9633,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>114</v>
@@ -9642,7 +9648,7 @@
         <v>288</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>296</v>
@@ -9656,7 +9662,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>114</v>
@@ -9671,7 +9677,7 @@
         <v>288</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>297</v>
@@ -9685,7 +9691,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>114</v>
@@ -9700,7 +9706,7 @@
         <v>288</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>298</v>
@@ -9714,7 +9720,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>114</v>
@@ -9726,16 +9732,16 @@
         <v>299</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>299</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>118</v>
@@ -9743,7 +9749,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>114</v>
@@ -9752,16 +9758,16 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>289</v>
@@ -9781,7 +9787,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>288</v>
@@ -9790,7 +9796,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>289</v>
@@ -9813,7 +9819,7 @@
         <v>138</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>18</v>
@@ -9833,7 +9839,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>114</v>
@@ -9842,16 +9848,16 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>289</v>
@@ -9862,7 +9868,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>114</v>
@@ -9871,16 +9877,16 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>289</v>
@@ -9900,7 +9906,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>288</v>
@@ -9909,7 +9915,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>289</v>
@@ -9929,7 +9935,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>288</v>
@@ -9938,7 +9944,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>289</v>
@@ -9961,7 +9967,7 @@
         <v>143</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>21</v>
@@ -9993,7 +9999,7 @@
         <v>145</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>22</v>
@@ -10025,7 +10031,7 @@
         <v>147</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>23</v>
@@ -10057,7 +10063,7 @@
         <v>148</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>24</v>
@@ -10089,7 +10095,7 @@
         <v>150</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>25</v>
@@ -10121,7 +10127,7 @@
         <v>151</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>26</v>
@@ -10153,7 +10159,7 @@
         <v>152</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>27</v>
@@ -10185,7 +10191,7 @@
         <v>154</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>28</v>
@@ -10217,7 +10223,7 @@
         <v>156</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>29</v>
@@ -10249,7 +10255,7 @@
         <v>157</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>30</v>
@@ -10281,7 +10287,7 @@
         <v>158</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>31</v>
@@ -10313,7 +10319,7 @@
         <v>159</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>32</v>
@@ -10345,7 +10351,7 @@
         <v>160</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>33</v>
@@ -10377,7 +10383,7 @@
         <v>161</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>34</v>
@@ -10409,7 +10415,7 @@
         <v>162</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>35</v>
@@ -10441,7 +10447,7 @@
         <v>163</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>36</v>
@@ -10473,7 +10479,7 @@
         <v>164</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>37</v>
@@ -10505,7 +10511,7 @@
         <v>166</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>38</v>
@@ -10537,7 +10543,7 @@
         <v>168</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>39</v>
@@ -10569,7 +10575,7 @@
         <v>169</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>40</v>
@@ -10601,7 +10607,7 @@
         <v>170</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>41</v>
@@ -10633,7 +10639,7 @@
         <v>171</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>42</v>
@@ -10665,7 +10671,7 @@
         <v>172</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>43</v>
@@ -10697,7 +10703,7 @@
         <v>173</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>44</v>
@@ -10729,7 +10735,7 @@
         <v>174</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>45</v>
@@ -10761,7 +10767,7 @@
         <v>175</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>46</v>
@@ -10793,7 +10799,7 @@
         <v>176</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>47</v>
@@ -10825,7 +10831,7 @@
         <v>177</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>48</v>
@@ -10857,7 +10863,7 @@
         <v>178</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>49</v>
@@ -10889,7 +10895,7 @@
         <v>179</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>50</v>
@@ -10921,7 +10927,7 @@
         <v>180</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>51</v>
@@ -10953,7 +10959,7 @@
         <v>181</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>52</v>
@@ -10985,7 +10991,7 @@
         <v>182</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>53</v>
@@ -11017,7 +11023,7 @@
         <v>183</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>54</v>
@@ -11049,7 +11055,7 @@
         <v>185</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>55</v>
@@ -11078,7 +11084,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>288</v>
@@ -11087,7 +11093,7 @@
         <v>56</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>289</v>
@@ -11107,7 +11113,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>288</v>
@@ -11116,7 +11122,7 @@
         <v>57</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>289</v>
@@ -11136,7 +11142,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>288</v>
@@ -11145,7 +11151,7 @@
         <v>58</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>289</v>
@@ -11165,7 +11171,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>288</v>
@@ -11174,7 +11180,7 @@
         <v>59</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>289</v>
@@ -11194,7 +11200,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>288</v>
@@ -11203,7 +11209,7 @@
         <v>60</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>289</v>
@@ -11223,7 +11229,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>288</v>
@@ -11232,7 +11238,7 @@
         <v>61</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>289</v>
@@ -11252,7 +11258,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>288</v>
@@ -11261,7 +11267,7 @@
         <v>62</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>289</v>
@@ -11281,7 +11287,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>288</v>
@@ -11290,7 +11296,7 @@
         <v>63</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>289</v>
@@ -11310,7 +11316,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>288</v>
@@ -11319,7 +11325,7 @@
         <v>64</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>289</v>
@@ -11339,7 +11345,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>288</v>
@@ -11348,7 +11354,7 @@
         <v>65</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>289</v>
@@ -11371,7 +11377,7 @@
         <v>195</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>66</v>
@@ -11400,7 +11406,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>288</v>
@@ -11409,7 +11415,7 @@
         <v>67</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>289</v>
@@ -11429,7 +11435,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>288</v>
@@ -11438,7 +11444,7 @@
         <v>68</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>289</v>
@@ -11458,7 +11464,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>288</v>
@@ -11467,7 +11473,7 @@
         <v>69</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>289</v>
@@ -11487,7 +11493,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>288</v>
@@ -11496,7 +11502,7 @@
         <v>70</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>289</v>
@@ -11516,7 +11522,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>288</v>
@@ -11525,7 +11531,7 @@
         <v>71</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>289</v>
@@ -11536,7 +11542,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>114</v>
@@ -11545,16 +11551,16 @@
         <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>289</v>
@@ -11574,7 +11580,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>288</v>
@@ -11583,7 +11589,7 @@
         <v>72</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>289</v>
@@ -11603,7 +11609,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>288</v>
@@ -11612,7 +11618,7 @@
         <v>73</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>289</v>
@@ -11635,7 +11641,7 @@
         <v>204</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>74</v>
@@ -11667,7 +11673,7 @@
         <v>206</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>75</v>
@@ -11696,7 +11702,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>288</v>
@@ -11705,7 +11711,7 @@
         <v>76</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>289</v>
@@ -11725,7 +11731,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>288</v>
@@ -11734,7 +11740,7 @@
         <v>77</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>289</v>
@@ -11754,7 +11760,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>288</v>
@@ -11763,7 +11769,7 @@
         <v>78</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>289</v>
@@ -11783,7 +11789,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>288</v>
@@ -11792,7 +11798,7 @@
         <v>79</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>289</v>
@@ -11812,7 +11818,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>288</v>
@@ -11821,7 +11827,7 @@
         <v>80</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>289</v>
@@ -11844,7 +11850,7 @@
         <v>215</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>81</v>
@@ -11876,7 +11882,7 @@
         <v>217</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>82</v>
@@ -11908,7 +11914,7 @@
         <v>219</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>83</v>
@@ -11940,7 +11946,7 @@
         <v>221</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>84</v>
@@ -11972,7 +11978,7 @@
         <v>222</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>85</v>
@@ -12004,7 +12010,7 @@
         <v>224</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>86</v>
@@ -12036,7 +12042,7 @@
         <v>225</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>87</v>
@@ -12068,7 +12074,7 @@
         <v>226</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>88</v>
@@ -12100,7 +12106,7 @@
         <v>227</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>89</v>
@@ -12132,7 +12138,7 @@
         <v>228</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>90</v>
@@ -12164,7 +12170,7 @@
         <v>229</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>91</v>
@@ -12193,7 +12199,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>288</v>
@@ -12202,7 +12208,7 @@
         <v>92</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>289</v>
@@ -12222,7 +12228,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>288</v>
@@ -12231,7 +12237,7 @@
         <v>93</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>289</v>
@@ -12251,7 +12257,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>288</v>
@@ -12260,7 +12266,7 @@
         <v>94</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>289</v>
@@ -12271,7 +12277,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>114</v>
@@ -12280,16 +12286,16 @@
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>289</v>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
@@ -3114,7 +3114,7 @@
     <t>active-directory-aadconnectsync-implement-password-synchronization.105a1039cb558e9bd50c37fa5597b0fedcbe54b2.zh-tw.xlf</t>
   </si>
   <si>
-    <t>2016-04-05 08:17:29</t>
+    <t>2016-04-05 08:27:06</t>
   </si>
   <si>
     <t>active-directory-aadconnectsync-operations.4cca229c8b60df4d97a8b30520580381f1e95777.zh-tw.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
@@ -15,20 +15,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
     <t>es-es</t>
   </si>
   <si>
+    <t>Latest Handoff Date</t>
+  </si>
+  <si>
     <t>backup-azure-backup-cloud-as-tape.md</t>
   </si>
   <si>
+    <t>.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2016-04-13 05:21:46</t>
+  </si>
+  <si>
     <t>backup-azure-backup-exchange-server.md</t>
   </si>
   <si>
@@ -107,6 +119,15 @@
     <t>backup-try-azure-backup-in-10-mins.md</t>
   </si>
   <si>
+    <t>prereq-screen2.png</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>2016-04-13 06:01:42</t>
+  </si>
+  <si>
     <t>rs-vault-attributes.png</t>
   </si>
   <si>
@@ -203,7 +224,7 @@
     <t>Reference Tokens</t>
   </si>
   <si>
-    <t>Handoff Reason</t>
+    <t>To be localized</t>
   </si>
   <si>
     <t>Dependency From</t>
@@ -212,19 +233,16 @@
     <t>Error Detail</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>backup-azure-backup-cloud-as-tape.863f64b956fc7ada5c5954a4395ee7b8769f2c8e.es-es.xlf</t>
   </si>
   <si>
-    <t>2016-04-13 05:21:46</t>
-  </si>
-  <si>
     <t>2016-04-19 21:36:18</t>
   </si>
   <si>
-    <t>Include</t>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
   </si>
   <si>
     <t>backup-azure-backup-exchange-server.08d5b373e807c145886bf8eccc0f0088c08ca638.es-es.xlf</t>
@@ -251,9 +269,7 @@
     <t>backup-azure-dpm-introduction.551e99120ea0a2d4b6ff992b180bafd9ecf2a6d6.es-es.xlf</t>
   </si>
   <si>
-    <t>Acom\includes\backup-create-vault.md,
-Acom\includes\backup-download-credentials.md,
-Acom\includes\backup-install-agent.md</t>
+    <t>Acom\includes\backup-create-vault.md,Acom\includes\backup-download-credentials.md,Acom\includes\backup-install-agent.md</t>
   </si>
   <si>
     <t>backup-azure-manage-vms.b3636c100af859dc00469a98aea5c8d60de45514.es-es.xlf</t>
@@ -313,16 +329,19 @@
     <t>backup-try-azure-backup-in-10-mins.6a21824a3747781599c406acc538f8348f4dc03f.es-es.xlf</t>
   </si>
   <si>
-    <t>.png</t>
+    <t>2a083198705d38c37f3b7fbc37965ab6278902cb.png</t>
+  </si>
+  <si>
+    <t>2016-04-20 10:21:23</t>
+  </si>
+  <si>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
+    <t>Acom\articles\backup\backup-azure-microsoft-azure-backup.md</t>
   </si>
   <si>
     <t>b8181dee84738bf982cc86328bd201c251413e1f.png</t>
-  </si>
-  <si>
-    <t>2016-04-13 06:01:42</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
   </si>
   <si>
     <t>Acom\articles\backup\backup-azure-vms-first-look-arm.md</t>
@@ -465,7 +484,7 @@
     <tableColumn id="7" name="Correspond Handback File"/>
     <tableColumn id="8" name="Correspond Handback DateTime"/>
     <tableColumn id="9" name="Reference Tokens"/>
-    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="10" name="To be localized"/>
     <tableColumn id="11" name="Dependency From"/>
     <tableColumn id="12" name="Error Detail"/>
   </tableColumns>
@@ -474,8 +493,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="es-es" displayName="es_es" ref="A1:L51" headerRowCount="1">
-  <autoFilter ref="A1:L51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="es-es" displayName="es_es" ref="A1:L52" headerRowCount="1">
+  <autoFilter ref="A1:L52"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -486,7 +505,7 @@
     <tableColumn id="7" name="Correspond Handback File"/>
     <tableColumn id="8" name="Correspond Handback DateTime"/>
     <tableColumn id="9" name="Reference Tokens"/>
-    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="10" name="To be localized"/>
     <tableColumn id="11" name="Dependency From"/>
     <tableColumn id="12" name="Error Detail"/>
   </tableColumns>
@@ -506,7 +525,7 @@
     <tableColumn id="7" name="Correspond Handback File"/>
     <tableColumn id="8" name="Correspond Handback DateTime"/>
     <tableColumn id="9" name="Reference Tokens"/>
-    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="10" name="To be localized"/>
     <tableColumn id="11" name="Dependency From"/>
     <tableColumn id="12" name="Error Detail"/>
   </tableColumns>
@@ -515,11 +534,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:B51" headerRowCount="1">
-  <autoFilter ref="A1:B51"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:D52" headerRowCount="1">
+  <autoFilter ref="A1:D52"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="es-es"/>
+    <tableColumn id="2" name="Extension"/>
+    <tableColumn id="3" name="es-es"/>
+    <tableColumn id="4" name="Latest Handoff Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -527,14 +548,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="12.1930160522461" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="4" max="4" width="21.2031533377511" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -544,405 +567,725 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -974,29 +1317,30 @@
     <hyperlink ref="A26" display="backup-dpm-automation.md" r:id="rId26"/>
     <hyperlink ref="A27" display="backup-introduction-to-azure-backup.md" r:id="rId27"/>
     <hyperlink ref="A28" display="backup-try-azure-backup-in-10-mins.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="rs-vault-attributes.png" r:id="rId29"/>
-    <hyperlink ref="A30" display="batch-account-create-portal.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="batch-api-basics.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="batch-application-packages.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="batch-automatic-scaling.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="batch-dotnet-get-started.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="batch-efficient-list-queries.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="batch-hpc-solutions.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="batch-job-prep-release.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="batch-management-dotnet.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="batch-mpi.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="batch-parallel-node-tasks.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="batch-powershell-cmdlets-get-started.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="batch-quota-limit.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="batch-technical-overview.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="big-compute-resources.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="app_pkg_03.png" r:id="rId45"/>
-    <hyperlink ref="A46" display="cloud-services-python-ptvs.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="backup-create-vault-for-vms.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="backup-create-vault-wgif.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="backup-create-vault.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="backup-download-credentials.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="backup-install-agent.md" r:id="rId51"/>
+    <hyperlink ref="A29" display="prereq-screen2.png" r:id="rId29"/>
+    <hyperlink ref="A30" display="rs-vault-attributes.png" r:id="rId30"/>
+    <hyperlink ref="A31" display="batch-account-create-portal.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="batch-api-basics.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="batch-application-packages.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="batch-automatic-scaling.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="batch-dotnet-get-started.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="batch-efficient-list-queries.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="batch-hpc-solutions.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="batch-job-prep-release.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="batch-management-dotnet.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="batch-mpi.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="batch-parallel-node-tasks.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="batch-powershell-cmdlets-get-started.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="batch-quota-limit.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="batch-technical-overview.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="big-compute-resources.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="app_pkg_03.png" r:id="rId46"/>
+    <hyperlink ref="A47" display="cloud-services-python-ptvs.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="backup-create-vault-for-vms.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="backup-create-vault-wgif.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="backup-create-vault.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="backup-download-credentials.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="backup-install-agent.md" r:id="rId52"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1013,56 +1357,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="1" max="1" width="16.6706946236747" customWidth="1"/>
+    <col min="2" max="2" width="13.4869144984654" customWidth="1"/>
+    <col min="3" max="3" width="6.86154392787388" customWidth="1"/>
+    <col min="4" max="4" width="22.7937404087612" customWidth="1"/>
+    <col min="5" max="5" width="27.9131600516183" customWidth="1"/>
+    <col min="6" max="6" width="10.6069859095982" customWidth="1"/>
+    <col min="7" max="7" width="24.398930140904" customWidth="1"/>
+    <col min="8" max="8" width="29.8467516217913" customWidth="1"/>
+    <col min="9" max="9" width="17.048205784389" customWidth="1"/>
+    <col min="10" max="10" width="14.4148352486747" customWidth="1"/>
+    <col min="11" max="11" width="17.4799390520368" customWidth="1"/>
+    <col min="12" max="12" width="11.4970528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1075,1734 +1419,2106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="30.1631600516183" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="32.0967516217913" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="17.7080830165318" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>4</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>68</v>
+      <c r="I5" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>74</v>
+        <v>11</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>17</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>6</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>6</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>85</v>
+        <v>21</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>6</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>23</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>24</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>25</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>6</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>90</v>
+        <v>26</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>91</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>92</v>
+        <v>28</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>93</v>
+        <v>29</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>6</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>97</v>
+        <v>6</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>97</v>
+        <v>33</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>99</v>
+        <v>6</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>72</v>
+        <v>105</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>103</v>
+        <v>6</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>69</v>
+        <v>106</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>104</v>
+        <v>6</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>110</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>110</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>108</v>
+        <v>6</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>109</v>
+        <v>43</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>6</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>110</v>
+        <v>44</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>111</v>
+        <v>45</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>6</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>112</v>
+        <v>46</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>113</v>
+        <v>6</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>113</v>
+        <v>47</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>114</v>
+        <v>6</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>6</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>115</v>
+        <v>49</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>116</v>
+        <v>6</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>116</v>
+        <v>50</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>117</v>
+        <v>6</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>117</v>
+        <v>51</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>118</v>
+        <v>52</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>119</v>
+        <v>74</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>120</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>120</v>
+        <v>53</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>69</v>
+        <v>106</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>121</v>
+        <v>6</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>121</v>
+        <v>54</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>122</v>
+        <v>6</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>123</v>
+        <v>6</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>123</v>
+        <v>56</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>125</v>
+        <v>6</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>125</v>
+        <v>57</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>126</v>
+        <v>6</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>126</v>
+        <v>58</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="backup-azure-backup-cloud-as-tape.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="backup-azure-backup-cloud-as-tape.863f64b956fc7ada5c5954a4395ee7b8769f2c8e.es-es.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="backup-azure-backup-cloud-as-tape.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="backup-azure-backup-cloud-as-tape.863f64b956fc7ada5c5954a4395ee7b8769f2c8e.es-es.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="backup-azure-backup-exchange-server.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="backup-azure-backup-exchange-server.08d5b373e807c145886bf8eccc0f0088c08ca638.es-es.xlf" r:id="rId7"/>
-    <hyperlink ref="F3" display="backup-azure-backup-exchange-server.md" r:id="rId8"/>
-    <hyperlink ref="G3" display="backup-azure-backup-exchange-server.08d5b373e807c145886bf8eccc0f0088c08ca638.es-es.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="backup-azure-backup-ibiza-faq.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="backup-azure-backup-ibiza-faq.4d57f916a89dceb35d677122fb6c5f71a592b0c5.es-es.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="backup-azure-backup-ibiza-faq.md" r:id="rId12"/>
-    <hyperlink ref="G4" display="backup-azure-backup-ibiza-faq.4d57f916a89dceb35d677122fb6c5f71a592b0c5.es-es.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="backup-azure-backup-import-export.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="backup-azure-backup-import-export.8bef4bd450d2f924e000c767c2435558d59bb903.es-es.xlf" r:id="rId15"/>
-    <hyperlink ref="F5" display="backup-azure-backup-import-export.md" r:id="rId16"/>
-    <hyperlink ref="G5" display="backup-azure-backup-import-export.8bef4bd450d2f924e000c767c2435558d59bb903.es-es.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="backup-azure-backup-sharepoint.md" r:id="rId18"/>
-    <hyperlink ref="D6" display="backup-azure-backup-sharepoint.776965a4d1da606427ea69fb7c9ef46c774cfb2f.es-es.xlf" r:id="rId19"/>
-    <hyperlink ref="F6" display="backup-azure-backup-sharepoint.md" r:id="rId20"/>
-    <hyperlink ref="G6" display="backup-azure-backup-sharepoint.776965a4d1da606427ea69fb7c9ef46c774cfb2f.es-es.xlf" r:id="rId21"/>
-    <hyperlink ref="A7" display="backup-azure-backup-sql.md" r:id="rId22"/>
-    <hyperlink ref="D7" display="backup-azure-backup-sql.ba59a312eeb6529670e18434fd672ba22ebf3c46.es-es.xlf" r:id="rId23"/>
-    <hyperlink ref="F7" display="backup-azure-backup-sql.md" r:id="rId24"/>
-    <hyperlink ref="G7" display="backup-azure-backup-sql.ba59a312eeb6529670e18434fd672ba22ebf3c46.es-es.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="backup-azure-backup-windows-server.md" r:id="rId26"/>
-    <hyperlink ref="D8" display="backup-azure-backup-windows-server.58a1e4569176843add8b65b7265127723f0b7e70.es-es.xlf" r:id="rId27"/>
-    <hyperlink ref="F8" display="backup-azure-backup-windows-server.md" r:id="rId28"/>
-    <hyperlink ref="G8" display="backup-azure-backup-windows-server.58a1e4569176843add8b65b7265127723f0b7e70.es-es.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="backup-azure-dpm-introduction.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="backup-azure-dpm-introduction.551e99120ea0a2d4b6ff992b180bafd9ecf2a6d6.es-es.xlf" r:id="rId31"/>
-    <hyperlink ref="F9" display="backup-azure-dpm-introduction.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="backup-azure-dpm-introduction.551e99120ea0a2d4b6ff992b180bafd9ecf2a6d6.es-es.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="backup-azure-manage-vms.md" r:id="rId34"/>
-    <hyperlink ref="D10" display="backup-azure-manage-vms.b3636c100af859dc00469a98aea5c8d60de45514.es-es.xlf" r:id="rId35"/>
-    <hyperlink ref="F10" display="backup-azure-manage-vms.md" r:id="rId36"/>
-    <hyperlink ref="G10" display="backup-azure-manage-vms.b3636c100af859dc00469a98aea5c8d60de45514.es-es.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="backup-azure-manage-windows-server.md" r:id="rId38"/>
-    <hyperlink ref="D11" display="backup-azure-manage-windows-server.7eaa258d356177aa4bc9bbd43e64fc8c6701bb2e.es-es.xlf" r:id="rId39"/>
-    <hyperlink ref="F11" display="backup-azure-manage-windows-server.md" r:id="rId40"/>
-    <hyperlink ref="G11" display="backup-azure-manage-windows-server.7eaa258d356177aa4bc9bbd43e64fc8c6701bb2e.es-es.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="backup-azure-microsoft-azure-backup.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="backup-azure-microsoft-azure-backup.1dc88b163b963cd66497a451ff127d062f9a2977.es-es.xlf" r:id="rId43"/>
-    <hyperlink ref="F12" display="backup-azure-microsoft-azure-backup.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="backup-azure-microsoft-azure-backup.1dc88b163b963cd66497a451ff127d062f9a2977.es-es.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="backup-azure-restore-vms.md" r:id="rId46"/>
-    <hyperlink ref="D13" display="backup-azure-restore-vms.52cc8ee1bce2665631dfe9805654ab96831585bf.es-es.xlf" r:id="rId47"/>
-    <hyperlink ref="F13" display="backup-azure-restore-vms.md" r:id="rId48"/>
-    <hyperlink ref="G13" display="backup-azure-restore-vms.52cc8ee1bce2665631dfe9805654ab96831585bf.es-es.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="backup-azure-restore-windows-server.md" r:id="rId50"/>
-    <hyperlink ref="D14" display="backup-azure-restore-windows-server.a143553e691a2d03ed7a0021af1bab61ec0e1de8.es-es.xlf" r:id="rId51"/>
-    <hyperlink ref="F14" display="backup-azure-restore-windows-server.md" r:id="rId52"/>
-    <hyperlink ref="G14" display="backup-azure-restore-windows-server.a143553e691a2d03ed7a0021af1bab61ec0e1de8.es-es.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="backup-azure-storage-redundancy-options.md" r:id="rId54"/>
-    <hyperlink ref="D15" display="backup-azure-storage-redundancy-options.91cda415e01e1df4c44c9bf0d171d01fbc9a9c74.es-es.xlf" r:id="rId55"/>
-    <hyperlink ref="F15" display="backup-azure-storage-redundancy-options.md" r:id="rId56"/>
-    <hyperlink ref="G15" display="backup-azure-storage-redundancy-options.91cda415e01e1df4c44c9bf0d171d01fbc9a9c74.es-es.xlf" r:id="rId57"/>
-    <hyperlink ref="A16" display="backup-azure-vms-automation.md" r:id="rId58"/>
-    <hyperlink ref="D16" display="backup-azure-vms-automation.d0d4dc397e5bf9dc6645044c8761b9bc461e83eb.es-es.xlf" r:id="rId59"/>
-    <hyperlink ref="F16" display="backup-azure-vms-automation.md" r:id="rId60"/>
-    <hyperlink ref="G16" display="backup-azure-vms-automation.d0d4dc397e5bf9dc6645044c8761b9bc461e83eb.es-es.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="backup-azure-vms-encryption.md" r:id="rId62"/>
-    <hyperlink ref="D17" display="backup-azure-vms-encryption.8fbd92539c56b584e16c16691f2fe8147cec95aa.es-es.xlf" r:id="rId63"/>
-    <hyperlink ref="F17" display="backup-azure-vms-encryption.md" r:id="rId64"/>
-    <hyperlink ref="G17" display="backup-azure-vms-encryption.8fbd92539c56b584e16c16691f2fe8147cec95aa.es-es.xlf" r:id="rId65"/>
-    <hyperlink ref="A18" display="backup-azure-vms-first-look-arm.md" r:id="rId66"/>
-    <hyperlink ref="D18" display="backup-azure-vms-first-look-arm.615ea8fdc03efc792620c2bdfdd8585fa4eae0b4.es-es.xlf" r:id="rId67"/>
-    <hyperlink ref="F18" display="backup-azure-vms-first-look-arm.md" r:id="rId68"/>
-    <hyperlink ref="G18" display="backup-azure-vms-first-look-arm.615ea8fdc03efc792620c2bdfdd8585fa4eae0b4.es-es.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="backup-azure-vms-first-look.md" r:id="rId70"/>
-    <hyperlink ref="D19" display="backup-azure-vms-first-look.44b62828196fa70dc017446080c03631696a8249.es-es.xlf" r:id="rId71"/>
-    <hyperlink ref="F19" display="backup-azure-vms-first-look.md" r:id="rId72"/>
-    <hyperlink ref="G19" display="backup-azure-vms-first-look.44b62828196fa70dc017446080c03631696a8249.es-es.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="backup-azure-vms-introduction.md" r:id="rId74"/>
-    <hyperlink ref="D20" display="backup-azure-vms-introduction.5b88fad609e8b713b614d52498c0c2a427125fcd.es-es.xlf" r:id="rId75"/>
-    <hyperlink ref="F20" display="backup-azure-vms-introduction.md" r:id="rId76"/>
-    <hyperlink ref="G20" display="backup-azure-vms-introduction.5b88fad609e8b713b614d52498c0c2a427125fcd.es-es.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="backup-azure-vms-prepare.md" r:id="rId78"/>
-    <hyperlink ref="D21" display="backup-azure-vms-prepare.59ccf592d25842a9145c0bc91adfb0255895851e.es-es.xlf" r:id="rId79"/>
-    <hyperlink ref="F21" display="backup-azure-vms-prepare.md" r:id="rId80"/>
-    <hyperlink ref="G21" display="backup-azure-vms-prepare.59ccf592d25842a9145c0bc91adfb0255895851e.es-es.xlf" r:id="rId81"/>
-    <hyperlink ref="A22" display="backup-azure-vms-troubleshoot.md" r:id="rId82"/>
-    <hyperlink ref="D22" display="backup-azure-vms-troubleshoot.66e39d76ae3bba71b94377dd8eeb8829e045ce05.es-es.xlf" r:id="rId83"/>
-    <hyperlink ref="F22" display="backup-azure-vms-troubleshoot.md" r:id="rId84"/>
-    <hyperlink ref="G22" display="backup-azure-vms-troubleshoot.66e39d76ae3bba71b94377dd8eeb8829e045ce05.es-es.xlf" r:id="rId85"/>
-    <hyperlink ref="A23" display="backup-azure-vms.md" r:id="rId86"/>
-    <hyperlink ref="D23" display="backup-azure-vms.b99f17fff671ff076ee2b1ae9eece8c235795c56.es-es.xlf" r:id="rId87"/>
-    <hyperlink ref="F23" display="backup-azure-vms.md" r:id="rId88"/>
-    <hyperlink ref="G23" display="backup-azure-vms.b99f17fff671ff076ee2b1ae9eece8c235795c56.es-es.xlf" r:id="rId89"/>
-    <hyperlink ref="A24" display="backup-client-automation.md" r:id="rId90"/>
-    <hyperlink ref="D24" display="backup-client-automation.8ade136414882a6b9ae0ca57315449ed7e473f4f.es-es.xlf" r:id="rId91"/>
-    <hyperlink ref="F24" display="backup-client-automation.md" r:id="rId92"/>
-    <hyperlink ref="G24" display="backup-client-automation.8ade136414882a6b9ae0ca57315449ed7e473f4f.es-es.xlf" r:id="rId93"/>
-    <hyperlink ref="A25" display="backup-configure-vault.md" r:id="rId94"/>
-    <hyperlink ref="D25" display="backup-configure-vault.a33303dabd826c3054c242f9977a7420496c9e31.es-es.xlf" r:id="rId95"/>
-    <hyperlink ref="F25" display="backup-configure-vault.md" r:id="rId96"/>
-    <hyperlink ref="G25" display="backup-configure-vault.a33303dabd826c3054c242f9977a7420496c9e31.es-es.xlf" r:id="rId97"/>
-    <hyperlink ref="A26" display="backup-dpm-automation.md" r:id="rId98"/>
-    <hyperlink ref="D26" display="backup-dpm-automation.cefc2a80de36d1ace448122b64f35398c7e0fb25.es-es.xlf" r:id="rId99"/>
-    <hyperlink ref="F26" display="backup-dpm-automation.md" r:id="rId100"/>
-    <hyperlink ref="G26" display="backup-dpm-automation.cefc2a80de36d1ace448122b64f35398c7e0fb25.es-es.xlf" r:id="rId101"/>
-    <hyperlink ref="A27" display="backup-introduction-to-azure-backup.md" r:id="rId102"/>
-    <hyperlink ref="D27" display="backup-introduction-to-azure-backup.1921fe0268e73fd9fb30c06aa2a816affbf2d37c.es-es.xlf" r:id="rId103"/>
-    <hyperlink ref="F27" display="backup-introduction-to-azure-backup.md" r:id="rId104"/>
-    <hyperlink ref="G27" display="backup-introduction-to-azure-backup.1921fe0268e73fd9fb30c06aa2a816affbf2d37c.es-es.xlf" r:id="rId105"/>
-    <hyperlink ref="A28" display="backup-try-azure-backup-in-10-mins.md" r:id="rId106"/>
-    <hyperlink ref="D28" display="backup-try-azure-backup-in-10-mins.6a21824a3747781599c406acc538f8348f4dc03f.es-es.xlf" r:id="rId107"/>
-    <hyperlink ref="F28" display="backup-try-azure-backup-in-10-mins.md" r:id="rId108"/>
-    <hyperlink ref="G28" display="backup-try-azure-backup-in-10-mins.6a21824a3747781599c406acc538f8348f4dc03f.es-es.xlf" r:id="rId109"/>
-    <hyperlink ref="A29" display="rs-vault-attributes.png" r:id="rId110"/>
-    <hyperlink ref="D29" display="b8181dee84738bf982cc86328bd201c251413e1f.png" r:id="rId111"/>
-    <hyperlink ref="F29" display="rs-vault-attributes.png" r:id="rId112"/>
-    <hyperlink ref="G29" display="b8181dee84738bf982cc86328bd201c251413e1f.png" r:id="rId113"/>
-    <hyperlink ref="A30" display="batch-account-create-portal.md" r:id="rId114"/>
-    <hyperlink ref="D30" display="batch-account-create-portal.78ed134d44517208203c7577a9dc09f9c474871f.es-es.xlf" r:id="rId115"/>
-    <hyperlink ref="F30" display="batch-account-create-portal.md" r:id="rId116"/>
-    <hyperlink ref="G30" display="batch-account-create-portal.78ed134d44517208203c7577a9dc09f9c474871f.es-es.xlf" r:id="rId117"/>
-    <hyperlink ref="A31" display="batch-api-basics.md" r:id="rId118"/>
-    <hyperlink ref="D31" display="batch-api-basics.7d8c16c61ff0de117097f75adf8e7eb4704abaeb.es-es.xlf" r:id="rId119"/>
-    <hyperlink ref="F31" display="batch-api-basics.md" r:id="rId120"/>
-    <hyperlink ref="G31" display="batch-api-basics.7d8c16c61ff0de117097f75adf8e7eb4704abaeb.es-es.xlf" r:id="rId121"/>
-    <hyperlink ref="A32" display="batch-application-packages.md" r:id="rId122"/>
-    <hyperlink ref="D32" display="batch-application-packages.839907f90b12be55ecba4343fa4a05c837f83f1e.es-es.xlf" r:id="rId123"/>
-    <hyperlink ref="F32" display="batch-application-packages.md" r:id="rId124"/>
-    <hyperlink ref="G32" display="batch-application-packages.839907f90b12be55ecba4343fa4a05c837f83f1e.es-es.xlf" r:id="rId125"/>
-    <hyperlink ref="A33" display="batch-automatic-scaling.md" r:id="rId126"/>
-    <hyperlink ref="D33" display="batch-automatic-scaling.ea0a47ae58662834b79cea9db73a16a0ae86cc67.es-es.xlf" r:id="rId127"/>
-    <hyperlink ref="F33" display="batch-automatic-scaling.md" r:id="rId128"/>
-    <hyperlink ref="G33" display="batch-automatic-scaling.ea0a47ae58662834b79cea9db73a16a0ae86cc67.es-es.xlf" r:id="rId129"/>
-    <hyperlink ref="A34" display="batch-dotnet-get-started.md" r:id="rId130"/>
-    <hyperlink ref="D34" display="batch-dotnet-get-started.ae7ffeb9c6299793956301ca2964a1afa7d2fd88.es-es.xlf" r:id="rId131"/>
-    <hyperlink ref="F34" display="batch-dotnet-get-started.md" r:id="rId132"/>
-    <hyperlink ref="G34" display="batch-dotnet-get-started.ae7ffeb9c6299793956301ca2964a1afa7d2fd88.es-es.xlf" r:id="rId133"/>
-    <hyperlink ref="A35" display="batch-efficient-list-queries.md" r:id="rId134"/>
-    <hyperlink ref="D35" display="batch-efficient-list-queries.e738a5613e0a1f2c6f3f6a9cd8c1b35a60bed398.es-es.xlf" r:id="rId135"/>
-    <hyperlink ref="F35" display="batch-efficient-list-queries.md" r:id="rId136"/>
-    <hyperlink ref="G35" display="batch-efficient-list-queries.e738a5613e0a1f2c6f3f6a9cd8c1b35a60bed398.es-es.xlf" r:id="rId137"/>
-    <hyperlink ref="A36" display="batch-hpc-solutions.md" r:id="rId138"/>
-    <hyperlink ref="D36" display="batch-hpc-solutions.d4223b718daf6f80be9975cea9f454dcc76ef415.es-es.xlf" r:id="rId139"/>
-    <hyperlink ref="F36" display="batch-hpc-solutions.md" r:id="rId140"/>
-    <hyperlink ref="G36" display="batch-hpc-solutions.d4223b718daf6f80be9975cea9f454dcc76ef415.es-es.xlf" r:id="rId141"/>
-    <hyperlink ref="A37" display="batch-job-prep-release.md" r:id="rId142"/>
-    <hyperlink ref="D37" display="batch-job-prep-release.3b96ef6921ea0b79e4ad95d32ee7e4cbcb6abb77.es-es.xlf" r:id="rId143"/>
-    <hyperlink ref="F37" display="batch-job-prep-release.md" r:id="rId144"/>
-    <hyperlink ref="G37" display="batch-job-prep-release.3b96ef6921ea0b79e4ad95d32ee7e4cbcb6abb77.es-es.xlf" r:id="rId145"/>
-    <hyperlink ref="A38" display="batch-management-dotnet.md" r:id="rId146"/>
-    <hyperlink ref="D38" display="batch-management-dotnet.d203992c565976182f8b6b9aae8243f91750c9f1.es-es.xlf" r:id="rId147"/>
-    <hyperlink ref="F38" display="batch-management-dotnet.md" r:id="rId148"/>
-    <hyperlink ref="G38" display="batch-management-dotnet.d203992c565976182f8b6b9aae8243f91750c9f1.es-es.xlf" r:id="rId149"/>
-    <hyperlink ref="A39" display="batch-mpi.md" r:id="rId150"/>
-    <hyperlink ref="D39" display="batch-mpi.3a45cc39ad96fa01b33e2c3d90bb6d2c27e0fd24.es-es.xlf" r:id="rId151"/>
-    <hyperlink ref="F39" display="batch-mpi.md" r:id="rId152"/>
-    <hyperlink ref="G39" display="batch-mpi.3a45cc39ad96fa01b33e2c3d90bb6d2c27e0fd24.es-es.xlf" r:id="rId153"/>
-    <hyperlink ref="A40" display="batch-parallel-node-tasks.md" r:id="rId154"/>
-    <hyperlink ref="D40" display="batch-parallel-node-tasks.4cb967db290abe502f0fa22938562d6bdda0e2ba.es-es.xlf" r:id="rId155"/>
-    <hyperlink ref="F40" display="batch-parallel-node-tasks.md" r:id="rId156"/>
-    <hyperlink ref="G40" display="batch-parallel-node-tasks.4cb967db290abe502f0fa22938562d6bdda0e2ba.es-es.xlf" r:id="rId157"/>
-    <hyperlink ref="A41" display="batch-powershell-cmdlets-get-started.md" r:id="rId158"/>
-    <hyperlink ref="D41" display="batch-powershell-cmdlets-get-started.3e697d2ff119d81476a7ed1d89a0a26f5de7d02c.es-es.xlf" r:id="rId159"/>
-    <hyperlink ref="F41" display="batch-powershell-cmdlets-get-started.md" r:id="rId160"/>
-    <hyperlink ref="G41" display="batch-powershell-cmdlets-get-started.3e697d2ff119d81476a7ed1d89a0a26f5de7d02c.es-es.xlf" r:id="rId161"/>
-    <hyperlink ref="A42" display="batch-quota-limit.md" r:id="rId162"/>
-    <hyperlink ref="D42" display="batch-quota-limit.20c770ae03f99e4cf1650c5ed1058a45a2422d66.es-es.xlf" r:id="rId163"/>
-    <hyperlink ref="F42" display="batch-quota-limit.md" r:id="rId164"/>
-    <hyperlink ref="G42" display="batch-quota-limit.20c770ae03f99e4cf1650c5ed1058a45a2422d66.es-es.xlf" r:id="rId165"/>
-    <hyperlink ref="A43" display="batch-technical-overview.md" r:id="rId166"/>
-    <hyperlink ref="D43" display="batch-technical-overview.c36133f85fe4e21f595fe5d23b7723f138ea7519.es-es.xlf" r:id="rId167"/>
-    <hyperlink ref="F43" display="batch-technical-overview.md" r:id="rId168"/>
-    <hyperlink ref="G43" display="batch-technical-overview.c36133f85fe4e21f595fe5d23b7723f138ea7519.es-es.xlf" r:id="rId169"/>
-    <hyperlink ref="A44" display="big-compute-resources.md" r:id="rId170"/>
-    <hyperlink ref="D44" display="big-compute-resources.1a84d464e3fb971511cb80e47753ed92db34a9f5.es-es.xlf" r:id="rId171"/>
-    <hyperlink ref="F44" display="big-compute-resources.md" r:id="rId172"/>
-    <hyperlink ref="G44" display="big-compute-resources.1a84d464e3fb971511cb80e47753ed92db34a9f5.es-es.xlf" r:id="rId173"/>
-    <hyperlink ref="A45" display="app_pkg_03.png" r:id="rId174"/>
-    <hyperlink ref="D45" display="0c696f1f40b2b14acbdf785c015ca20447e4dc04.png" r:id="rId175"/>
-    <hyperlink ref="F45" display="app_pkg_03.png" r:id="rId176"/>
-    <hyperlink ref="G45" display="0c696f1f40b2b14acbdf785c015ca20447e4dc04.png" r:id="rId177"/>
-    <hyperlink ref="A46" display="cloud-services-python-ptvs.md" r:id="rId178"/>
-    <hyperlink ref="D46" display="cloud-services-python-ptvs.b2245db6f217fce1ff6a00cf408d99fea0b774d5.es-es.xlf" r:id="rId179"/>
-    <hyperlink ref="F46" display="cloud-services-python-ptvs.md" r:id="rId180"/>
-    <hyperlink ref="G46" display="cloud-services-python-ptvs.b2245db6f217fce1ff6a00cf408d99fea0b774d5.es-es.xlf" r:id="rId181"/>
-    <hyperlink ref="A47" display="backup-create-vault-for-vms.md" r:id="rId182"/>
-    <hyperlink ref="D47" display="backup-create-vault-for-vms.5e80645fe95ea058dc0bc87b577ec5bb3465afbd.es-es.xlf" r:id="rId183"/>
-    <hyperlink ref="F47" display="backup-create-vault-for-vms.md" r:id="rId184"/>
-    <hyperlink ref="G47" display="backup-create-vault-for-vms.5e80645fe95ea058dc0bc87b577ec5bb3465afbd.es-es.xlf" r:id="rId185"/>
-    <hyperlink ref="A48" display="backup-create-vault-wgif.md" r:id="rId186"/>
-    <hyperlink ref="D48" display="backup-create-vault-wgif.2a73b797845c393ae6a5c3f905a0c1dd4ebf9181.es-es.xlf" r:id="rId187"/>
-    <hyperlink ref="F48" display="backup-create-vault-wgif.md" r:id="rId188"/>
-    <hyperlink ref="G48" display="backup-create-vault-wgif.2a73b797845c393ae6a5c3f905a0c1dd4ebf9181.es-es.xlf" r:id="rId189"/>
-    <hyperlink ref="A49" display="backup-create-vault.md" r:id="rId190"/>
-    <hyperlink ref="D49" display="backup-create-vault.edf2b674739e25e6310e9e4e241f225e0453dfe4.es-es.xlf" r:id="rId191"/>
-    <hyperlink ref="F49" display="backup-create-vault.md" r:id="rId192"/>
-    <hyperlink ref="G49" display="backup-create-vault.edf2b674739e25e6310e9e4e241f225e0453dfe4.es-es.xlf" r:id="rId193"/>
-    <hyperlink ref="A50" display="backup-download-credentials.md" r:id="rId194"/>
-    <hyperlink ref="D50" display="backup-download-credentials.4b493b2d9323ca43bdae9a5efc6a310bddcd4197.es-es.xlf" r:id="rId195"/>
-    <hyperlink ref="F50" display="backup-download-credentials.md" r:id="rId196"/>
-    <hyperlink ref="G50" display="backup-download-credentials.4b493b2d9323ca43bdae9a5efc6a310bddcd4197.es-es.xlf" r:id="rId197"/>
-    <hyperlink ref="A51" display="backup-install-agent.md" r:id="rId198"/>
-    <hyperlink ref="D51" display="backup-install-agent.b10c65fb2d1fc9e69d93203b0546fed307f064e8.es-es.xlf" r:id="rId199"/>
-    <hyperlink ref="F51" display="backup-install-agent.md" r:id="rId200"/>
-    <hyperlink ref="G51" display="backup-install-agent.b10c65fb2d1fc9e69d93203b0546fed307f064e8.es-es.xlf" r:id="rId201"/>
+    <hyperlink ref="F2" display="backup-azure-backup-cloud-as-tape.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="backup-azure-backup-exchange-server.md" r:id="rId4"/>
+    <hyperlink ref="F3" display="backup-azure-backup-exchange-server.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="backup-azure-backup-ibiza-faq.md" r:id="rId6"/>
+    <hyperlink ref="F4" display="backup-azure-backup-ibiza-faq.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="backup-azure-backup-import-export.md" r:id="rId8"/>
+    <hyperlink ref="F5" display="backup-azure-backup-import-export.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="backup-azure-backup-sharepoint.md" r:id="rId10"/>
+    <hyperlink ref="F6" display="backup-azure-backup-sharepoint.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="backup-azure-backup-sql.md" r:id="rId12"/>
+    <hyperlink ref="F7" display="backup-azure-backup-sql.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="backup-azure-backup-windows-server.md" r:id="rId14"/>
+    <hyperlink ref="F8" display="backup-azure-backup-windows-server.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="backup-azure-dpm-introduction.md" r:id="rId16"/>
+    <hyperlink ref="F9" display="backup-azure-dpm-introduction.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="backup-azure-manage-vms.md" r:id="rId18"/>
+    <hyperlink ref="F10" display="backup-azure-manage-vms.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="backup-azure-manage-windows-server.md" r:id="rId20"/>
+    <hyperlink ref="F11" display="backup-azure-manage-windows-server.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="backup-azure-microsoft-azure-backup.md" r:id="rId22"/>
+    <hyperlink ref="F12" display="backup-azure-microsoft-azure-backup.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="backup-azure-restore-vms.md" r:id="rId24"/>
+    <hyperlink ref="F13" display="backup-azure-restore-vms.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="backup-azure-restore-windows-server.md" r:id="rId26"/>
+    <hyperlink ref="F14" display="backup-azure-restore-windows-server.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="backup-azure-storage-redundancy-options.md" r:id="rId28"/>
+    <hyperlink ref="F15" display="backup-azure-storage-redundancy-options.md" r:id="rId29"/>
+    <hyperlink ref="A16" display="backup-azure-vms-automation.md" r:id="rId30"/>
+    <hyperlink ref="F16" display="backup-azure-vms-automation.md" r:id="rId31"/>
+    <hyperlink ref="A17" display="backup-azure-vms-encryption.md" r:id="rId32"/>
+    <hyperlink ref="F17" display="backup-azure-vms-encryption.md" r:id="rId33"/>
+    <hyperlink ref="A18" display="backup-azure-vms-first-look-arm.md" r:id="rId34"/>
+    <hyperlink ref="F18" display="backup-azure-vms-first-look-arm.md" r:id="rId35"/>
+    <hyperlink ref="A19" display="backup-azure-vms-first-look.md" r:id="rId36"/>
+    <hyperlink ref="F19" display="backup-azure-vms-first-look.md" r:id="rId37"/>
+    <hyperlink ref="A20" display="backup-azure-vms-introduction.md" r:id="rId38"/>
+    <hyperlink ref="F20" display="backup-azure-vms-introduction.md" r:id="rId39"/>
+    <hyperlink ref="A21" display="backup-azure-vms-prepare.md" r:id="rId40"/>
+    <hyperlink ref="F21" display="backup-azure-vms-prepare.md" r:id="rId41"/>
+    <hyperlink ref="A22" display="backup-azure-vms-troubleshoot.md" r:id="rId42"/>
+    <hyperlink ref="F22" display="backup-azure-vms-troubleshoot.md" r:id="rId43"/>
+    <hyperlink ref="A23" display="backup-azure-vms.md" r:id="rId44"/>
+    <hyperlink ref="F23" display="backup-azure-vms.md" r:id="rId45"/>
+    <hyperlink ref="A24" display="backup-client-automation.md" r:id="rId46"/>
+    <hyperlink ref="F24" display="backup-client-automation.md" r:id="rId47"/>
+    <hyperlink ref="A25" display="backup-configure-vault.md" r:id="rId48"/>
+    <hyperlink ref="F25" display="backup-configure-vault.md" r:id="rId49"/>
+    <hyperlink ref="A26" display="backup-dpm-automation.md" r:id="rId50"/>
+    <hyperlink ref="F26" display="backup-dpm-automation.md" r:id="rId51"/>
+    <hyperlink ref="A27" display="backup-introduction-to-azure-backup.md" r:id="rId52"/>
+    <hyperlink ref="F27" display="backup-introduction-to-azure-backup.md" r:id="rId53"/>
+    <hyperlink ref="A28" display="backup-try-azure-backup-in-10-mins.md" r:id="rId54"/>
+    <hyperlink ref="F28" display="backup-try-azure-backup-in-10-mins.md" r:id="rId55"/>
+    <hyperlink ref="A29" display="prereq-screen2.png" r:id="rId56"/>
+    <hyperlink ref="F29" display="prereq-screen2.png" r:id="rId57"/>
+    <hyperlink ref="A30" display="rs-vault-attributes.png" r:id="rId58"/>
+    <hyperlink ref="F30" display="rs-vault-attributes.png" r:id="rId59"/>
+    <hyperlink ref="A31" display="batch-account-create-portal.md" r:id="rId60"/>
+    <hyperlink ref="F31" display="batch-account-create-portal.md" r:id="rId61"/>
+    <hyperlink ref="A32" display="batch-api-basics.md" r:id="rId62"/>
+    <hyperlink ref="F32" display="batch-api-basics.md" r:id="rId63"/>
+    <hyperlink ref="A33" display="batch-application-packages.md" r:id="rId64"/>
+    <hyperlink ref="F33" display="batch-application-packages.md" r:id="rId65"/>
+    <hyperlink ref="A34" display="batch-automatic-scaling.md" r:id="rId66"/>
+    <hyperlink ref="F34" display="batch-automatic-scaling.md" r:id="rId67"/>
+    <hyperlink ref="A35" display="batch-dotnet-get-started.md" r:id="rId68"/>
+    <hyperlink ref="F35" display="batch-dotnet-get-started.md" r:id="rId69"/>
+    <hyperlink ref="A36" display="batch-efficient-list-queries.md" r:id="rId70"/>
+    <hyperlink ref="F36" display="batch-efficient-list-queries.md" r:id="rId71"/>
+    <hyperlink ref="A37" display="batch-hpc-solutions.md" r:id="rId72"/>
+    <hyperlink ref="F37" display="batch-hpc-solutions.md" r:id="rId73"/>
+    <hyperlink ref="A38" display="batch-job-prep-release.md" r:id="rId74"/>
+    <hyperlink ref="F38" display="batch-job-prep-release.md" r:id="rId75"/>
+    <hyperlink ref="A39" display="batch-management-dotnet.md" r:id="rId76"/>
+    <hyperlink ref="F39" display="batch-management-dotnet.md" r:id="rId77"/>
+    <hyperlink ref="A40" display="batch-mpi.md" r:id="rId78"/>
+    <hyperlink ref="F40" display="batch-mpi.md" r:id="rId79"/>
+    <hyperlink ref="A41" display="batch-parallel-node-tasks.md" r:id="rId80"/>
+    <hyperlink ref="F41" display="batch-parallel-node-tasks.md" r:id="rId81"/>
+    <hyperlink ref="A42" display="batch-powershell-cmdlets-get-started.md" r:id="rId82"/>
+    <hyperlink ref="F42" display="batch-powershell-cmdlets-get-started.md" r:id="rId83"/>
+    <hyperlink ref="A43" display="batch-quota-limit.md" r:id="rId84"/>
+    <hyperlink ref="F43" display="batch-quota-limit.md" r:id="rId85"/>
+    <hyperlink ref="A44" display="batch-technical-overview.md" r:id="rId86"/>
+    <hyperlink ref="F44" display="batch-technical-overview.md" r:id="rId87"/>
+    <hyperlink ref="A45" display="big-compute-resources.md" r:id="rId88"/>
+    <hyperlink ref="F45" display="big-compute-resources.md" r:id="rId89"/>
+    <hyperlink ref="A46" display="app_pkg_03.png" r:id="rId90"/>
+    <hyperlink ref="F46" display="app_pkg_03.png" r:id="rId91"/>
+    <hyperlink ref="A47" display="cloud-services-python-ptvs.md" r:id="rId92"/>
+    <hyperlink ref="F47" display="cloud-services-python-ptvs.md" r:id="rId93"/>
+    <hyperlink ref="A48" display="backup-create-vault-for-vms.md" r:id="rId94"/>
+    <hyperlink ref="F48" display="backup-create-vault-for-vms.md" r:id="rId95"/>
+    <hyperlink ref="A49" display="backup-create-vault-wgif.md" r:id="rId96"/>
+    <hyperlink ref="F49" display="backup-create-vault-wgif.md" r:id="rId97"/>
+    <hyperlink ref="A50" display="backup-create-vault.md" r:id="rId98"/>
+    <hyperlink ref="F50" display="backup-create-vault.md" r:id="rId99"/>
+    <hyperlink ref="A51" display="backup-download-credentials.md" r:id="rId100"/>
+    <hyperlink ref="F51" display="backup-download-credentials.md" r:id="rId101"/>
+    <hyperlink ref="A52" display="backup-install-agent.md" r:id="rId102"/>
+    <hyperlink ref="F52" display="backup-install-agent.md" r:id="rId103"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2819,56 +3535,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="1" max="1" width="16.6706946236747" customWidth="1"/>
+    <col min="2" max="2" width="13.4869144984654" customWidth="1"/>
+    <col min="3" max="3" width="6.86154392787388" customWidth="1"/>
+    <col min="4" max="4" width="22.7937404087612" customWidth="1"/>
+    <col min="5" max="5" width="27.9131600516183" customWidth="1"/>
+    <col min="6" max="6" width="10.6069859095982" customWidth="1"/>
+    <col min="7" max="7" width="24.398930140904" customWidth="1"/>
+    <col min="8" max="8" width="29.8467516217913" customWidth="1"/>
+    <col min="9" max="9" width="17.048205784389" customWidth="1"/>
+    <col min="10" max="10" width="14.4148352486747" customWidth="1"/>
+    <col min="11" max="11" width="17.4799390520368" customWidth="1"/>
+    <col min="12" max="12" width="11.4970528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/master/handback-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>File Name</t>
   </si>
@@ -29,24 +29,30 @@
     <t>Latest Handoff Date</t>
   </si>
   <si>
+    <t>backup-azure-backup-ibiza-faq.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-04-13 05:21:46</t>
+  </si>
+  <si>
+    <t>backup-azure-alternate-dpm-server.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>backup-azure-backup-cloud-as-tape.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-04-13 05:21:46</t>
-  </si>
-  <si>
     <t>backup-azure-backup-exchange-server.md</t>
   </si>
   <si>
-    <t>backup-azure-backup-ibiza-faq.md</t>
-  </si>
-  <si>
     <t>backup-azure-backup-import-export.md</t>
   </si>
   <si>
@@ -233,25 +239,31 @@
     <t>Error Detail</t>
   </si>
   <si>
+    <t>backup-azure-backup-ibiza-faq.4d57f916a89dceb35d677122fb6c5f71a592b0c5.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-19 21:35:59</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>backup-azure-alternate-dpm-server.bcc2c5562185291769fd481c4b867794637558e2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-21 23:01:39</t>
+  </si>
+  <si>
     <t>backup-azure-backup-cloud-as-tape.863f64b956fc7ada5c5954a4395ee7b8769f2c8e.es-es.xlf</t>
   </si>
   <si>
     <t>2016-04-19 21:36:18</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>backup-azure-backup-exchange-server.08d5b373e807c145886bf8eccc0f0088c08ca638.es-es.xlf</t>
-  </si>
-  <si>
-    <t>backup-azure-backup-ibiza-faq.4d57f916a89dceb35d677122fb6c5f71a592b0c5.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-19 21:35:59</t>
   </si>
   <si>
     <t>backup-azure-backup-import-export.8bef4bd450d2f924e000c767c2435558d59bb903.es-es.xlf</t>
@@ -493,8 +505,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="es-es" displayName="es_es" ref="A1:L52" headerRowCount="1">
-  <autoFilter ref="A1:L52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="es-es" displayName="es_es" ref="A1:L53" headerRowCount="1">
+  <autoFilter ref="A1:L53"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -534,8 +546,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:D52" headerRowCount="1">
-  <autoFilter ref="A1:D52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:D53" headerRowCount="1">
+  <autoFilter ref="A1:D53"/>
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Extension"/>
@@ -548,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +568,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="12.1930160522461" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="21.2031533377511" customWidth="1"/>
   </cols>
   <sheetData>
@@ -596,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -604,13 +616,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -618,13 +630,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -632,13 +644,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -646,13 +658,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -660,13 +672,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -674,13 +686,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -688,13 +700,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -702,13 +714,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -716,13 +728,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
@@ -730,13 +742,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
@@ -744,13 +756,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -758,13 +770,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
@@ -772,13 +784,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>7</v>
@@ -786,13 +798,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
@@ -800,13 +812,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
@@ -814,13 +826,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -828,13 +840,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
@@ -842,13 +854,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
@@ -856,13 +868,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>7</v>
@@ -870,13 +882,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>7</v>
@@ -884,13 +896,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
@@ -898,13 +910,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -912,13 +924,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>7</v>
@@ -926,13 +938,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
@@ -940,13 +952,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>7</v>
@@ -954,55 +966,55 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="C30" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>7</v>
@@ -1010,13 +1022,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>7</v>
@@ -1024,13 +1036,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>7</v>
@@ -1038,13 +1050,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
@@ -1052,13 +1064,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>7</v>
@@ -1066,13 +1078,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>7</v>
@@ -1080,13 +1092,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>7</v>
@@ -1094,13 +1106,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>7</v>
@@ -1108,13 +1120,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>7</v>
@@ -1122,13 +1134,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>7</v>
@@ -1136,13 +1148,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>7</v>
@@ -1150,13 +1162,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>7</v>
@@ -1164,13 +1176,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>7</v>
@@ -1178,13 +1190,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>7</v>
@@ -1192,41 +1204,41 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>7</v>
@@ -1234,13 +1246,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>7</v>
@@ -1248,13 +1260,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>7</v>
@@ -1262,13 +1274,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
@@ -1276,71 +1288,86 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="backup-azure-backup-cloud-as-tape.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="backup-azure-backup-exchange-server.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="backup-azure-backup-ibiza-faq.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="backup-azure-backup-import-export.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="backup-azure-backup-sharepoint.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="backup-azure-backup-sql.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="backup-azure-backup-windows-server.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="backup-azure-dpm-introduction.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="backup-azure-manage-vms.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="backup-azure-manage-windows-server.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="backup-azure-microsoft-azure-backup.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="backup-azure-restore-vms.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="backup-azure-restore-windows-server.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="backup-azure-storage-redundancy-options.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="backup-azure-vms-automation.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="backup-azure-vms-encryption.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="backup-azure-vms-first-look-arm.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="backup-azure-vms-first-look.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="backup-azure-vms-introduction.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="backup-azure-vms-prepare.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="backup-azure-vms-troubleshoot.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="backup-azure-vms.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="backup-client-automation.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="backup-configure-vault.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="backup-dpm-automation.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="backup-introduction-to-azure-backup.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="backup-try-azure-backup-in-10-mins.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="prereq-screen2.png" r:id="rId29"/>
-    <hyperlink ref="A30" display="rs-vault-attributes.png" r:id="rId30"/>
-    <hyperlink ref="A31" display="batch-account-create-portal.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="batch-api-basics.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="batch-application-packages.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="batch-automatic-scaling.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="batch-dotnet-get-started.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="batch-efficient-list-queries.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="batch-hpc-solutions.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="batch-job-prep-release.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="batch-management-dotnet.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="batch-mpi.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="batch-parallel-node-tasks.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="batch-powershell-cmdlets-get-started.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="batch-quota-limit.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="batch-technical-overview.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="big-compute-resources.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="app_pkg_03.png" r:id="rId46"/>
-    <hyperlink ref="A47" display="cloud-services-python-ptvs.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="backup-create-vault-for-vms.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="backup-create-vault-wgif.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="backup-create-vault.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="backup-download-credentials.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="backup-install-agent.md" r:id="rId52"/>
+    <hyperlink ref="A2" display="backup-azure-backup-ibiza-faq.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="backup-azure-alternate-dpm-server.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="backup-azure-backup-cloud-as-tape.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="backup-azure-backup-exchange-server.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="backup-azure-backup-import-export.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="backup-azure-backup-sharepoint.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="backup-azure-backup-sql.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="backup-azure-backup-windows-server.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="backup-azure-dpm-introduction.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="backup-azure-manage-vms.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="backup-azure-manage-windows-server.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="backup-azure-microsoft-azure-backup.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="backup-azure-restore-vms.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="backup-azure-restore-windows-server.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="backup-azure-storage-redundancy-options.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="backup-azure-vms-automation.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="backup-azure-vms-encryption.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="backup-azure-vms-first-look-arm.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="backup-azure-vms-first-look.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="backup-azure-vms-introduction.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="backup-azure-vms-prepare.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="backup-azure-vms-troubleshoot.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="backup-azure-vms.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="backup-client-automation.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="backup-configure-vault.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="backup-dpm-automation.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="backup-introduction-to-azure-backup.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="backup-try-azure-backup-in-10-mins.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="prereq-screen2.png" r:id="rId30"/>
+    <hyperlink ref="A31" display="rs-vault-attributes.png" r:id="rId31"/>
+    <hyperlink ref="A32" display="batch-account-create-portal.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="batch-api-basics.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="batch-application-packages.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="batch-automatic-scaling.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="batch-dotnet-get-started.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="batch-efficient-list-queries.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="batch-hpc-solutions.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="batch-job-prep-release.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="batch-management-dotnet.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="batch-mpi.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="batch-parallel-node-tasks.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="batch-powershell-cmdlets-get-started.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="batch-quota-limit.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="batch-technical-overview.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="big-compute-resources.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="app_pkg_03.png" r:id="rId47"/>
+    <hyperlink ref="A48" display="cloud-services-python-ptvs.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="backup-create-vault-for-vms.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="backup-create-vault-wgif.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="backup-create-vault.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="backup-download-credentials.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="backup-install-agent.md" r:id="rId53"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1373,40 +1400,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1427,7 +1454,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="30.1631600516183" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -1441,40 +1468,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -1488,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -1497,22 +1524,22 @@
         <v>4</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1523,10 +1550,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1535,1990 +1562,2030 @@
         <v>8</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="I7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G29" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="C30" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>108</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>108</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="K31" s="0" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="backup-azure-backup-cloud-as-tape.md" r:id="rId2"/>
-    <hyperlink ref="F2" display="backup-azure-backup-cloud-as-tape.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="backup-azure-backup-exchange-server.md" r:id="rId4"/>
-    <hyperlink ref="F3" display="backup-azure-backup-exchange-server.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="backup-azure-backup-ibiza-faq.md" r:id="rId6"/>
-    <hyperlink ref="F4" display="backup-azure-backup-ibiza-faq.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="backup-azure-backup-import-export.md" r:id="rId8"/>
-    <hyperlink ref="F5" display="backup-azure-backup-import-export.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="backup-azure-backup-sharepoint.md" r:id="rId10"/>
-    <hyperlink ref="F6" display="backup-azure-backup-sharepoint.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="backup-azure-backup-sql.md" r:id="rId12"/>
-    <hyperlink ref="F7" display="backup-azure-backup-sql.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="backup-azure-backup-windows-server.md" r:id="rId14"/>
-    <hyperlink ref="F8" display="backup-azure-backup-windows-server.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="backup-azure-dpm-introduction.md" r:id="rId16"/>
-    <hyperlink ref="F9" display="backup-azure-dpm-introduction.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="backup-azure-manage-vms.md" r:id="rId18"/>
-    <hyperlink ref="F10" display="backup-azure-manage-vms.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="backup-azure-manage-windows-server.md" r:id="rId20"/>
-    <hyperlink ref="F11" display="backup-azure-manage-windows-server.md" r:id="rId21"/>
-    <hyperlink ref="A12" display="backup-azure-microsoft-azure-backup.md" r:id="rId22"/>
-    <hyperlink ref="F12" display="backup-azure-microsoft-azure-backup.md" r:id="rId23"/>
-    <hyperlink ref="A13" display="backup-azure-restore-vms.md" r:id="rId24"/>
-    <hyperlink ref="F13" display="backup-azure-restore-vms.md" r:id="rId25"/>
-    <hyperlink ref="A14" display="backup-azure-restore-windows-server.md" r:id="rId26"/>
-    <hyperlink ref="F14" display="backup-azure-restore-windows-server.md" r:id="rId27"/>
-    <hyperlink ref="A15" display="backup-azure-storage-redundancy-options.md" r:id="rId28"/>
-    <hyperlink ref="F15" display="backup-azure-storage-redundancy-options.md" r:id="rId29"/>
-    <hyperlink ref="A16" display="backup-azure-vms-automation.md" r:id="rId30"/>
-    <hyperlink ref="F16" display="backup-azure-vms-automation.md" r:id="rId31"/>
-    <hyperlink ref="A17" display="backup-azure-vms-encryption.md" r:id="rId32"/>
-    <hyperlink ref="F17" display="backup-azure-vms-encryption.md" r:id="rId33"/>
-    <hyperlink ref="A18" display="backup-azure-vms-first-look-arm.md" r:id="rId34"/>
-    <hyperlink ref="F18" display="backup-azure-vms-first-look-arm.md" r:id="rId35"/>
-    <hyperlink ref="A19" display="backup-azure-vms-first-look.md" r:id="rId36"/>
-    <hyperlink ref="F19" display="backup-azure-vms-first-look.md" r:id="rId37"/>
-    <hyperlink ref="A20" display="backup-azure-vms-introduction.md" r:id="rId38"/>
-    <hyperlink ref="F20" display="backup-azure-vms-introduction.md" r:id="rId39"/>
-    <hyperlink ref="A21" display="backup-azure-vms-prepare.md" r:id="rId40"/>
-    <hyperlink ref="F21" display="backup-azure-vms-prepare.md" r:id="rId41"/>
-    <hyperlink ref="A22" display="backup-azure-vms-troubleshoot.md" r:id="rId42"/>
-    <hyperlink ref="F22" display="backup-azure-vms-troubleshoot.md" r:id="rId43"/>
-    <hyperlink ref="A23" display="backup-azure-vms.md" r:id="rId44"/>
-    <hyperlink ref="F23" display="backup-azure-vms.md" r:id="rId45"/>
-    <hyperlink ref="A24" display="backup-client-automation.md" r:id="rId46"/>
-    <hyperlink ref="F24" display="backup-client-automation.md" r:id="rId47"/>
-    <hyperlink ref="A25" display="backup-configure-vault.md" r:id="rId48"/>
-    <hyperlink ref="F25" display="backup-configure-vault.md" r:id="rId49"/>
-    <hyperlink ref="A26" display="backup-dpm-automation.md" r:id="rId50"/>
-    <hyperlink ref="F26" display="backup-dpm-automation.md" r:id="rId51"/>
-    <hyperlink ref="A27" display="backup-introduction-to-azure-backup.md" r:id="rId52"/>
-    <hyperlink ref="F27" display="backup-introduction-to-azure-backup.md" r:id="rId53"/>
-    <hyperlink ref="A28" display="backup-try-azure-backup-in-10-mins.md" r:id="rId54"/>
-    <hyperlink ref="F28" display="backup-try-azure-backup-in-10-mins.md" r:id="rId55"/>
-    <hyperlink ref="A29" display="prereq-screen2.png" r:id="rId56"/>
-    <hyperlink ref="F29" display="prereq-screen2.png" r:id="rId57"/>
-    <hyperlink ref="A30" display="rs-vault-attributes.png" r:id="rId58"/>
-    <hyperlink ref="F30" display="rs-vault-attributes.png" r:id="rId59"/>
-    <hyperlink ref="A31" display="batch-account-create-portal.md" r:id="rId60"/>
-    <hyperlink ref="F31" display="batch-account-create-portal.md" r:id="rId61"/>
-    <hyperlink ref="A32" display="batch-api-basics.md" r:id="rId62"/>
-    <hyperlink ref="F32" display="batch-api-basics.md" r:id="rId63"/>
-    <hyperlink ref="A33" display="batch-application-packages.md" r:id="rId64"/>
-    <hyperlink ref="F33" display="batch-application-packages.md" r:id="rId65"/>
-    <hyperlink ref="A34" display="batch-automatic-scaling.md" r:id="rId66"/>
-    <hyperlink ref="F34" display="batch-automatic-scaling.md" r:id="rId67"/>
-    <hyperlink ref="A35" display="batch-dotnet-get-started.md" r:id="rId68"/>
-    <hyperlink ref="F35" display="batch-dotnet-get-started.md" r:id="rId69"/>
-    <hyperlink ref="A36" display="batch-efficient-list-queries.md" r:id="rId70"/>
-    <hyperlink ref="F36" display="batch-efficient-list-queries.md" r:id="rId71"/>
-    <hyperlink ref="A37" display="batch-hpc-solutions.md" r:id="rId72"/>
-    <hyperlink ref="F37" display="batch-hpc-solutions.md" r:id="rId73"/>
-    <hyperlink ref="A38" display="batch-job-prep-release.md" r:id="rId74"/>
-    <hyperlink ref="F38" display="batch-job-prep-release.md" r:id="rId75"/>
-    <hyperlink ref="A39" display="batch-management-dotnet.md" r:id="rId76"/>
-    <hyperlink ref="F39" display="batch-management-dotnet.md" r:id="rId77"/>
-    <hyperlink ref="A40" display="batch-mpi.md" r:id="rId78"/>
-    <hyperlink ref="F40" display="batch-mpi.md" r:id="rId79"/>
-    <hyperlink ref="A41" display="batch-parallel-node-tasks.md" r:id="rId80"/>
-    <hyperlink ref="F41" display="batch-parallel-node-tasks.md" r:id="rId81"/>
-    <hyperlink ref="A42" display="batch-powershell-cmdlets-get-started.md" r:id="rId82"/>
-    <hyperlink ref="F42" display="batch-powershell-cmdlets-get-started.md" r:id="rId83"/>
-    <hyperlink ref="A43" display="batch-quota-limit.md" r:id="rId84"/>
-    <hyperlink ref="F43" display="batch-quota-limit.md" r:id="rId85"/>
-    <hyperlink ref="A44" display="batch-technical-overview.md" r:id="rId86"/>
-    <hyperlink ref="F44" display="batch-technical-overview.md" r:id="rId87"/>
-    <hyperlink ref="A45" display="big-compute-resources.md" r:id="rId88"/>
-    <hyperlink ref="F45" display="big-compute-resources.md" r:id="rId89"/>
-    <hyperlink ref="A46" display="app_pkg_03.png" r:id="rId90"/>
-    <hyperlink ref="F46" display="app_pkg_03.png" r:id="rId91"/>
-    <hyperlink ref="A47" display="cloud-services-python-ptvs.md" r:id="rId92"/>
-    <hyperlink ref="F47" display="cloud-services-python-ptvs.md" r:id="rId93"/>
-    <hyperlink ref="A48" display="backup-create-vault-for-vms.md" r:id="rId94"/>
-    <hyperlink ref="F48" display="backup-create-vault-for-vms.md" r:id="rId95"/>
-    <hyperlink ref="A49" display="backup-create-vault-wgif.md" r:id="rId96"/>
-    <hyperlink ref="F49" display="backup-create-vault-wgif.md" r:id="rId97"/>
-    <hyperlink ref="A50" display="backup-create-vault.md" r:id="rId98"/>
-    <hyperlink ref="F50" display="backup-create-vault.md" r:id="rId99"/>
-    <hyperlink ref="A51" display="backup-download-credentials.md" r:id="rId100"/>
-    <hyperlink ref="F51" display="backup-download-credentials.md" r:id="rId101"/>
-    <hyperlink ref="A52" display="backup-install-agent.md" r:id="rId102"/>
-    <hyperlink ref="F52" display="backup-install-agent.md" r:id="rId103"/>
+    <hyperlink ref="A2" display="backup-azure-backup-ibiza-faq.md" r:id="rId2"/>
+    <hyperlink ref="F2" display="backup-azure-backup-ibiza-faq.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="backup-azure-alternate-dpm-server.md" r:id="rId4"/>
+    <hyperlink ref="F3" display="backup-azure-alternate-dpm-server.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="backup-azure-backup-cloud-as-tape.md" r:id="rId6"/>
+    <hyperlink ref="F4" display="backup-azure-backup-cloud-as-tape.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="backup-azure-backup-exchange-server.md" r:id="rId8"/>
+    <hyperlink ref="F5" display="backup-azure-backup-exchange-server.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="backup-azure-backup-import-export.md" r:id="rId10"/>
+    <hyperlink ref="F6" display="backup-azure-backup-import-export.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="backup-azure-backup-sharepoint.md" r:id="rId12"/>
+    <hyperlink ref="F7" display="backup-azure-backup-sharepoint.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="backup-azure-backup-sql.md" r:id="rId14"/>
+    <hyperlink ref="F8" display="backup-azure-backup-sql.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="backup-azure-backup-windows-server.md" r:id="rId16"/>
+    <hyperlink ref="F9" display="backup-azure-backup-windows-server.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="backup-azure-dpm-introduction.md" r:id="rId18"/>
+    <hyperlink ref="F10" display="backup-azure-dpm-introduction.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="backup-azure-manage-vms.md" r:id="rId20"/>
+    <hyperlink ref="F11" display="backup-azure-manage-vms.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="backup-azure-manage-windows-server.md" r:id="rId22"/>
+    <hyperlink ref="F12" display="backup-azure-manage-windows-server.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="backup-azure-microsoft-azure-backup.md" r:id="rId24"/>
+    <hyperlink ref="F13" display="backup-azure-microsoft-azure-backup.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="backup-azure-restore-vms.md" r:id="rId26"/>
+    <hyperlink ref="F14" display="backup-azure-restore-vms.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="backup-azure-restore-windows-server.md" r:id="rId28"/>
+    <hyperlink ref="F15" display="backup-azure-restore-windows-server.md" r:id="rId29"/>
+    <hyperlink ref="A16" display="backup-azure-storage-redundancy-options.md" r:id="rId30"/>
+    <hyperlink ref="F16" display="backup-azure-storage-redundancy-options.md" r:id="rId31"/>
+    <hyperlink ref="A17" display="backup-azure-vms-automation.md" r:id="rId32"/>
+    <hyperlink ref="F17" display="backup-azure-vms-automation.md" r:id="rId33"/>
+    <hyperlink ref="A18" display="backup-azure-vms-encryption.md" r:id="rId34"/>
+    <hyperlink ref="F18" display="backup-azure-vms-encryption.md" r:id="rId35"/>
+    <hyperlink ref="A19" display="backup-azure-vms-first-look-arm.md" r:id="rId36"/>
+    <hyperlink ref="F19" display="backup-azure-vms-first-look-arm.md" r:id="rId37"/>
+    <hyperlink ref="A20" display="backup-azure-vms-first-look.md" r:id="rId38"/>
+    <hyperlink ref="F20" display="backup-azure-vms-first-look.md" r:id="rId39"/>
+    <hyperlink ref="A21" display="backup-azure-vms-introduction.md" r:id="rId40"/>
+    <hyperlink ref="F21" display="backup-azure-vms-introduction.md" r:id="rId41"/>
+    <hyperlink ref="A22" display="backup-azure-vms-prepare.md" r:id="rId42"/>
+    <hyperlink ref="F22" display="backup-azure-vms-prepare.md" r:id="rId43"/>
+    <hyperlink ref="A23" display="backup-azure-vms-troubleshoot.md" r:id="rId44"/>
+    <hyperlink ref="F23" display="backup-azure-vms-troubleshoot.md" r:id="rId45"/>
+    <hyperlink ref="A24" display="backup-azure-vms.md" r:id="rId46"/>
+    <hyperlink ref="F24" display="backup-azure-vms.md" r:id="rId47"/>
+    <hyperlink ref="A25" display="backup-client-automation.md" r:id="rId48"/>
+    <hyperlink ref="F25" display="backup-client-automation.md" r:id="rId49"/>
+    <hyperlink ref="A26" display="backup-configure-vault.md" r:id="rId50"/>
+    <hyperlink ref="F26" display="backup-configure-vault.md" r:id="rId51"/>
+    <hyperlink ref="A27" display="backup-dpm-automation.md" r:id="rId52"/>
+    <hyperlink ref="F27" display="backup-dpm-automation.md" r:id="rId53"/>
+    <hyperlink ref="A28" display="backup-introduction-to-azure-backup.md" r:id="rId54"/>
+    <hyperlink ref="F28" display="backup-introduction-to-azure-backup.md" r:id="rId55"/>
+    <hyperlink ref="A29" display="backup-try-azure-backup-in-10-mins.md" r:id="rId56"/>
+    <hyperlink ref="F29" display="backup-try-azure-backup-in-10-mins.md" r:id="rId57"/>
+    <hyperlink ref="A30" display="prereq-screen2.png" r:id="rId58"/>
+    <hyperlink ref="F30" display="prereq-screen2.png" r:id="rId59"/>
+    <hyperlink ref="A31" display="rs-vault-attributes.png" r:id="rId60"/>
+    <hyperlink ref="F31" display="rs-vault-attributes.png" r:id="rId61"/>
+    <hyperlink ref="A32" display="batch-account-create-portal.md" r:id="rId62"/>
+    <hyperlink ref="F32" display="batch-account-create-portal.md" r:id="rId63"/>
+    <hyperlink ref="A33" display="batch-api-basics.md" r:id="rId64"/>
+    <hyperlink ref="F33" display="batch-api-basics.md" r:id="rId65"/>
+    <hyperlink ref="A34" display="batch-application-packages.md" r:id="rId66"/>
+    <hyperlink ref="F34" display="batch-application-packages.md" r:id="rId67"/>
+    <hyperlink ref="A35" display="batch-automatic-scaling.md" r:id="rId68"/>
+    <hyperlink ref="F35" display="batch-automatic-scaling.md" r:id="rId69"/>
+    <hyperlink ref="A36" display="batch-dotnet-get-started.md" r:id="rId70"/>
+    <hyperlink ref="F36" display="batch-dotnet-get-started.md" r:id="rId71"/>
+    <hyperlink ref="A37" display="batch-efficient-list-queries.md" r:id="rId72"/>
+    <hyperlink ref="F37" display="batch-efficient-list-queries.md" r:id="rId73"/>
+    <hyperlink ref="A38" display="batch-hpc-solutions.md" r:id="rId74"/>
+    <hyperlink ref="F38" display="batch-hpc-solutions.md" r:id="rId75"/>
+    <hyperlink ref="A39" display="batch-job-prep-release.md" r:id="rId76"/>
+    <hyperlink ref="F39" display="batch-job-prep-release.md" r:id="rId77"/>
+    <hyperlink ref="A40" display="batch-management-dotnet.md" r:id="rId78"/>
+    <hyperlink ref="F40" display="batch-management-dotnet.md" r:id="rId79"/>
+    <hyperlink ref="A41" display="batch-mpi.md" r:id="rId80"/>
+    <hyperlink ref="F41" display="batch-mpi.md" r:id="rId81"/>
+    <hyperlink ref="A42" display="batch-parallel-node-tasks.md" r:id="rId82"/>
+    <hyperlink ref="F42" display="batch-parallel-node-tasks.md" r:id="rId83"/>
+    <hyperlink ref="A43" display="batch-powershell-cmdlets-get-started.md" r:id="rId84"/>
+    <hyperlink ref="F43" display="batch-powershell-cmdlets-get-started.md" r:id="rId85"/>
+    <hyperlink ref="A44" display="batch-quota-limit.md" r:id="rId86"/>
+    <hyperlink ref="F44" display="batch-quota-limit.md" r:id="rId87"/>
+    <hyperlink ref="A45" display="batch-technical-overview.md" r:id="rId88"/>
+    <hyperlink ref="F45" display="batch-technical-overview.md" r:id="rId89"/>
+    <hyperlink ref="A46" display="big-compute-resources.md" r:id="rId90"/>
+    <hyperlink ref="F46" display="big-compute-resources.md" r:id="rId91"/>
+    <hyperlink ref="A47" display="app_pkg_03.png" r:id="rId92"/>
+    <hyperlink ref="F47" display="app_pkg_03.png" r:id="rId93"/>
+    <hyperlink ref="A48" display="cloud-services-python-ptvs.md" r:id="rId94"/>
+    <hyperlink ref="F48" display="cloud-services-python-ptvs.md" r:id="rId95"/>
+    <hyperlink ref="A49" display="backup-create-vault-for-vms.md" r:id="rId96"/>
+    <hyperlink ref="F49" display="backup-create-vault-for-vms.md" r:id="rId97"/>
+    <hyperlink ref="A50" display="backup-create-vault-wgif.md" r:id="rId98"/>
+    <hyperlink ref="F50" display="backup-create-vault-wgif.md" r:id="rId99"/>
+    <hyperlink ref="A51" display="backup-create-vault.md" r:id="rId100"/>
+    <hyperlink ref="F51" display="backup-create-vault.md" r:id="rId101"/>
+    <hyperlink ref="A52" display="backup-download-credentials.md" r:id="rId102"/>
+    <hyperlink ref="F52" display="backup-download-credentials.md" r:id="rId103"/>
+    <hyperlink ref="A53" display="backup-install-agent.md" r:id="rId104"/>
+    <hyperlink ref="F53" display="backup-install-agent.md" r:id="rId105"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -3551,40 +3618,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
